--- a/data/Aluminium_Content.xlsx
+++ b/data/Aluminium_Content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\model with segments and powertrain\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E5E0C-5843-4929-A7C7-E6F5410C466C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDA141B-9B4F-4763-9B75-F1A6A8022613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Al_Content" sheetId="3" r:id="rId4"/>
     <sheet name="Inflow" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -670,20 +670,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4BF55C-8A11-4070-A8E6-96671C1EB4ED}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -721,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -761,7 +761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -783,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -805,7 +805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -825,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -843,7 +843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -861,7 +861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -897,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -915,7 +915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -933,7 +933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
@@ -951,7 +951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -969,7 +969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>49</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>69</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>59</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1139,7 +1139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1153,7 +1153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1173,6 +1173,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1180,21 +1181,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7C78CE-BA63-4471-B89C-D648B5E6A1D8}">
   <dimension ref="A1:EW6"/>
   <sheetViews>
-    <sheetView topLeftCell="EA1" workbookViewId="0">
-      <selection activeCell="EK16" sqref="EK16"/>
+    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
+      <selection activeCell="EW7" sqref="EW7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="52" width="21.109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" customWidth="1"/>
-    <col min="54" max="54" width="9.6640625" customWidth="1"/>
-    <col min="56" max="56" width="13.44140625" customWidth="1"/>
-    <col min="57" max="57" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="52" width="21.140625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5703125" customWidth="1"/>
+    <col min="54" max="54" width="9.7109375" customWidth="1"/>
+    <col min="56" max="56" width="13.42578125" customWidth="1"/>
+    <col min="57" max="57" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>1900</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:153" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -2133,103 +2134,135 @@
         <v>194.04000000000033</v>
       </c>
       <c r="DR2" s="15">
-        <v>194.04000000000033</v>
+        <f>DQ2+DQ2-DP2</f>
+        <v>199.17000000000098</v>
       </c>
       <c r="DS2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" ref="DS2:EW2" si="3">DR2+DR2-DQ2</f>
+        <v>204.30000000000163</v>
       </c>
       <c r="DT2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>209.43000000000228</v>
       </c>
       <c r="DU2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>214.56000000000293</v>
       </c>
       <c r="DV2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>219.69000000000358</v>
       </c>
       <c r="DW2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>224.82000000000423</v>
       </c>
       <c r="DX2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>229.95000000000488</v>
       </c>
       <c r="DY2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>235.08000000000553</v>
       </c>
       <c r="DZ2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>240.21000000000618</v>
       </c>
       <c r="EA2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>245.34000000000682</v>
       </c>
       <c r="EB2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>250.47000000000747</v>
       </c>
       <c r="EC2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>255.60000000000812</v>
       </c>
       <c r="ED2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>260.73000000000877</v>
       </c>
       <c r="EE2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>265.86000000000945</v>
       </c>
       <c r="EF2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>270.99000000001013</v>
       </c>
       <c r="EG2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>276.1200000000108</v>
       </c>
       <c r="EH2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>281.25000000001148</v>
       </c>
       <c r="EI2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>286.38000000001216</v>
       </c>
       <c r="EJ2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>291.51000000001284</v>
       </c>
       <c r="EK2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>296.64000000001352</v>
       </c>
       <c r="EL2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>301.77000000001419</v>
       </c>
       <c r="EM2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>306.90000000001487</v>
       </c>
       <c r="EN2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>312.03000000001555</v>
       </c>
       <c r="EO2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>317.16000000001623</v>
       </c>
       <c r="EP2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>322.2900000000169</v>
       </c>
       <c r="EQ2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>327.42000000001758</v>
       </c>
       <c r="ER2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>332.55000000001826</v>
       </c>
       <c r="ES2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>337.68000000001894</v>
       </c>
       <c r="ET2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>342.81000000001961</v>
       </c>
       <c r="EU2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>347.94000000002029</v>
       </c>
       <c r="EV2" s="15">
-        <v>194.04000000000033</v>
+        <f t="shared" si="3"/>
+        <v>353.07000000002097</v>
       </c>
       <c r="EW2" s="15">
-        <v>194.04000000000033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:153" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>358.20000000002165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -2237,203 +2270,203 @@
         <v>1</v>
       </c>
       <c r="C3" s="14">
-        <f t="shared" ref="C3:AI3" si="3">D3</f>
+        <f t="shared" ref="C3:AI3" si="4">D3</f>
         <v>30</v>
       </c>
       <c r="D3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="G3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="L3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="M3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="N3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="O3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="P3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="Q3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="R3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="S3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="T3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="U3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="X3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="Y3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="Z3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AA3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AB3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AC3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AD3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AE3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AF3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AG3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AH3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AI3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AJ3" s="14">
-        <f t="shared" ref="AJ3:AW3" si="4">AK3</f>
+        <f t="shared" ref="AJ3:AW3" si="5">AK3</f>
         <v>30</v>
       </c>
       <c r="AK3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AL3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AM3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AN3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AO3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AP3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AQ3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AR3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AS3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AT3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AU3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AV3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AW3" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AX3" s="14">
-        <f t="shared" ref="AX3:AZ6" si="5">AY3</f>
+        <f t="shared" ref="AX3:AZ6" si="6">AY3</f>
         <v>30</v>
       </c>
       <c r="AY3" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="AZ3" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="BA3" s="3">
@@ -2713,103 +2746,135 @@
         <v>169.33333333333212</v>
       </c>
       <c r="DR3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DR3:DR6" si="7">DQ3+DQ3-DP3</f>
+        <v>179</v>
       </c>
       <c r="DS3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DS3:DS6" si="8">DR3+DR3-DQ3</f>
+        <v>188.66666666666788</v>
       </c>
       <c r="DT3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DT3:DT6" si="9">DS3+DS3-DR3</f>
+        <v>198.33333333333576</v>
       </c>
       <c r="DU3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DU3:DU6" si="10">DT3+DT3-DS3</f>
+        <v>208.00000000000364</v>
       </c>
       <c r="DV3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DV3:DV6" si="11">DU3+DU3-DT3</f>
+        <v>217.66666666667152</v>
       </c>
       <c r="DW3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DW3:DW6" si="12">DV3+DV3-DU3</f>
+        <v>227.3333333333394</v>
       </c>
       <c r="DX3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DX3:DX6" si="13">DW3+DW3-DV3</f>
+        <v>237.00000000000728</v>
       </c>
       <c r="DY3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DY3:DY6" si="14">DX3+DX3-DW3</f>
+        <v>246.66666666667516</v>
       </c>
       <c r="DZ3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="DZ3:DZ6" si="15">DY3+DY3-DX3</f>
+        <v>256.33333333334303</v>
       </c>
       <c r="EA3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EA3:EA6" si="16">DZ3+DZ3-DY3</f>
+        <v>266.00000000001091</v>
       </c>
       <c r="EB3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EB3:EB6" si="17">EA3+EA3-DZ3</f>
+        <v>275.66666666667879</v>
       </c>
       <c r="EC3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EC3:EC6" si="18">EB3+EB3-EA3</f>
+        <v>285.33333333334667</v>
       </c>
       <c r="ED3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="ED3:ED6" si="19">EC3+EC3-EB3</f>
+        <v>295.00000000001455</v>
       </c>
       <c r="EE3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EE3:EE6" si="20">ED3+ED3-EC3</f>
+        <v>304.66666666668243</v>
       </c>
       <c r="EF3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EF3:EF6" si="21">EE3+EE3-ED3</f>
+        <v>314.33333333335031</v>
       </c>
       <c r="EG3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EG3:EG6" si="22">EF3+EF3-EE3</f>
+        <v>324.00000000001819</v>
       </c>
       <c r="EH3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EH3:EH6" si="23">EG3+EG3-EF3</f>
+        <v>333.66666666668607</v>
       </c>
       <c r="EI3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EI3:EI6" si="24">EH3+EH3-EG3</f>
+        <v>343.33333333335395</v>
       </c>
       <c r="EJ3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EJ3:EJ6" si="25">EI3+EI3-EH3</f>
+        <v>353.00000000002183</v>
       </c>
       <c r="EK3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EK3:EK6" si="26">EJ3+EJ3-EI3</f>
+        <v>362.66666666668971</v>
       </c>
       <c r="EL3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EL3:EL6" si="27">EK3+EK3-EJ3</f>
+        <v>372.33333333335759</v>
       </c>
       <c r="EM3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EM3:EM6" si="28">EL3+EL3-EK3</f>
+        <v>382.00000000002547</v>
       </c>
       <c r="EN3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EN3:EN6" si="29">EM3+EM3-EL3</f>
+        <v>391.66666666669335</v>
       </c>
       <c r="EO3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EO3:EO6" si="30">EN3+EN3-EM3</f>
+        <v>401.33333333336122</v>
       </c>
       <c r="EP3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EP3:EP6" si="31">EO3+EO3-EN3</f>
+        <v>411.0000000000291</v>
       </c>
       <c r="EQ3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EQ3:EQ6" si="32">EP3+EP3-EO3</f>
+        <v>420.66666666669698</v>
       </c>
       <c r="ER3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="ER3:ER6" si="33">EQ3+EQ3-EP3</f>
+        <v>430.33333333336486</v>
       </c>
       <c r="ES3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="ES3:ES6" si="34">ER3+ER3-EQ3</f>
+        <v>440.00000000003274</v>
       </c>
       <c r="ET3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="ET3:ET6" si="35">ES3+ES3-ER3</f>
+        <v>449.66666666670062</v>
       </c>
       <c r="EU3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EU3:EU6" si="36">ET3+ET3-ES3</f>
+        <v>459.3333333333685</v>
       </c>
       <c r="EV3" s="15">
-        <v>169.33333333333212</v>
+        <f t="shared" ref="EV3:EV6" si="37">EU3+EU3-ET3</f>
+        <v>469.00000000003638</v>
       </c>
       <c r="EW3" s="15">
-        <v>169.33333333333212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:153" x14ac:dyDescent="0.3">
+        <f t="shared" ref="EW3:EW6" si="38">EV3+EV3-EU3</f>
+        <v>478.66666666670426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -2817,203 +2882,203 @@
         <v>2</v>
       </c>
       <c r="C4" s="14">
-        <f t="shared" ref="C4:AI4" si="6">D4</f>
+        <f t="shared" ref="C4:AI4" si="39">D4</f>
         <v>30</v>
       </c>
       <c r="D4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="L4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="P4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="U4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="V4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="W4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="X4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AA4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AB4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AC4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AD4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AE4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AF4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AG4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AH4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AI4" s="14">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="14">
+        <f t="shared" ref="AJ4:AW4" si="40">AK4</f>
+        <v>30</v>
+      </c>
+      <c r="AK4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AL4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AM4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AN4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AO4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AP4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AQ4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AR4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AS4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AT4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AU4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AV4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AW4" s="14">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="AX4" s="14">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E4" s="14">
+      <c r="AY4" s="14">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="F4" s="14">
+      <c r="AZ4" s="14">
         <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="G4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="H4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="I4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="L4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="M4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="N4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="O4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="P4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="Q4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="R4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="S4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="T4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="U4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="V4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="W4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="X4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="Y4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="Z4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AA4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AB4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AC4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AD4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AE4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AF4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AG4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AH4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AI4" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="AJ4" s="14">
-        <f t="shared" ref="AJ4:AW4" si="7">AK4</f>
-        <v>30</v>
-      </c>
-      <c r="AK4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AL4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AM4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AN4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AO4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AP4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AQ4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AR4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AS4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AT4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AU4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AV4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AW4" s="14">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="AX4" s="14">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="AY4" s="14">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="AZ4" s="14">
-        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="BA4" s="3">
@@ -3293,103 +3358,135 @@
         <v>120</v>
       </c>
       <c r="DR4" s="15">
-        <v>120</v>
+        <f t="shared" si="7"/>
+        <v>124</v>
       </c>
       <c r="DS4" s="15">
-        <v>120</v>
+        <f t="shared" si="8"/>
+        <v>128</v>
       </c>
       <c r="DT4" s="15">
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>132</v>
       </c>
       <c r="DU4" s="15">
-        <v>120</v>
+        <f t="shared" si="10"/>
+        <v>136</v>
       </c>
       <c r="DV4" s="15">
-        <v>120</v>
+        <f t="shared" si="11"/>
+        <v>140</v>
       </c>
       <c r="DW4" s="15">
-        <v>120</v>
+        <f t="shared" si="12"/>
+        <v>144</v>
       </c>
       <c r="DX4" s="15">
-        <v>120</v>
+        <f t="shared" si="13"/>
+        <v>148</v>
       </c>
       <c r="DY4" s="15">
-        <v>120</v>
+        <f t="shared" si="14"/>
+        <v>152</v>
       </c>
       <c r="DZ4" s="15">
-        <v>120</v>
+        <f t="shared" si="15"/>
+        <v>156</v>
       </c>
       <c r="EA4" s="15">
-        <v>120</v>
+        <f t="shared" si="16"/>
+        <v>160</v>
       </c>
       <c r="EB4" s="15">
-        <v>120</v>
+        <f t="shared" si="17"/>
+        <v>164</v>
       </c>
       <c r="EC4" s="15">
-        <v>120</v>
+        <f t="shared" si="18"/>
+        <v>168</v>
       </c>
       <c r="ED4" s="15">
-        <v>120</v>
+        <f t="shared" si="19"/>
+        <v>172</v>
       </c>
       <c r="EE4" s="15">
-        <v>120</v>
+        <f t="shared" si="20"/>
+        <v>176</v>
       </c>
       <c r="EF4" s="15">
-        <v>120</v>
+        <f t="shared" si="21"/>
+        <v>180</v>
       </c>
       <c r="EG4" s="15">
-        <v>120</v>
+        <f t="shared" si="22"/>
+        <v>184</v>
       </c>
       <c r="EH4" s="15">
-        <v>120</v>
+        <f t="shared" si="23"/>
+        <v>188</v>
       </c>
       <c r="EI4" s="15">
-        <v>120</v>
+        <f t="shared" si="24"/>
+        <v>192</v>
       </c>
       <c r="EJ4" s="15">
-        <v>120</v>
+        <f t="shared" si="25"/>
+        <v>196</v>
       </c>
       <c r="EK4" s="15">
-        <v>120</v>
+        <f t="shared" si="26"/>
+        <v>200</v>
       </c>
       <c r="EL4" s="15">
-        <v>120</v>
+        <f t="shared" si="27"/>
+        <v>204</v>
       </c>
       <c r="EM4" s="15">
-        <v>120</v>
+        <f t="shared" si="28"/>
+        <v>208</v>
       </c>
       <c r="EN4" s="15">
-        <v>120</v>
+        <f t="shared" si="29"/>
+        <v>212</v>
       </c>
       <c r="EO4" s="15">
-        <v>120</v>
+        <f t="shared" si="30"/>
+        <v>216</v>
       </c>
       <c r="EP4" s="15">
-        <v>120</v>
+        <f t="shared" si="31"/>
+        <v>220</v>
       </c>
       <c r="EQ4" s="15">
-        <v>120</v>
+        <f t="shared" si="32"/>
+        <v>224</v>
       </c>
       <c r="ER4" s="15">
-        <v>120</v>
+        <f t="shared" si="33"/>
+        <v>228</v>
       </c>
       <c r="ES4" s="15">
-        <v>120</v>
+        <f t="shared" si="34"/>
+        <v>232</v>
       </c>
       <c r="ET4" s="15">
-        <v>120</v>
+        <f t="shared" si="35"/>
+        <v>236</v>
       </c>
       <c r="EU4" s="15">
-        <v>120</v>
+        <f t="shared" si="36"/>
+        <v>240</v>
       </c>
       <c r="EV4" s="15">
-        <v>120</v>
+        <f t="shared" si="37"/>
+        <v>244</v>
       </c>
       <c r="EW4" s="15">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:153" x14ac:dyDescent="0.3">
+        <f t="shared" si="38"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -3397,203 +3494,203 @@
         <v>3</v>
       </c>
       <c r="C5" s="14">
-        <f t="shared" ref="C5:AI6" si="8">D5</f>
+        <f t="shared" ref="C5:AI6" si="41">D5</f>
         <v>30</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="L5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="M5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="R5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="S5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="U5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="V5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="W5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="X5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="Y5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="Z5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AA5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AB5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AC5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AE5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AF5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AG5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AH5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AI5" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AJ5" s="14">
-        <f t="shared" ref="AJ5:AY6" si="9">AK5</f>
+        <f t="shared" ref="AJ5:AY6" si="42">AK5</f>
         <v>30</v>
       </c>
       <c r="AK5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AL5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AM5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AN5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AO5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AP5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AQ5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AR5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AS5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AT5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AU5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AV5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AW5" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AX5" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="AY5" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="AZ5" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="BA5" s="3">
@@ -3873,103 +3970,135 @@
         <v>144</v>
       </c>
       <c r="DR5" s="15">
-        <v>144</v>
+        <f t="shared" si="7"/>
+        <v>146.5</v>
       </c>
       <c r="DS5" s="15">
-        <v>144</v>
+        <f t="shared" si="8"/>
+        <v>149</v>
       </c>
       <c r="DT5" s="15">
-        <v>144</v>
+        <f t="shared" si="9"/>
+        <v>151.5</v>
       </c>
       <c r="DU5" s="15">
-        <v>144</v>
+        <f t="shared" si="10"/>
+        <v>154</v>
       </c>
       <c r="DV5" s="15">
-        <v>144</v>
+        <f t="shared" si="11"/>
+        <v>156.5</v>
       </c>
       <c r="DW5" s="15">
-        <v>144</v>
+        <f t="shared" si="12"/>
+        <v>159</v>
       </c>
       <c r="DX5" s="15">
-        <v>144</v>
+        <f t="shared" si="13"/>
+        <v>161.5</v>
       </c>
       <c r="DY5" s="15">
-        <v>144</v>
+        <f t="shared" si="14"/>
+        <v>164</v>
       </c>
       <c r="DZ5" s="15">
-        <v>144</v>
+        <f t="shared" si="15"/>
+        <v>166.5</v>
       </c>
       <c r="EA5" s="15">
-        <v>144</v>
+        <f t="shared" si="16"/>
+        <v>169</v>
       </c>
       <c r="EB5" s="15">
-        <v>144</v>
+        <f t="shared" si="17"/>
+        <v>171.5</v>
       </c>
       <c r="EC5" s="15">
-        <v>144</v>
+        <f t="shared" si="18"/>
+        <v>174</v>
       </c>
       <c r="ED5" s="15">
-        <v>144</v>
+        <f t="shared" si="19"/>
+        <v>176.5</v>
       </c>
       <c r="EE5" s="15">
-        <v>144</v>
+        <f t="shared" si="20"/>
+        <v>179</v>
       </c>
       <c r="EF5" s="15">
-        <v>144</v>
+        <f t="shared" si="21"/>
+        <v>181.5</v>
       </c>
       <c r="EG5" s="15">
-        <v>144</v>
+        <f t="shared" si="22"/>
+        <v>184</v>
       </c>
       <c r="EH5" s="15">
-        <v>144</v>
+        <f t="shared" si="23"/>
+        <v>186.5</v>
       </c>
       <c r="EI5" s="15">
-        <v>144</v>
+        <f t="shared" si="24"/>
+        <v>189</v>
       </c>
       <c r="EJ5" s="15">
-        <v>144</v>
+        <f t="shared" si="25"/>
+        <v>191.5</v>
       </c>
       <c r="EK5" s="15">
-        <v>144</v>
+        <f t="shared" si="26"/>
+        <v>194</v>
       </c>
       <c r="EL5" s="15">
-        <v>144</v>
+        <f t="shared" si="27"/>
+        <v>196.5</v>
       </c>
       <c r="EM5" s="15">
-        <v>144</v>
+        <f t="shared" si="28"/>
+        <v>199</v>
       </c>
       <c r="EN5" s="15">
-        <v>144</v>
+        <f t="shared" si="29"/>
+        <v>201.5</v>
       </c>
       <c r="EO5" s="15">
-        <v>144</v>
+        <f t="shared" si="30"/>
+        <v>204</v>
       </c>
       <c r="EP5" s="15">
-        <v>144</v>
+        <f t="shared" si="31"/>
+        <v>206.5</v>
       </c>
       <c r="EQ5" s="15">
-        <v>144</v>
+        <f t="shared" si="32"/>
+        <v>209</v>
       </c>
       <c r="ER5" s="15">
-        <v>144</v>
+        <f t="shared" si="33"/>
+        <v>211.5</v>
       </c>
       <c r="ES5" s="15">
-        <v>144</v>
+        <f t="shared" si="34"/>
+        <v>214</v>
       </c>
       <c r="ET5" s="15">
-        <v>144</v>
+        <f t="shared" si="35"/>
+        <v>216.5</v>
       </c>
       <c r="EU5" s="15">
-        <v>144</v>
+        <f t="shared" si="36"/>
+        <v>219</v>
       </c>
       <c r="EV5" s="15">
-        <v>144</v>
+        <f t="shared" si="37"/>
+        <v>221.5</v>
       </c>
       <c r="EW5" s="15">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:153" x14ac:dyDescent="0.3">
+        <f t="shared" si="38"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -3977,203 +4106,203 @@
         <v>4</v>
       </c>
       <c r="C6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="D6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="E6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="I6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="K6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="L6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="O6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="P6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="Q6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="R6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="S6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="T6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="U6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="V6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="W6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="X6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="Y6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="Z6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AA6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AB6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AC6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AE6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AF6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AG6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AH6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AI6" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="AJ6" s="14">
-        <f t="shared" ref="AJ6:AQ6" si="10">AK6</f>
+        <f t="shared" ref="AJ6:AQ6" si="43">AK6</f>
         <v>30</v>
       </c>
       <c r="AK6" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="AL6" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="AM6" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="AN6" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="AO6" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="AP6" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="AQ6" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="AR6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AS6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AT6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AU6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AV6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AW6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AX6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AY6" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="AZ6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="BA6" s="3">
@@ -4453,104 +4582,137 @@
         <v>144.66666666666606</v>
       </c>
       <c r="DR6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="7"/>
+        <v>151.5</v>
       </c>
       <c r="DS6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="8"/>
+        <v>158.33333333333394</v>
       </c>
       <c r="DT6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="9"/>
+        <v>165.16666666666788</v>
       </c>
       <c r="DU6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="10"/>
+        <v>172.00000000000182</v>
       </c>
       <c r="DV6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="11"/>
+        <v>178.83333333333576</v>
       </c>
       <c r="DW6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="12"/>
+        <v>185.6666666666697</v>
       </c>
       <c r="DX6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="13"/>
+        <v>192.50000000000364</v>
       </c>
       <c r="DY6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="14"/>
+        <v>199.33333333333758</v>
       </c>
       <c r="DZ6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="15"/>
+        <v>206.16666666667152</v>
       </c>
       <c r="EA6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="16"/>
+        <v>213.00000000000546</v>
       </c>
       <c r="EB6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="17"/>
+        <v>219.8333333333394</v>
       </c>
       <c r="EC6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="18"/>
+        <v>226.66666666667334</v>
       </c>
       <c r="ED6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="19"/>
+        <v>233.50000000000728</v>
       </c>
       <c r="EE6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="20"/>
+        <v>240.33333333334122</v>
       </c>
       <c r="EF6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="21"/>
+        <v>247.16666666667516</v>
       </c>
       <c r="EG6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="22"/>
+        <v>254.00000000000909</v>
       </c>
       <c r="EH6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="23"/>
+        <v>260.83333333334303</v>
       </c>
       <c r="EI6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="24"/>
+        <v>267.66666666667697</v>
       </c>
       <c r="EJ6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="25"/>
+        <v>274.50000000001091</v>
       </c>
       <c r="EK6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="26"/>
+        <v>281.33333333334485</v>
       </c>
       <c r="EL6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="27"/>
+        <v>288.16666666667879</v>
       </c>
       <c r="EM6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="28"/>
+        <v>295.00000000001273</v>
       </c>
       <c r="EN6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="29"/>
+        <v>301.83333333334667</v>
       </c>
       <c r="EO6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="30"/>
+        <v>308.66666666668061</v>
       </c>
       <c r="EP6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="31"/>
+        <v>315.50000000001455</v>
       </c>
       <c r="EQ6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="32"/>
+        <v>322.33333333334849</v>
       </c>
       <c r="ER6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="33"/>
+        <v>329.16666666668243</v>
       </c>
       <c r="ES6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="34"/>
+        <v>336.00000000001637</v>
       </c>
       <c r="ET6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="35"/>
+        <v>342.83333333335031</v>
       </c>
       <c r="EU6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="36"/>
+        <v>349.66666666668425</v>
       </c>
       <c r="EV6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="37"/>
+        <v>356.50000000001819</v>
       </c>
       <c r="EW6" s="15">
-        <v>144.66666666666606</v>
+        <f t="shared" si="38"/>
+        <v>363.33333333335213</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4562,17 +4724,17 @@
       <selection activeCell="DQ6" sqref="DQ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="52" width="21.109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" customWidth="1"/>
-    <col min="54" max="54" width="9.6640625" customWidth="1"/>
-    <col min="56" max="56" width="13.44140625" customWidth="1"/>
-    <col min="57" max="57" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="52" width="21.140625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5703125" customWidth="1"/>
+    <col min="54" max="54" width="9.7109375" customWidth="1"/>
+    <col min="56" max="56" width="13.42578125" customWidth="1"/>
+    <col min="57" max="57" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>1900</v>
       </c>
@@ -4931,7 +5093,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -5215,7 +5377,7 @@
         <v>2845859148.0033793</v>
       </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -5499,7 +5661,7 @@
         <v>3450027879.5474391</v>
       </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -5783,7 +5945,7 @@
         <v>2935003874.5974059</v>
       </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -6067,7 +6229,7 @@
         <v>834267218.38610327</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -6353,6 +6515,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6364,13 +6527,13 @@
       <selection activeCell="BN4" sqref="BN4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1950</v>
@@ -6580,7 +6743,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6792,7 +6955,7 @@
         <v>194.04000000000033</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7004,7 +7167,7 @@
         <v>169.33333333333212</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7216,7 +7379,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7428,7 +7591,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7640,7 +7803,7 @@
         <v>144.66666666666606</v>
       </c>
     </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -7648,13 +7811,13 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -7662,7 +7825,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -7670,7 +7833,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -7678,7 +7841,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -7686,7 +7849,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -7694,7 +7857,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -7702,7 +7865,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H34" s="1"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -7710,7 +7873,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H35" s="1"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -7718,7 +7881,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -7726,7 +7889,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -7734,7 +7897,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -7742,7 +7905,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -7750,7 +7913,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -7758,7 +7921,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -7766,7 +7929,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -7774,7 +7937,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -7782,7 +7945,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -7790,7 +7953,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H45" s="1"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -7798,7 +7961,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H46" s="1"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -7806,7 +7969,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H47" s="1"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -7814,7 +7977,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H48" s="1"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -7822,7 +7985,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H49" s="1"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -7830,7 +7993,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H50" s="1"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -7838,7 +8001,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H51" s="1"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -7846,7 +8009,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H52" s="1"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -7854,7 +8017,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H53" s="1"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -7862,7 +8025,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H54" s="1"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -7870,7 +8033,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H55" s="1"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -7878,7 +8041,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H56" s="1"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -7886,7 +8049,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H57" s="1"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -7894,7 +8057,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H58" s="1"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -7902,7 +8065,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H59" s="1"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -7910,7 +8073,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H60" s="1"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -7918,7 +8081,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H61" s="1"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -7926,14 +8089,14 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H62" s="1"/>
       <c r="I62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H63" s="1"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -7941,7 +8104,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H64" s="1"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -7949,7 +8112,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H65" s="1"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -7957,7 +8120,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H66" s="1"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -7965,14 +8128,14 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H67" s="1"/>
       <c r="I67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H68" s="1"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -7980,7 +8143,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H69" s="1"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -7988,7 +8151,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H70" s="1"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -7996,7 +8159,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H71" s="1"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -8004,14 +8167,14 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H72" s="1"/>
       <c r="I72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H73" s="1"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -8019,7 +8182,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H74" s="1"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -8027,7 +8190,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H75" s="1"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -8035,7 +8198,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H76" s="1"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -8043,7 +8206,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H77" s="1"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -8051,7 +8214,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H78" s="1"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -8059,7 +8222,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H79" s="1"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -8067,7 +8230,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H80" s="1"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -8075,7 +8238,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H81" s="1"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -8083,7 +8246,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H82" s="1"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -8091,7 +8254,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H83" s="1"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -8099,7 +8262,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H84" s="1"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -8107,7 +8270,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H85" s="1"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -8115,7 +8278,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H86" s="1"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -8123,7 +8286,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H87" s="1"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -8131,7 +8294,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H88" s="1"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -8139,7 +8302,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H89" s="1"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -8147,7 +8310,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H90" s="1"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -8155,7 +8318,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H91" s="1"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -8163,7 +8326,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H92" s="1"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -8171,21 +8334,21 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H93" s="1"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H94" s="1"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H95" s="1"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -8194,6 +8357,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8205,9 +8369,9 @@
       <selection activeCell="DP7" sqref="DP7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -8566,7 +8730,7 @@
         <v>14666353.06124188</v>
       </c>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8925,7 +9089,7 @@
         <v>20374180.39102833</v>
       </c>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9284,7 +9448,7 @@
         <v>24458365.621645048</v>
       </c>
     </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9643,7 +9807,7 @@
         <v>5793522.3499034951</v>
       </c>
     </row>
-    <row r="5" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10002,7 +10166,7 @@
         <v>90741233.224622399</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1900</v>
       </c>
@@ -10363,5 +10527,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Aluminium_Content.xlsx
+++ b/data/Aluminium_Content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F72E168-FAF7-4C1B-9ED5-CF2B9A67A846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33D99BC-42DD-4F43-9CCB-B5C5D1D568FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-315" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Al_Content" sheetId="3" r:id="rId6"/>
     <sheet name="Inflow" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
   <si>
     <t>North America</t>
   </si>
@@ -237,12 +237,6 @@
   </si>
   <si>
     <t>Al</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Chemical_Elements</t>
   </si>
   <si>
     <t>kg</t>
@@ -5067,8 +5061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4BF55C-8A11-4070-A8E6-96671C1EB4ED}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5141,7 +5135,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>15</v>
@@ -5166,7 +5160,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -5353,7 +5347,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5478,22 +5472,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>6</v>
@@ -5504,10 +5498,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>6</v>
@@ -5523,12 +5517,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -5541,8 +5531,6 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -5580,480 +5568,479 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5827DCC-8B4F-4D69-A853-7FE091B784B7}">
-  <dimension ref="A1:EX16"/>
+  <dimension ref="A1:EW16"/>
   <sheetViews>
-    <sheetView topLeftCell="DN1" workbookViewId="0">
-      <selection activeCell="DX28" sqref="DW28:DX28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:153" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1">
+        <v>1900</v>
+      </c>
       <c r="D1" s="1">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E1" s="1">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="F1" s="1">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G1" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="H1" s="1">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="I1" s="1">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="J1" s="1">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="K1" s="1">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="L1" s="1">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="M1" s="1">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N1" s="1">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="O1" s="1">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="P1" s="1">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="Q1" s="1">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="R1" s="1">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="S1" s="1">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="T1" s="1">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="U1" s="1">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="V1" s="1">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="W1" s="1">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="X1" s="1">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="Y1" s="1">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="Z1" s="1">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="AA1" s="1">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="AB1" s="1">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="AC1" s="1">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="AD1" s="1">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="AE1" s="1">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="AF1" s="1">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="AG1" s="1">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="AH1" s="1">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="AI1" s="1">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="AJ1" s="1">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="AK1" s="1">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="AL1" s="1">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="AM1" s="1">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="AN1" s="1">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="AO1" s="1">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="AP1" s="1">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="AQ1" s="1">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="AR1" s="1">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="AS1" s="1">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="AT1" s="1">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="AU1" s="1">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AV1" s="1">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="AW1" s="1">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="AX1" s="1">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="AY1" s="1">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="AZ1" s="1">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="BA1" s="1">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="BB1" s="1">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="BC1" s="1">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="BD1" s="1">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="BE1" s="1">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="BF1" s="1">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="BG1" s="1">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="BH1" s="1">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="BI1" s="1">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="BJ1" s="1">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="BK1" s="1">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="BL1" s="1">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="BM1" s="1">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="BN1" s="1">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="BO1" s="1">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="BP1" s="1">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="BQ1" s="1">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="BR1" s="1">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="BS1" s="1">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="BT1" s="1">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="BU1" s="1">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="BV1" s="1">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="BW1" s="1">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="BX1" s="1">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="BY1" s="1">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="BZ1" s="1">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="CA1" s="1">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="CB1" s="1">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="CC1" s="1">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="CD1" s="1">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="CE1" s="1">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="CF1" s="1">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="CG1" s="1">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="CH1" s="1">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="CI1" s="1">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="CJ1" s="1">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="CK1" s="1">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="CL1" s="1">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="CM1" s="1">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="CN1" s="1">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="CO1" s="1">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="CP1" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="CQ1" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="CR1" s="1">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="CS1" s="1">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="CT1" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="CU1" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="CV1" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="CW1" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="CX1" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="CY1" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="CZ1" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="DA1" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="DB1" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="DC1" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="DD1" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="DE1" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="DF1" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="DG1" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="DH1" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="DI1" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="DJ1" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="DK1" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="DL1" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="DM1" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="DN1" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="DO1" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="DP1" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="DQ1" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="DR1" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="DS1" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="DT1" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="DU1" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="DV1" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="DW1" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="DX1" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="DY1" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="DZ1" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="EA1" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="EB1" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="EC1" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="ED1" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="EE1" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="EF1" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="EG1" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="EH1" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="EI1" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="EJ1" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="EK1" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="EL1" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="EM1" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="EN1" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="EO1" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="EP1" s="1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="EQ1" s="1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="ER1" s="1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="ES1" s="1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="ET1" s="1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="EU1" s="1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="EV1" s="1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="EW1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="EX1" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>26.492698560150679</v>
       </c>
       <c r="D2" s="14">
         <v>26.492698560150679</v>
@@ -6202,322 +6189,319 @@
       <c r="AZ2" s="14">
         <v>26.492698560150679</v>
       </c>
-      <c r="BA2" s="14">
+      <c r="BA2" s="15">
         <v>26.492698560150679</v>
       </c>
       <c r="BB2" s="15">
-        <v>26.492698560150679</v>
+        <v>26.775287344792332</v>
       </c>
       <c r="BC2" s="15">
-        <v>26.775287344792332</v>
+        <v>27.057876129433883</v>
       </c>
       <c r="BD2" s="15">
-        <v>27.057876129433883</v>
+        <v>27.340464914075532</v>
       </c>
       <c r="BE2" s="15">
-        <v>27.340464914075532</v>
+        <v>27.623053698717083</v>
       </c>
       <c r="BF2" s="15">
-        <v>27.623053698717083</v>
+        <v>27.905642483358736</v>
       </c>
       <c r="BG2" s="15">
-        <v>27.905642483358736</v>
+        <v>28.188231268000326</v>
       </c>
       <c r="BH2" s="15">
-        <v>28.188231268000326</v>
+        <v>28.470820052641937</v>
       </c>
       <c r="BI2" s="15">
-        <v>28.470820052641937</v>
+        <v>28.75340883728359</v>
       </c>
       <c r="BJ2" s="15">
-        <v>28.75340883728359</v>
+        <v>29.035997621925141</v>
       </c>
       <c r="BK2" s="15">
-        <v>29.035997621925141</v>
+        <v>29.318586406566791</v>
       </c>
       <c r="BL2" s="15">
-        <v>29.318586406566791</v>
+        <v>29.601175191208345</v>
       </c>
       <c r="BM2" s="15">
-        <v>29.601175191208345</v>
+        <v>29.883763975849995</v>
       </c>
       <c r="BN2" s="15">
-        <v>29.883763975849995</v>
+        <v>30.166352760491545</v>
       </c>
       <c r="BO2" s="15">
-        <v>30.166352760491545</v>
+        <v>30.448941545133199</v>
       </c>
       <c r="BP2" s="15">
-        <v>30.448941545133199</v>
+        <v>30.731530329774849</v>
       </c>
       <c r="BQ2" s="15">
-        <v>30.731530329774849</v>
+        <v>31.014119114416399</v>
       </c>
       <c r="BR2" s="15">
-        <v>31.014119114416399</v>
+        <v>31.296707899058053</v>
       </c>
       <c r="BS2" s="15">
-        <v>31.296707899058053</v>
+        <v>31.579296683699603</v>
       </c>
       <c r="BT2" s="15">
-        <v>31.579296683699603</v>
+        <v>31.861885468341253</v>
       </c>
       <c r="BU2" s="15">
-        <v>31.861885468341253</v>
+        <v>32.144474252982803</v>
       </c>
       <c r="BV2" s="15">
-        <v>32.144474252982803</v>
+        <v>32.427063037624457</v>
       </c>
       <c r="BW2" s="15">
-        <v>32.427063037624457</v>
+        <v>32.709651822266004</v>
       </c>
       <c r="BX2" s="15">
-        <v>32.709651822266004</v>
+        <v>32.992240606907657</v>
       </c>
       <c r="BY2" s="15">
-        <v>32.992240606907657</v>
+        <v>33.274829391549311</v>
       </c>
       <c r="BZ2" s="15">
-        <v>33.274829391549311</v>
+        <v>33.380800185789859</v>
       </c>
       <c r="CA2" s="15">
-        <v>33.380800185789859</v>
+        <v>36.24201163028642</v>
       </c>
       <c r="CB2" s="15">
-        <v>36.24201163028642</v>
+        <v>39.103223074782257</v>
       </c>
       <c r="CC2" s="15">
-        <v>39.103223074782257</v>
+        <v>41.964434519278825</v>
       </c>
       <c r="CD2" s="15">
-        <v>41.964434519278825</v>
+        <v>44.825645963775386</v>
       </c>
       <c r="CE2" s="15">
-        <v>44.825645963775386</v>
+        <v>47.686857408271223</v>
       </c>
       <c r="CF2" s="15">
-        <v>47.686857408271223</v>
+        <v>49.196941226199527</v>
       </c>
       <c r="CG2" s="15">
-        <v>49.196941226199527</v>
+        <v>50.70702504412818</v>
       </c>
       <c r="CH2" s="15">
-        <v>50.70702504412818</v>
+        <v>52.217108862056847</v>
       </c>
       <c r="CI2" s="15">
-        <v>52.217108862056847</v>
+        <v>53.727192679985507</v>
       </c>
       <c r="CJ2" s="15">
-        <v>53.727192679985507</v>
+        <v>55.237276497914173</v>
       </c>
       <c r="CK2" s="15">
-        <v>55.237276497914173</v>
+        <v>57.303706985606212</v>
       </c>
       <c r="CL2" s="15">
-        <v>57.303706985606212</v>
+        <v>59.370137473297525</v>
       </c>
       <c r="CM2" s="15">
-        <v>59.370137473297525</v>
+        <v>61.436567960989571</v>
       </c>
       <c r="CN2" s="15">
-        <v>61.436567960989571</v>
+        <v>63.502998448681616</v>
       </c>
       <c r="CO2" s="15">
-        <v>63.502998448681616</v>
+        <v>65.56942893637293</v>
       </c>
       <c r="CP2" s="15">
-        <v>65.56942893637293</v>
+        <v>69.304899433354763</v>
       </c>
       <c r="CQ2" s="15">
-        <v>69.304899433354763</v>
+        <v>73.040369930335146</v>
       </c>
       <c r="CR2" s="15">
-        <v>73.040369930335146</v>
+        <v>76.77584042731695</v>
       </c>
       <c r="CS2" s="15">
-        <v>76.77584042731695</v>
+        <v>80.511310924298783</v>
       </c>
       <c r="CT2" s="15">
-        <v>80.511310924298783</v>
+        <v>84.246781421279167</v>
       </c>
       <c r="CU2" s="15">
-        <v>84.246781421279167</v>
+        <v>87.902773822578808</v>
       </c>
       <c r="CV2" s="15">
-        <v>87.902773822578808</v>
+        <v>91.558766223879886</v>
       </c>
       <c r="CW2" s="15">
-        <v>91.558766223879886</v>
+        <v>95.214758625180977</v>
       </c>
       <c r="CX2" s="15">
-        <v>95.214758625180977</v>
+        <v>98.870751026482054</v>
       </c>
       <c r="CY2" s="15">
-        <v>98.870751026482054</v>
+        <v>102.52674342778313</v>
       </c>
       <c r="CZ2" s="15">
-        <v>102.52674342778313</v>
+        <v>106.34169202044426</v>
       </c>
       <c r="DA2" s="15">
-        <v>106.34169202044426</v>
+        <v>110.15664061310682</v>
       </c>
       <c r="DB2" s="15">
-        <v>110.15664061310682</v>
+        <v>113.97158920576796</v>
       </c>
       <c r="DC2" s="15">
-        <v>113.97158920576796</v>
+        <v>117.78653779842907</v>
       </c>
       <c r="DD2" s="15">
-        <v>117.78653779842907</v>
+        <v>121.60148639109164</v>
       </c>
       <c r="DE2" s="15">
-        <v>121.60148639109164</v>
+        <v>124.3037416442267</v>
       </c>
       <c r="DF2" s="15">
-        <v>124.3037416442267</v>
+        <v>127.00599689736251</v>
       </c>
       <c r="DG2" s="15">
-        <v>127.00599689736251</v>
+        <v>129.7082521504976</v>
       </c>
       <c r="DH2" s="15">
-        <v>129.7082521504976</v>
+        <v>132.41050740363266</v>
       </c>
       <c r="DI2" s="15">
-        <v>132.41050740363266</v>
+        <v>135.11276265676847</v>
       </c>
       <c r="DJ2" s="15">
-        <v>135.11276265676847</v>
+        <v>139.64301411055482</v>
       </c>
       <c r="DK2" s="15">
-        <v>139.64301411055482</v>
+        <v>144.17326556433972</v>
       </c>
       <c r="DL2" s="15">
-        <v>144.17326556433972</v>
+        <v>148.70351701812606</v>
       </c>
       <c r="DM2" s="15">
-        <v>148.70351701812606</v>
+        <v>153.23376847191238</v>
       </c>
       <c r="DN2" s="15">
-        <v>153.23376847191238</v>
+        <v>157.76401992569731</v>
       </c>
       <c r="DO2" s="15">
-        <v>157.76401992569731</v>
+        <v>162.29427137948363</v>
       </c>
       <c r="DP2" s="15">
-        <v>162.29427137948363</v>
+        <v>166.82452283326856</v>
       </c>
       <c r="DQ2" s="15">
-        <v>166.82452283326856</v>
-      </c>
-      <c r="DR2" s="15">
         <v>171.35477428705488</v>
       </c>
+      <c r="DR2" s="16">
+        <v>174.27890589063153</v>
+      </c>
       <c r="DS2" s="16">
-        <v>174.27890589063153</v>
+        <v>177.20303749420816</v>
       </c>
       <c r="DT2" s="16">
-        <v>177.20303749420816</v>
+        <v>180.12716909778479</v>
       </c>
       <c r="DU2" s="16">
-        <v>180.12716909778479</v>
+        <v>183.05130070136141</v>
       </c>
       <c r="DV2" s="16">
-        <v>183.05130070136141</v>
+        <v>185.97543230493804</v>
       </c>
       <c r="DW2" s="16">
-        <v>185.97543230493804</v>
+        <v>188.89956390851469</v>
       </c>
       <c r="DX2" s="16">
-        <v>188.89956390851469</v>
+        <v>191.82369551209132</v>
       </c>
       <c r="DY2" s="16">
-        <v>191.82369551209132</v>
+        <v>194.74782711566795</v>
       </c>
       <c r="DZ2" s="16">
-        <v>194.74782711566795</v>
+        <v>197.67195871924457</v>
       </c>
       <c r="EA2" s="16">
-        <v>197.67195871924457</v>
+        <v>200.59609032282123</v>
       </c>
       <c r="EB2" s="16">
-        <v>200.59609032282123</v>
+        <v>203.52022192639785</v>
       </c>
       <c r="EC2" s="16">
-        <v>203.52022192639785</v>
+        <v>206.44435352997448</v>
       </c>
       <c r="ED2" s="16">
-        <v>206.44435352997448</v>
+        <v>209.3684851335511</v>
       </c>
       <c r="EE2" s="16">
-        <v>209.3684851335511</v>
+        <v>212.29261673712773</v>
       </c>
       <c r="EF2" s="16">
-        <v>212.29261673712773</v>
+        <v>215.21674834070438</v>
       </c>
       <c r="EG2" s="16">
-        <v>215.21674834070438</v>
+        <v>218.14087994428101</v>
       </c>
       <c r="EH2" s="16">
-        <v>218.14087994428101</v>
+        <v>221.06501154785764</v>
       </c>
       <c r="EI2" s="16">
-        <v>221.06501154785764</v>
+        <v>223.98914315143426</v>
       </c>
       <c r="EJ2" s="16">
-        <v>223.98914315143426</v>
+        <v>226.91327475501089</v>
       </c>
       <c r="EK2" s="16">
-        <v>226.91327475501089</v>
+        <v>229.83740635858751</v>
       </c>
       <c r="EL2" s="16">
-        <v>229.83740635858751</v>
+        <v>232.76153796216411</v>
       </c>
       <c r="EM2" s="16">
-        <v>232.76153796216411</v>
+        <v>235.68566956574074</v>
       </c>
       <c r="EN2" s="16">
-        <v>235.68566956574074</v>
+        <v>238.60980116931734</v>
       </c>
       <c r="EO2" s="16">
-        <v>238.60980116931734</v>
+        <v>241.53393277289393</v>
       </c>
       <c r="EP2" s="16">
-        <v>241.53393277289393</v>
+        <v>244.45806437647056</v>
       </c>
       <c r="EQ2" s="16">
-        <v>244.45806437647056</v>
+        <v>247.38219598004716</v>
       </c>
       <c r="ER2" s="16">
-        <v>247.38219598004716</v>
+        <v>250.30632758362376</v>
       </c>
       <c r="ES2" s="16">
-        <v>250.30632758362376</v>
+        <v>253.23045918720038</v>
       </c>
       <c r="ET2" s="16">
-        <v>253.23045918720038</v>
+        <v>256.15459079077698</v>
       </c>
       <c r="EU2" s="16">
-        <v>256.15459079077698</v>
+        <v>259.07872239435358</v>
       </c>
       <c r="EV2" s="16">
-        <v>259.07872239435358</v>
+        <v>262.00285399793017</v>
       </c>
       <c r="EW2" s="16">
-        <v>262.00285399793017</v>
-      </c>
-      <c r="EX2" s="16">
         <v>264.92698560150677</v>
       </c>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>31.320533580255574</v>
       </c>
       <c r="D3" s="14">
         <v>31.320533580255574</v>
@@ -6666,322 +6650,319 @@
       <c r="AZ3" s="14">
         <v>31.320533580255574</v>
       </c>
-      <c r="BA3" s="14">
+      <c r="BA3" s="15">
         <v>31.320533580255574</v>
       </c>
       <c r="BB3" s="15">
-        <v>31.320533580255574</v>
+        <v>31.654619271778355</v>
       </c>
       <c r="BC3" s="15">
-        <v>31.654619271778355</v>
+        <v>31.988704963301014</v>
       </c>
       <c r="BD3" s="15">
-        <v>31.988704963301014</v>
+        <v>32.322790654823791</v>
       </c>
       <c r="BE3" s="15">
-        <v>32.322790654823791</v>
+        <v>32.656876346346451</v>
       </c>
       <c r="BF3" s="15">
-        <v>32.656876346346451</v>
+        <v>32.990962037869231</v>
       </c>
       <c r="BG3" s="15">
-        <v>32.990962037869231</v>
+        <v>33.325047729391933</v>
       </c>
       <c r="BH3" s="15">
-        <v>33.325047729391933</v>
+        <v>33.659133420914671</v>
       </c>
       <c r="BI3" s="15">
-        <v>33.659133420914671</v>
+        <v>33.993219112437444</v>
       </c>
       <c r="BJ3" s="15">
-        <v>33.993219112437444</v>
+        <v>34.327304803960104</v>
       </c>
       <c r="BK3" s="15">
-        <v>34.327304803960104</v>
+        <v>34.661390495482884</v>
       </c>
       <c r="BL3" s="15">
-        <v>34.661390495482884</v>
+        <v>34.995476187005544</v>
       </c>
       <c r="BM3" s="15">
-        <v>34.995476187005544</v>
+        <v>35.329561878528324</v>
       </c>
       <c r="BN3" s="15">
-        <v>35.329561878528324</v>
+        <v>35.663647570050983</v>
       </c>
       <c r="BO3" s="15">
-        <v>35.663647570050983</v>
+        <v>35.997733261573764</v>
       </c>
       <c r="BP3" s="15">
-        <v>35.997733261573764</v>
+        <v>36.331818953096537</v>
       </c>
       <c r="BQ3" s="15">
-        <v>36.331818953096537</v>
+        <v>36.665904644619197</v>
       </c>
       <c r="BR3" s="15">
-        <v>36.665904644619197</v>
+        <v>36.999990336141977</v>
       </c>
       <c r="BS3" s="15">
-        <v>36.999990336141977</v>
+        <v>37.334076027664636</v>
       </c>
       <c r="BT3" s="15">
-        <v>37.334076027664636</v>
+        <v>37.668161719187417</v>
       </c>
       <c r="BU3" s="15">
-        <v>37.668161719187417</v>
+        <v>38.002247410710076</v>
       </c>
       <c r="BV3" s="15">
-        <v>38.002247410710076</v>
+        <v>38.33633310223285</v>
       </c>
       <c r="BW3" s="15">
-        <v>38.33633310223285</v>
+        <v>38.670418793755509</v>
       </c>
       <c r="BX3" s="15">
-        <v>38.670418793755509</v>
+        <v>39.004504485278289</v>
       </c>
       <c r="BY3" s="15">
-        <v>39.004504485278289</v>
+        <v>39.33859017680107</v>
       </c>
       <c r="BZ3" s="15">
-        <v>39.33859017680107</v>
+        <v>39.463872311122032</v>
       </c>
       <c r="CA3" s="15">
-        <v>39.463872311122032</v>
+        <v>40.716693654332246</v>
       </c>
       <c r="CB3" s="15">
-        <v>40.716693654332246</v>
+        <v>41.760711440340771</v>
       </c>
       <c r="CC3" s="15">
-        <v>41.760711440340771</v>
+        <v>42.804729226349288</v>
       </c>
       <c r="CD3" s="15">
-        <v>42.804729226349288</v>
+        <v>43.848747012357805</v>
       </c>
       <c r="CE3" s="15">
-        <v>43.848747012357805</v>
+        <v>44.892764798366322</v>
       </c>
       <c r="CF3" s="15">
-        <v>44.892764798366322</v>
+        <v>45.936782584374846</v>
       </c>
       <c r="CG3" s="15">
-        <v>45.936782584374846</v>
+        <v>46.980800370383363</v>
       </c>
       <c r="CH3" s="15">
-        <v>46.980800370383363</v>
+        <v>48.024818156391881</v>
       </c>
       <c r="CI3" s="15">
-        <v>48.024818156391881</v>
+        <v>49.068835942400405</v>
       </c>
       <c r="CJ3" s="15">
-        <v>49.068835942400405</v>
+        <v>50.112853728408922</v>
       </c>
       <c r="CK3" s="15">
-        <v>50.112853728408922</v>
+        <v>53.24490708643448</v>
       </c>
       <c r="CL3" s="15">
-        <v>53.24490708643448</v>
+        <v>56.376960444460039</v>
       </c>
       <c r="CM3" s="15">
-        <v>56.376960444460039</v>
+        <v>59.50901380248559</v>
       </c>
       <c r="CN3" s="15">
-        <v>59.50901380248559</v>
+        <v>62.641067160511149</v>
       </c>
       <c r="CO3" s="15">
-        <v>62.641067160511149</v>
+        <v>65.773120518536714</v>
       </c>
       <c r="CP3" s="15">
-        <v>65.773120518536714</v>
+        <v>68.696370319359801</v>
       </c>
       <c r="CQ3" s="15">
-        <v>68.696370319359801</v>
+        <v>71.619620120183839</v>
       </c>
       <c r="CR3" s="15">
-        <v>71.619620120183839</v>
+        <v>74.542869921007892</v>
       </c>
       <c r="CS3" s="15">
-        <v>74.542869921007892</v>
+        <v>77.46611972183193</v>
       </c>
       <c r="CT3" s="15">
-        <v>77.46611972183193</v>
+        <v>80.389369522655983</v>
       </c>
       <c r="CU3" s="15">
-        <v>80.389369522655983</v>
+        <v>84.416295268689112</v>
       </c>
       <c r="CV3" s="15">
-        <v>84.416295268689112</v>
+        <v>88.443221014722241</v>
       </c>
       <c r="CW3" s="15">
-        <v>88.443221014722241</v>
+        <v>92.470146760754417</v>
       </c>
       <c r="CX3" s="15">
-        <v>92.470146760754417</v>
+        <v>96.497072506787546</v>
       </c>
       <c r="CY3" s="15">
-        <v>96.497072506787546</v>
+        <v>100.52399825282068</v>
       </c>
       <c r="CZ3" s="15">
-        <v>100.52399825282068</v>
+        <v>104.55092399885287</v>
       </c>
       <c r="DA3" s="15">
-        <v>104.55092399885287</v>
+        <v>108.577849744886</v>
       </c>
       <c r="DB3" s="15">
-        <v>108.577849744886</v>
+        <v>115.88597424694562</v>
       </c>
       <c r="DC3" s="15">
-        <v>115.88597424694562</v>
+        <v>123.19409874900526</v>
       </c>
       <c r="DD3" s="15">
-        <v>123.19409874900526</v>
+        <v>130.50222325106489</v>
       </c>
       <c r="DE3" s="15">
-        <v>130.50222325106489</v>
+        <v>132.73940422108288</v>
       </c>
       <c r="DF3" s="15">
-        <v>132.73940422108288</v>
+        <v>134.97658519110087</v>
       </c>
       <c r="DG3" s="15">
-        <v>134.97658519110087</v>
+        <v>137.21376616111979</v>
       </c>
       <c r="DH3" s="15">
-        <v>137.21376616111979</v>
+        <v>139.45094713113778</v>
       </c>
       <c r="DI3" s="15">
-        <v>139.45094713113778</v>
+        <v>141.68812810115577</v>
       </c>
       <c r="DJ3" s="15">
-        <v>141.68812810115577</v>
+        <v>143.92530907117376</v>
       </c>
       <c r="DK3" s="15">
-        <v>143.92530907117376</v>
+        <v>146.16249004119268</v>
       </c>
       <c r="DL3" s="15">
-        <v>146.16249004119268</v>
+        <v>148.77253450621399</v>
       </c>
       <c r="DM3" s="15">
-        <v>148.77253450621399</v>
+        <v>151.38257897123529</v>
       </c>
       <c r="DN3" s="15">
-        <v>151.38257897123529</v>
+        <v>153.99262343625657</v>
       </c>
       <c r="DO3" s="15">
-        <v>153.99262343625657</v>
+        <v>156.60266790127787</v>
       </c>
       <c r="DP3" s="15">
-        <v>156.60266790127787</v>
+        <v>166.69483983269103</v>
       </c>
       <c r="DQ3" s="15">
-        <v>166.69483983269103</v>
-      </c>
-      <c r="DR3" s="15">
         <v>176.78701176410797</v>
       </c>
+      <c r="DR3" s="16">
+        <v>179.41880659967117</v>
+      </c>
       <c r="DS3" s="16">
-        <v>179.41880659967117</v>
+        <v>182.05060143523434</v>
       </c>
       <c r="DT3" s="16">
-        <v>182.05060143523434</v>
+        <v>184.68239627079754</v>
       </c>
       <c r="DU3" s="16">
-        <v>184.68239627079754</v>
+        <v>187.31419110636071</v>
       </c>
       <c r="DV3" s="16">
-        <v>187.31419110636071</v>
+        <v>189.94598594192388</v>
       </c>
       <c r="DW3" s="16">
-        <v>189.94598594192388</v>
+        <v>192.57778077748708</v>
       </c>
       <c r="DX3" s="16">
-        <v>192.57778077748708</v>
+        <v>195.20957561305025</v>
       </c>
       <c r="DY3" s="16">
-        <v>195.20957561305025</v>
+        <v>197.84137044861345</v>
       </c>
       <c r="DZ3" s="16">
-        <v>197.84137044861345</v>
+        <v>200.47316528417662</v>
       </c>
       <c r="EA3" s="16">
-        <v>200.47316528417662</v>
+        <v>203.10496011973979</v>
       </c>
       <c r="EB3" s="16">
-        <v>203.10496011973979</v>
+        <v>205.73675495530298</v>
       </c>
       <c r="EC3" s="16">
-        <v>205.73675495530298</v>
+        <v>208.36854979086615</v>
       </c>
       <c r="ED3" s="16">
-        <v>208.36854979086615</v>
+        <v>211.00034462642935</v>
       </c>
       <c r="EE3" s="16">
-        <v>211.00034462642935</v>
+        <v>213.63213946199252</v>
       </c>
       <c r="EF3" s="16">
-        <v>213.63213946199252</v>
+        <v>216.26393429755569</v>
       </c>
       <c r="EG3" s="16">
-        <v>216.26393429755569</v>
+        <v>218.89572913311889</v>
       </c>
       <c r="EH3" s="16">
-        <v>218.89572913311889</v>
+        <v>221.52752396868206</v>
       </c>
       <c r="EI3" s="16">
-        <v>221.52752396868206</v>
+        <v>224.15931880424526</v>
       </c>
       <c r="EJ3" s="16">
-        <v>224.15931880424526</v>
+        <v>226.79111363980843</v>
       </c>
       <c r="EK3" s="16">
-        <v>226.79111363980843</v>
+        <v>229.42290847537163</v>
       </c>
       <c r="EL3" s="16">
-        <v>229.42290847537163</v>
+        <v>232.0547033109348</v>
       </c>
       <c r="EM3" s="16">
-        <v>232.0547033109348</v>
+        <v>234.68649814649797</v>
       </c>
       <c r="EN3" s="16">
-        <v>234.68649814649797</v>
+        <v>237.31829298206117</v>
       </c>
       <c r="EO3" s="16">
-        <v>237.31829298206117</v>
+        <v>239.95008781762434</v>
       </c>
       <c r="EP3" s="16">
-        <v>239.95008781762434</v>
+        <v>242.58188265318753</v>
       </c>
       <c r="EQ3" s="16">
-        <v>242.58188265318753</v>
+        <v>245.2136774887507</v>
       </c>
       <c r="ER3" s="16">
-        <v>245.2136774887507</v>
+        <v>247.84547232431387</v>
       </c>
       <c r="ES3" s="16">
-        <v>247.84547232431387</v>
+        <v>250.47726715987707</v>
       </c>
       <c r="ET3" s="16">
-        <v>250.47726715987707</v>
+        <v>253.10906199544024</v>
       </c>
       <c r="EU3" s="16">
-        <v>253.10906199544024</v>
+        <v>255.74085683100344</v>
       </c>
       <c r="EV3" s="16">
-        <v>255.74085683100344</v>
+        <v>258.37265166656664</v>
       </c>
       <c r="EW3" s="16">
-        <v>258.37265166656664</v>
-      </c>
-      <c r="EX3" s="16">
         <v>261.00444650212978</v>
       </c>
     </row>
-    <row r="4" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>28.719798968999999</v>
       </c>
       <c r="D4" s="14">
         <v>28.719798968999999</v>
@@ -7130,322 +7111,319 @@
       <c r="AZ4" s="14">
         <v>28.719798968999999</v>
       </c>
-      <c r="BA4" s="14">
+      <c r="BA4" s="15">
         <v>28.719798968999999</v>
       </c>
       <c r="BB4" s="15">
-        <v>28.719798968999999</v>
+        <v>29.102729621920087</v>
       </c>
       <c r="BC4" s="15">
-        <v>29.102729621920087</v>
+        <v>29.485660274840065</v>
       </c>
       <c r="BD4" s="15">
-        <v>29.485660274840065</v>
+        <v>29.868590927760042</v>
       </c>
       <c r="BE4" s="15">
-        <v>29.868590927760042</v>
+        <v>30.251521580680024</v>
       </c>
       <c r="BF4" s="15">
-        <v>30.251521580680024</v>
+        <v>30.634452233600001</v>
       </c>
       <c r="BG4" s="15">
-        <v>30.634452233600001</v>
+        <v>31.017382886520089</v>
       </c>
       <c r="BH4" s="15">
-        <v>31.017382886520089</v>
+        <v>31.400313539440067</v>
       </c>
       <c r="BI4" s="15">
-        <v>31.400313539440067</v>
+        <v>31.783244192360044</v>
       </c>
       <c r="BJ4" s="15">
-        <v>31.783244192360044</v>
+        <v>32.166174845280025</v>
       </c>
       <c r="BK4" s="15">
-        <v>32.166174845280025</v>
+        <v>32.549105498199999</v>
       </c>
       <c r="BL4" s="15">
-        <v>32.549105498199999</v>
+        <v>32.932036151120087</v>
       </c>
       <c r="BM4" s="15">
-        <v>32.932036151120087</v>
+        <v>33.314966804040068</v>
       </c>
       <c r="BN4" s="15">
-        <v>33.314966804040068</v>
+        <v>33.697897456960042</v>
       </c>
       <c r="BO4" s="15">
-        <v>33.697897456960042</v>
+        <v>34.080828109880024</v>
       </c>
       <c r="BP4" s="15">
-        <v>34.080828109880024</v>
+        <v>34.463758762799998</v>
       </c>
       <c r="BQ4" s="15">
-        <v>34.463758762799998</v>
+        <v>34.846689415720085</v>
       </c>
       <c r="BR4" s="15">
-        <v>34.846689415720085</v>
+        <v>35.229620068640067</v>
       </c>
       <c r="BS4" s="15">
-        <v>35.229620068640067</v>
+        <v>35.612550721560041</v>
       </c>
       <c r="BT4" s="15">
-        <v>35.612550721560041</v>
+        <v>35.995481374480022</v>
       </c>
       <c r="BU4" s="15">
-        <v>35.995481374480022</v>
+        <v>36.378412027400003</v>
       </c>
       <c r="BV4" s="15">
-        <v>36.378412027400003</v>
+        <v>36.761342680320084</v>
       </c>
       <c r="BW4" s="15">
-        <v>36.761342680320084</v>
+        <v>37.144273333240065</v>
       </c>
       <c r="BX4" s="15">
-        <v>37.144273333240065</v>
+        <v>37.527203986160046</v>
       </c>
       <c r="BY4" s="15">
-        <v>37.527203986160046</v>
+        <v>37.91013463908002</v>
       </c>
       <c r="BZ4" s="15">
-        <v>37.91013463908002</v>
+        <v>38.293065292000001</v>
       </c>
       <c r="CA4" s="15">
-        <v>38.293065292000001</v>
+        <v>38.675995944920089</v>
       </c>
       <c r="CB4" s="15">
-        <v>38.675995944920089</v>
+        <v>39.058926597840063</v>
       </c>
       <c r="CC4" s="15">
-        <v>39.058926597840063</v>
+        <v>39.441857250760044</v>
       </c>
       <c r="CD4" s="15">
-        <v>39.441857250760044</v>
+        <v>39.824787903680019</v>
       </c>
       <c r="CE4" s="15">
-        <v>39.824787903680019</v>
+        <v>40.2077185566</v>
       </c>
       <c r="CF4" s="15">
-        <v>40.2077185566</v>
+        <v>40.590649209520087</v>
       </c>
       <c r="CG4" s="15">
-        <v>40.590649209520087</v>
+        <v>40.973579862440069</v>
       </c>
       <c r="CH4" s="15">
-        <v>40.973579862440069</v>
+        <v>41.356510515360043</v>
       </c>
       <c r="CI4" s="15">
-        <v>41.356510515360043</v>
+        <v>41.739441168280024</v>
       </c>
       <c r="CJ4" s="15">
-        <v>41.739441168280024</v>
+        <v>42.122371821199998</v>
       </c>
       <c r="CK4" s="15">
-        <v>42.122371821199998</v>
+        <v>42.505302474120086</v>
       </c>
       <c r="CL4" s="15">
-        <v>42.505302474120086</v>
+        <v>42.888233127040067</v>
       </c>
       <c r="CM4" s="15">
-        <v>42.888233127040067</v>
+        <v>43.271163779960041</v>
       </c>
       <c r="CN4" s="15">
-        <v>43.271163779960041</v>
+        <v>43.654094432880022</v>
       </c>
       <c r="CO4" s="15">
-        <v>43.654094432880022</v>
+        <v>44.228490412260008</v>
       </c>
       <c r="CP4" s="15">
-        <v>44.228490412260008</v>
+        <v>46.194201097248829</v>
       </c>
       <c r="CQ4" s="15">
-        <v>46.194201097248829</v>
+        <v>48.159911782238282</v>
       </c>
       <c r="CR4" s="15">
-        <v>48.159911782238282</v>
+        <v>50.12562246722775</v>
       </c>
       <c r="CS4" s="15">
-        <v>50.12562246722775</v>
+        <v>52.09133315221721</v>
       </c>
       <c r="CT4" s="15">
-        <v>52.09133315221721</v>
+        <v>54.05704383720667</v>
       </c>
       <c r="CU4" s="15">
-        <v>54.05704383720667</v>
+        <v>56.764910597141132</v>
       </c>
       <c r="CV4" s="15">
-        <v>56.764910597141132</v>
+        <v>59.472777357075593</v>
       </c>
       <c r="CW4" s="15">
-        <v>59.472777357075593</v>
+        <v>62.180644117009429</v>
       </c>
       <c r="CX4" s="15">
-        <v>62.180644117009429</v>
+        <v>64.888510876943897</v>
       </c>
       <c r="CY4" s="15">
-        <v>64.888510876943897</v>
+        <v>67.596377636878358</v>
       </c>
       <c r="CZ4" s="15">
-        <v>67.596377636878358</v>
+        <v>70.304244396812194</v>
       </c>
       <c r="DA4" s="15">
-        <v>70.304244396812194</v>
+        <v>73.01211115674667</v>
       </c>
       <c r="DB4" s="15">
-        <v>73.01211115674667</v>
+        <v>77.926387869220008</v>
       </c>
       <c r="DC4" s="15">
-        <v>77.926387869220008</v>
+        <v>82.840664581693346</v>
       </c>
       <c r="DD4" s="15">
-        <v>82.840664581693346</v>
+        <v>87.75494129416667</v>
       </c>
       <c r="DE4" s="15">
-        <v>87.75494129416667</v>
+        <v>89.259311716352187</v>
       </c>
       <c r="DF4" s="15">
-        <v>89.259311716352187</v>
+        <v>90.763682138537732</v>
       </c>
       <c r="DG4" s="15">
-        <v>90.763682138537732</v>
+        <v>92.268052560723902</v>
       </c>
       <c r="DH4" s="15">
-        <v>92.268052560723902</v>
+        <v>93.772422982909433</v>
       </c>
       <c r="DI4" s="15">
-        <v>93.772422982909433</v>
+        <v>95.276793405094978</v>
       </c>
       <c r="DJ4" s="15">
-        <v>95.276793405094978</v>
+        <v>96.781163827280508</v>
       </c>
       <c r="DK4" s="15">
-        <v>96.781163827280508</v>
+        <v>98.285534249466679</v>
       </c>
       <c r="DL4" s="15">
-        <v>98.285534249466679</v>
+        <v>100.04063307535002</v>
       </c>
       <c r="DM4" s="15">
-        <v>100.04063307535002</v>
+        <v>101.79573190123334</v>
       </c>
       <c r="DN4" s="15">
-        <v>101.79573190123334</v>
+        <v>103.55083072711668</v>
       </c>
       <c r="DO4" s="15">
-        <v>103.55083072711668</v>
+        <v>105.305929553</v>
       </c>
       <c r="DP4" s="15">
-        <v>105.305929553</v>
+        <v>111.0498893468</v>
       </c>
       <c r="DQ4" s="15">
-        <v>111.0498893468</v>
-      </c>
-      <c r="DR4" s="15">
         <v>114.879195876</v>
       </c>
+      <c r="DR4" s="16">
+        <v>118.02042388823438</v>
+      </c>
       <c r="DS4" s="16">
-        <v>118.02042388823438</v>
+        <v>121.16165190046875</v>
       </c>
       <c r="DT4" s="16">
-        <v>121.16165190046875</v>
+        <v>124.30287991270312</v>
       </c>
       <c r="DU4" s="16">
-        <v>124.30287991270312</v>
+        <v>127.4441079249375</v>
       </c>
       <c r="DV4" s="16">
-        <v>127.4441079249375</v>
+        <v>130.58533593717186</v>
       </c>
       <c r="DW4" s="16">
-        <v>130.58533593717186</v>
+        <v>133.72656394940626</v>
       </c>
       <c r="DX4" s="16">
-        <v>133.72656394940626</v>
+        <v>136.86779196164062</v>
       </c>
       <c r="DY4" s="16">
-        <v>136.86779196164062</v>
+        <v>140.00901997387501</v>
       </c>
       <c r="DZ4" s="16">
-        <v>140.00901997387501</v>
+        <v>143.15024798610938</v>
       </c>
       <c r="EA4" s="16">
-        <v>143.15024798610938</v>
+        <v>146.29147599834374</v>
       </c>
       <c r="EB4" s="16">
-        <v>146.29147599834374</v>
+        <v>149.43270401057814</v>
       </c>
       <c r="EC4" s="16">
-        <v>149.43270401057814</v>
+        <v>152.5739320228125</v>
       </c>
       <c r="ED4" s="16">
-        <v>152.5739320228125</v>
+        <v>155.71516003504686</v>
       </c>
       <c r="EE4" s="16">
-        <v>155.71516003504686</v>
+        <v>158.85638804728126</v>
       </c>
       <c r="EF4" s="16">
-        <v>158.85638804728126</v>
+        <v>161.99761605951562</v>
       </c>
       <c r="EG4" s="16">
-        <v>161.99761605951562</v>
+        <v>165.13884407175001</v>
       </c>
       <c r="EH4" s="16">
-        <v>165.13884407175001</v>
+        <v>168.28007208398438</v>
       </c>
       <c r="EI4" s="16">
-        <v>168.28007208398438</v>
+        <v>171.42130009621874</v>
       </c>
       <c r="EJ4" s="16">
-        <v>171.42130009621874</v>
+        <v>174.56252810845314</v>
       </c>
       <c r="EK4" s="16">
-        <v>174.56252810845314</v>
+        <v>177.7037561206875</v>
       </c>
       <c r="EL4" s="16">
-        <v>177.7037561206875</v>
+        <v>180.84498413292187</v>
       </c>
       <c r="EM4" s="16">
-        <v>180.84498413292187</v>
+        <v>183.98621214515626</v>
       </c>
       <c r="EN4" s="16">
-        <v>183.98621214515626</v>
+        <v>187.12744015739062</v>
       </c>
       <c r="EO4" s="16">
-        <v>187.12744015739062</v>
+        <v>190.26866816962499</v>
       </c>
       <c r="EP4" s="16">
-        <v>190.26866816962499</v>
+        <v>193.40989618185938</v>
       </c>
       <c r="EQ4" s="16">
-        <v>193.40989618185938</v>
+        <v>196.55112419409375</v>
       </c>
       <c r="ER4" s="16">
-        <v>196.55112419409375</v>
+        <v>199.69235220632814</v>
       </c>
       <c r="ES4" s="16">
-        <v>199.69235220632814</v>
+        <v>202.8335802185625</v>
       </c>
       <c r="ET4" s="16">
-        <v>202.8335802185625</v>
+        <v>205.97480823079687</v>
       </c>
       <c r="EU4" s="16">
-        <v>205.97480823079687</v>
+        <v>209.11603624303126</v>
       </c>
       <c r="EV4" s="16">
-        <v>209.11603624303126</v>
+        <v>212.25726425526562</v>
       </c>
       <c r="EW4" s="16">
-        <v>212.25726425526562</v>
-      </c>
-      <c r="EX4" s="16">
         <v>215.39849226749999</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>32.935198040429469</v>
       </c>
       <c r="D5" s="14">
         <v>32.935198040429469</v>
@@ -7594,322 +7572,319 @@
       <c r="AZ5" s="14">
         <v>32.935198040429469</v>
       </c>
-      <c r="BA5" s="14">
+      <c r="BA5" s="15">
         <v>32.935198040429469</v>
       </c>
       <c r="BB5" s="15">
-        <v>32.935198040429469</v>
+        <v>33.286506819527439</v>
       </c>
       <c r="BC5" s="15">
-        <v>33.286506819527439</v>
+        <v>33.637815598625281</v>
       </c>
       <c r="BD5" s="15">
-        <v>33.637815598625281</v>
+        <v>33.98912437772325</v>
       </c>
       <c r="BE5" s="15">
-        <v>33.98912437772325</v>
+        <v>34.340433156821092</v>
       </c>
       <c r="BF5" s="15">
-        <v>34.340433156821092</v>
+        <v>34.691741935919062</v>
       </c>
       <c r="BG5" s="15">
-        <v>34.691741935919062</v>
+        <v>35.043050715016953</v>
       </c>
       <c r="BH5" s="15">
-        <v>35.043050715016953</v>
+        <v>35.394359494114873</v>
       </c>
       <c r="BI5" s="15">
-        <v>35.394359494114873</v>
+        <v>35.745668273212843</v>
       </c>
       <c r="BJ5" s="15">
-        <v>35.745668273212843</v>
+        <v>36.096977052310692</v>
       </c>
       <c r="BK5" s="15">
-        <v>36.096977052310692</v>
+        <v>36.448285831408661</v>
       </c>
       <c r="BL5" s="15">
-        <v>36.448285831408661</v>
+        <v>36.799594610506503</v>
       </c>
       <c r="BM5" s="15">
-        <v>36.799594610506503</v>
+        <v>37.150903389604473</v>
       </c>
       <c r="BN5" s="15">
-        <v>37.150903389604473</v>
+        <v>37.502212168702314</v>
       </c>
       <c r="BO5" s="15">
-        <v>37.502212168702314</v>
+        <v>37.853520947800284</v>
       </c>
       <c r="BP5" s="15">
-        <v>37.853520947800284</v>
+        <v>38.204829726898254</v>
       </c>
       <c r="BQ5" s="15">
-        <v>38.204829726898254</v>
+        <v>38.556138505996103</v>
       </c>
       <c r="BR5" s="15">
-        <v>38.556138505996103</v>
+        <v>38.907447285094072</v>
       </c>
       <c r="BS5" s="15">
-        <v>38.907447285094072</v>
+        <v>39.258756064191914</v>
       </c>
       <c r="BT5" s="15">
-        <v>39.258756064191914</v>
+        <v>39.610064843289884</v>
       </c>
       <c r="BU5" s="15">
-        <v>39.610064843289884</v>
+        <v>39.961373622387725</v>
       </c>
       <c r="BV5" s="15">
-        <v>39.961373622387725</v>
+        <v>40.312682401485695</v>
       </c>
       <c r="BW5" s="15">
-        <v>40.312682401485695</v>
+        <v>40.663991180583544</v>
       </c>
       <c r="BX5" s="15">
-        <v>40.663991180583544</v>
+        <v>41.015299959681514</v>
       </c>
       <c r="BY5" s="15">
-        <v>41.015299959681514</v>
+        <v>41.366608738779483</v>
       </c>
       <c r="BZ5" s="15">
-        <v>41.366608738779483</v>
+        <v>41.498349530941134</v>
       </c>
       <c r="CA5" s="15">
-        <v>41.498349530941134</v>
+        <v>44.133165374176286</v>
       </c>
       <c r="CB5" s="15">
-        <v>44.133165374176286</v>
+        <v>46.548413230474246</v>
       </c>
       <c r="CC5" s="15">
-        <v>46.548413230474246</v>
+        <v>48.963661086772206</v>
       </c>
       <c r="CD5" s="15">
-        <v>48.963661086772206</v>
+        <v>51.378908943070165</v>
       </c>
       <c r="CE5" s="15">
-        <v>51.378908943070165</v>
+        <v>53.794156799368132</v>
       </c>
       <c r="CF5" s="15">
-        <v>53.794156799368132</v>
+        <v>56.209404655667086</v>
       </c>
       <c r="CG5" s="15">
-        <v>56.209404655667086</v>
+        <v>58.624652511965053</v>
       </c>
       <c r="CH5" s="15">
-        <v>58.624652511965053</v>
+        <v>61.039900368263012</v>
       </c>
       <c r="CI5" s="15">
-        <v>61.039900368263012</v>
+        <v>63.455148224560972</v>
       </c>
       <c r="CJ5" s="15">
-        <v>63.455148224560972</v>
+        <v>65.870396080858939</v>
       </c>
       <c r="CK5" s="15">
-        <v>65.870396080858939</v>
+        <v>70.261755819582859</v>
       </c>
       <c r="CL5" s="15">
-        <v>70.261755819582859</v>
+        <v>74.653115558306794</v>
       </c>
       <c r="CM5" s="15">
-        <v>74.653115558306794</v>
+        <v>79.044475297030715</v>
       </c>
       <c r="CN5" s="15">
-        <v>79.044475297030715</v>
+        <v>83.43583503575465</v>
       </c>
       <c r="CO5" s="15">
-        <v>83.43583503575465</v>
+        <v>87.827194774478571</v>
       </c>
       <c r="CP5" s="15">
-        <v>87.827194774478571</v>
+        <v>91.120714578521529</v>
       </c>
       <c r="CQ5" s="15">
-        <v>91.120714578521529</v>
+        <v>94.414234382564473</v>
       </c>
       <c r="CR5" s="15">
-        <v>94.414234382564473</v>
+        <v>97.707754186607417</v>
       </c>
       <c r="CS5" s="15">
-        <v>97.707754186607417</v>
+        <v>101.00127399065036</v>
       </c>
       <c r="CT5" s="15">
-        <v>101.00127399065036</v>
+        <v>104.29479379469331</v>
       </c>
       <c r="CU5" s="15">
-        <v>104.29479379469331</v>
+        <v>105.70630228214071</v>
       </c>
       <c r="CV5" s="15">
-        <v>105.70630228214071</v>
+        <v>107.11781076958762</v>
       </c>
       <c r="CW5" s="15">
-        <v>107.11781076958762</v>
+        <v>108.52931925703453</v>
       </c>
       <c r="CX5" s="15">
-        <v>108.52931925703453</v>
+        <v>109.94082774448144</v>
       </c>
       <c r="CY5" s="15">
-        <v>109.94082774448144</v>
+        <v>111.35233623192833</v>
       </c>
       <c r="CZ5" s="15">
-        <v>111.35233623192833</v>
+        <v>112.76384471937524</v>
       </c>
       <c r="DA5" s="15">
-        <v>112.76384471937524</v>
+        <v>114.17535320682215</v>
       </c>
       <c r="DB5" s="15">
-        <v>114.17535320682215</v>
+        <v>116.9199530435246</v>
       </c>
       <c r="DC5" s="15">
-        <v>116.9199530435246</v>
+        <v>119.66455288022706</v>
       </c>
       <c r="DD5" s="15">
-        <v>119.66455288022706</v>
+        <v>122.40915271692951</v>
       </c>
       <c r="DE5" s="15">
-        <v>122.40915271692951</v>
+        <v>125.15375255363197</v>
       </c>
       <c r="DF5" s="15">
-        <v>125.15375255363197</v>
+        <v>127.89835239033442</v>
       </c>
       <c r="DG5" s="15">
-        <v>127.89835239033442</v>
+        <v>130.64295222703689</v>
       </c>
       <c r="DH5" s="15">
-        <v>130.64295222703689</v>
+        <v>133.38755206373935</v>
       </c>
       <c r="DI5" s="15">
-        <v>133.38755206373935</v>
+        <v>136.13215190044178</v>
       </c>
       <c r="DJ5" s="15">
-        <v>136.13215190044178</v>
+        <v>138.87675173714425</v>
       </c>
       <c r="DK5" s="15">
-        <v>138.87675173714425</v>
+        <v>141.62135157384671</v>
       </c>
       <c r="DL5" s="15">
-        <v>141.62135157384671</v>
+        <v>144.36595141054917</v>
       </c>
       <c r="DM5" s="15">
-        <v>144.36595141054917</v>
+        <v>147.11055124725161</v>
       </c>
       <c r="DN5" s="15">
-        <v>147.11055124725161</v>
+        <v>149.85515108395407</v>
       </c>
       <c r="DO5" s="15">
-        <v>149.85515108395407</v>
+        <v>152.59975092065653</v>
       </c>
       <c r="DP5" s="15">
-        <v>152.59975092065653</v>
+        <v>155.344350757359</v>
       </c>
       <c r="DQ5" s="15">
-        <v>155.344350757359</v>
-      </c>
-      <c r="DR5" s="15">
         <v>158.08895059406143</v>
       </c>
+      <c r="DR5" s="16">
+        <v>161.72554537769219</v>
+      </c>
       <c r="DS5" s="16">
-        <v>161.72554537769219</v>
+        <v>165.36214016132294</v>
       </c>
       <c r="DT5" s="16">
-        <v>165.36214016132294</v>
+        <v>168.9987349449537</v>
       </c>
       <c r="DU5" s="16">
-        <v>168.9987349449537</v>
+        <v>172.63532972858445</v>
       </c>
       <c r="DV5" s="16">
-        <v>172.63532972858445</v>
+        <v>176.27192451221521</v>
       </c>
       <c r="DW5" s="16">
-        <v>176.27192451221521</v>
+        <v>179.90851929584596</v>
       </c>
       <c r="DX5" s="16">
-        <v>179.90851929584596</v>
+        <v>183.54511407947672</v>
       </c>
       <c r="DY5" s="16">
-        <v>183.54511407947672</v>
+        <v>187.18170886310747</v>
       </c>
       <c r="DZ5" s="16">
-        <v>187.18170886310747</v>
+        <v>190.81830364673823</v>
       </c>
       <c r="EA5" s="16">
-        <v>190.81830364673823</v>
+        <v>194.45489843036898</v>
       </c>
       <c r="EB5" s="16">
-        <v>194.45489843036898</v>
+        <v>198.09149321399974</v>
       </c>
       <c r="EC5" s="16">
-        <v>198.09149321399974</v>
+        <v>201.7280879976305</v>
       </c>
       <c r="ED5" s="16">
-        <v>201.7280879976305</v>
+        <v>205.36468278126122</v>
       </c>
       <c r="EE5" s="16">
-        <v>205.36468278126122</v>
+        <v>209.00127756489198</v>
       </c>
       <c r="EF5" s="16">
-        <v>209.00127756489198</v>
+        <v>212.63787234852273</v>
       </c>
       <c r="EG5" s="16">
-        <v>212.63787234852273</v>
+        <v>216.27446713215349</v>
       </c>
       <c r="EH5" s="16">
-        <v>216.27446713215349</v>
+        <v>219.91106191578425</v>
       </c>
       <c r="EI5" s="16">
-        <v>219.91106191578425</v>
+        <v>223.547656699415</v>
       </c>
       <c r="EJ5" s="16">
-        <v>223.547656699415</v>
+        <v>227.18425148304576</v>
       </c>
       <c r="EK5" s="16">
-        <v>227.18425148304576</v>
+        <v>230.82084626667651</v>
       </c>
       <c r="EL5" s="16">
-        <v>230.82084626667651</v>
+        <v>234.45744105030727</v>
       </c>
       <c r="EM5" s="16">
-        <v>234.45744105030727</v>
+        <v>238.09403583393802</v>
       </c>
       <c r="EN5" s="16">
-        <v>238.09403583393802</v>
+        <v>241.73063061756878</v>
       </c>
       <c r="EO5" s="16">
-        <v>241.73063061756878</v>
+        <v>245.36722540119953</v>
       </c>
       <c r="EP5" s="16">
-        <v>245.36722540119953</v>
+        <v>249.00382018483029</v>
       </c>
       <c r="EQ5" s="16">
-        <v>249.00382018483029</v>
+        <v>252.64041496846104</v>
       </c>
       <c r="ER5" s="16">
-        <v>252.64041496846104</v>
+        <v>256.27700975209177</v>
       </c>
       <c r="ES5" s="16">
-        <v>256.27700975209177</v>
+        <v>259.91360453572253</v>
       </c>
       <c r="ET5" s="16">
-        <v>259.91360453572253</v>
+        <v>263.55019931935328</v>
       </c>
       <c r="EU5" s="16">
-        <v>263.55019931935328</v>
+        <v>267.18679410298404</v>
       </c>
       <c r="EV5" s="16">
-        <v>267.18679410298404</v>
+        <v>270.82338888661479</v>
       </c>
       <c r="EW5" s="16">
-        <v>270.82338888661479</v>
-      </c>
-      <c r="EX5" s="16">
         <v>274.45998367024555</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" s="14">
+        <v>29.807167925296728</v>
       </c>
       <c r="D6" s="14">
         <v>29.807167925296728</v>
@@ -8058,322 +8033,319 @@
       <c r="AZ6" s="14">
         <v>29.807167925296728</v>
       </c>
-      <c r="BA6" s="14">
+      <c r="BA6" s="15">
         <v>29.807167925296728</v>
       </c>
       <c r="BB6" s="15">
-        <v>29.807167925296728</v>
+        <v>30.164853940400359</v>
       </c>
       <c r="BC6" s="15">
-        <v>30.164853940400359</v>
+        <v>30.522539955503877</v>
       </c>
       <c r="BD6" s="15">
-        <v>30.522539955503877</v>
+        <v>30.880225970607452</v>
       </c>
       <c r="BE6" s="15">
-        <v>30.880225970607452</v>
+        <v>31.237911985710969</v>
       </c>
       <c r="BF6" s="15">
-        <v>31.237911985710969</v>
+        <v>31.59559800081454</v>
       </c>
       <c r="BG6" s="15">
-        <v>31.59559800081454</v>
+        <v>31.953284015918136</v>
       </c>
       <c r="BH6" s="15">
-        <v>31.953284015918136</v>
+        <v>32.310970031021689</v>
       </c>
       <c r="BI6" s="15">
-        <v>32.310970031021689</v>
+        <v>32.668656046125264</v>
       </c>
       <c r="BJ6" s="15">
-        <v>32.668656046125264</v>
+        <v>33.026342061228782</v>
       </c>
       <c r="BK6" s="15">
-        <v>33.026342061228782</v>
+        <v>33.384028076332356</v>
       </c>
       <c r="BL6" s="15">
-        <v>33.384028076332356</v>
+        <v>33.741714091435931</v>
       </c>
       <c r="BM6" s="15">
-        <v>33.741714091435931</v>
+        <v>34.099400106539505</v>
       </c>
       <c r="BN6" s="15">
-        <v>34.099400106539505</v>
+        <v>34.457086121643023</v>
       </c>
       <c r="BO6" s="15">
-        <v>34.457086121643023</v>
+        <v>34.814772136746598</v>
       </c>
       <c r="BP6" s="15">
-        <v>34.814772136746598</v>
+        <v>35.172458151850172</v>
       </c>
       <c r="BQ6" s="15">
-        <v>35.172458151850172</v>
+        <v>35.530144166953747</v>
       </c>
       <c r="BR6" s="15">
-        <v>35.530144166953747</v>
+        <v>35.887830182057321</v>
       </c>
       <c r="BS6" s="15">
-        <v>35.887830182057321</v>
+        <v>36.245516197160839</v>
       </c>
       <c r="BT6" s="15">
-        <v>36.245516197160839</v>
+        <v>36.603202212264414</v>
       </c>
       <c r="BU6" s="15">
-        <v>36.603202212264414</v>
+        <v>36.960888227367931</v>
       </c>
       <c r="BV6" s="15">
-        <v>36.960888227367931</v>
+        <v>37.318574242471563</v>
       </c>
       <c r="BW6" s="15">
-        <v>37.318574242471563</v>
+        <v>37.67626025757508</v>
       </c>
       <c r="BX6" s="15">
-        <v>37.67626025757508</v>
+        <v>38.033946272678655</v>
       </c>
       <c r="BY6" s="15">
-        <v>38.033946272678655</v>
+        <v>38.39163228778223</v>
       </c>
       <c r="BZ6" s="15">
-        <v>38.39163228778223</v>
+        <v>38.649961076468095</v>
       </c>
       <c r="CA6" s="15">
-        <v>38.649961076468095</v>
+        <v>39.444818887809383</v>
       </c>
       <c r="CB6" s="15">
-        <v>39.444818887809383</v>
+        <v>40.140319472732962</v>
       </c>
       <c r="CC6" s="15">
-        <v>40.140319472732962</v>
+        <v>40.835820057656541</v>
       </c>
       <c r="CD6" s="15">
-        <v>40.835820057656541</v>
+        <v>41.53132064258012</v>
       </c>
       <c r="CE6" s="15">
-        <v>41.53132064258012</v>
+        <v>42.226821227503699</v>
       </c>
       <c r="CF6" s="15">
-        <v>42.226821227503699</v>
+        <v>42.922321812427334</v>
       </c>
       <c r="CG6" s="15">
-        <v>42.922321812427334</v>
+        <v>43.617822397350913</v>
       </c>
       <c r="CH6" s="15">
-        <v>43.617822397350913</v>
+        <v>44.313322982274492</v>
       </c>
       <c r="CI6" s="15">
-        <v>44.313322982274492</v>
+        <v>45.008823567198071</v>
       </c>
       <c r="CJ6" s="15">
-        <v>45.008823567198071</v>
+        <v>45.70432415212165</v>
       </c>
       <c r="CK6" s="15">
-        <v>45.70432415212165</v>
+        <v>47.393397001221842</v>
       </c>
       <c r="CL6" s="15">
-        <v>47.393397001221842</v>
+        <v>49.082469850321978</v>
       </c>
       <c r="CM6" s="15">
-        <v>49.082469850321978</v>
+        <v>50.771542699422113</v>
       </c>
       <c r="CN6" s="15">
-        <v>50.771542699422113</v>
+        <v>52.460615548522249</v>
       </c>
       <c r="CO6" s="15">
-        <v>52.460615548522249</v>
+        <v>54.24904562404005</v>
       </c>
       <c r="CP6" s="15">
-        <v>54.24904562404005</v>
+        <v>56.660114318441195</v>
       </c>
       <c r="CQ6" s="15">
-        <v>56.660114318441195</v>
+        <v>59.071183012843136</v>
       </c>
       <c r="CR6" s="15">
-        <v>59.071183012843136</v>
+        <v>61.482251707245069</v>
       </c>
       <c r="CS6" s="15">
-        <v>61.482251707245069</v>
+        <v>63.89332040164701</v>
       </c>
       <c r="CT6" s="15">
-        <v>63.89332040164701</v>
+        <v>66.304389096048936</v>
       </c>
       <c r="CU6" s="15">
-        <v>66.304389096048936</v>
+        <v>69.625759236296517</v>
       </c>
       <c r="CV6" s="15">
-        <v>69.625759236296517</v>
+        <v>72.947129376544083</v>
       </c>
       <c r="CW6" s="15">
-        <v>72.947129376544083</v>
+        <v>76.268499516790868</v>
       </c>
       <c r="CX6" s="15">
-        <v>76.268499516790868</v>
+        <v>79.589869657038449</v>
       </c>
       <c r="CY6" s="15">
-        <v>79.589869657038449</v>
+        <v>82.911239797286029</v>
       </c>
       <c r="CZ6" s="15">
-        <v>82.911239797286029</v>
+        <v>86.232609937532814</v>
       </c>
       <c r="DA6" s="15">
-        <v>86.232609937532814</v>
+        <v>89.55398007778038</v>
       </c>
       <c r="DB6" s="15">
-        <v>89.55398007778038</v>
+        <v>95.581651813784845</v>
       </c>
       <c r="DC6" s="15">
-        <v>95.581651813784845</v>
+        <v>101.60932354978929</v>
       </c>
       <c r="DD6" s="15">
-        <v>101.60932354978929</v>
+        <v>107.63699528579374</v>
       </c>
       <c r="DE6" s="15">
-        <v>107.63699528579374</v>
+        <v>109.48220091926426</v>
       </c>
       <c r="DF6" s="15">
-        <v>109.48220091926426</v>
+        <v>111.32740655273479</v>
       </c>
       <c r="DG6" s="15">
-        <v>111.32740655273479</v>
+        <v>113.17261218620609</v>
       </c>
       <c r="DH6" s="15">
-        <v>113.17261218620609</v>
+        <v>115.01781781967662</v>
       </c>
       <c r="DI6" s="15">
-        <v>115.01781781967662</v>
+        <v>116.86302345314715</v>
       </c>
       <c r="DJ6" s="15">
-        <v>116.86302345314715</v>
+        <v>118.70822908661768</v>
       </c>
       <c r="DK6" s="15">
-        <v>118.70822908661768</v>
+        <v>120.553434720089</v>
       </c>
       <c r="DL6" s="15">
-        <v>120.553434720089</v>
+        <v>122.70617462580486</v>
       </c>
       <c r="DM6" s="15">
-        <v>122.70617462580486</v>
+        <v>124.85891453152074</v>
       </c>
       <c r="DN6" s="15">
-        <v>124.85891453152074</v>
+        <v>127.01165443723661</v>
       </c>
       <c r="DO6" s="15">
-        <v>127.01165443723661</v>
+        <v>129.16439434295248</v>
       </c>
       <c r="DP6" s="15">
-        <v>129.16439434295248</v>
+        <v>136.94737707900097</v>
       </c>
       <c r="DQ6" s="15">
-        <v>136.94737707900097</v>
-      </c>
-      <c r="DR6" s="15">
         <v>143.73678755087474</v>
       </c>
+      <c r="DR6" s="16">
+        <v>146.23106792240131</v>
+      </c>
       <c r="DS6" s="16">
-        <v>146.23106792240131</v>
+        <v>148.72534829392791</v>
       </c>
       <c r="DT6" s="16">
-        <v>148.72534829392791</v>
+        <v>151.21962866545448</v>
       </c>
       <c r="DU6" s="16">
-        <v>151.21962866545448</v>
+        <v>153.71390903698108</v>
       </c>
       <c r="DV6" s="16">
-        <v>153.71390903698108</v>
+        <v>156.20818940850765</v>
       </c>
       <c r="DW6" s="16">
-        <v>156.20818940850765</v>
+        <v>158.70246978003425</v>
       </c>
       <c r="DX6" s="16">
-        <v>158.70246978003425</v>
+        <v>161.19675015156082</v>
       </c>
       <c r="DY6" s="16">
-        <v>161.19675015156082</v>
+        <v>163.69103052308742</v>
       </c>
       <c r="DZ6" s="16">
-        <v>163.69103052308742</v>
+        <v>166.18531089461399</v>
       </c>
       <c r="EA6" s="16">
-        <v>166.18531089461399</v>
+        <v>168.67959126614059</v>
       </c>
       <c r="EB6" s="16">
-        <v>168.67959126614059</v>
+        <v>171.17387163766716</v>
       </c>
       <c r="EC6" s="16">
-        <v>171.17387163766716</v>
+        <v>173.66815200919376</v>
       </c>
       <c r="ED6" s="16">
-        <v>173.66815200919376</v>
+        <v>176.16243238072033</v>
       </c>
       <c r="EE6" s="16">
-        <v>176.16243238072033</v>
+        <v>178.65671275224693</v>
       </c>
       <c r="EF6" s="16">
-        <v>178.65671275224693</v>
+        <v>181.1509931237735</v>
       </c>
       <c r="EG6" s="16">
-        <v>181.1509931237735</v>
+        <v>183.6452734953001</v>
       </c>
       <c r="EH6" s="16">
-        <v>183.6452734953001</v>
+        <v>186.13955386682667</v>
       </c>
       <c r="EI6" s="16">
-        <v>186.13955386682667</v>
+        <v>188.63383423835327</v>
       </c>
       <c r="EJ6" s="16">
-        <v>188.63383423835327</v>
+        <v>191.12811460987984</v>
       </c>
       <c r="EK6" s="16">
-        <v>191.12811460987984</v>
+        <v>193.62239498140644</v>
       </c>
       <c r="EL6" s="16">
-        <v>193.62239498140644</v>
+        <v>196.11667535293302</v>
       </c>
       <c r="EM6" s="16">
-        <v>196.11667535293302</v>
+        <v>198.61095572445959</v>
       </c>
       <c r="EN6" s="16">
-        <v>198.61095572445959</v>
+        <v>201.10523609598619</v>
       </c>
       <c r="EO6" s="16">
-        <v>201.10523609598619</v>
+        <v>203.59951646751276</v>
       </c>
       <c r="EP6" s="16">
-        <v>203.59951646751276</v>
+        <v>206.09379683903936</v>
       </c>
       <c r="EQ6" s="16">
-        <v>206.09379683903936</v>
+        <v>208.58807721056593</v>
       </c>
       <c r="ER6" s="16">
-        <v>208.58807721056593</v>
+        <v>211.08235758209253</v>
       </c>
       <c r="ES6" s="16">
-        <v>211.08235758209253</v>
+        <v>213.5766379536191</v>
       </c>
       <c r="ET6" s="16">
-        <v>213.5766379536191</v>
+        <v>216.0709183251457</v>
       </c>
       <c r="EU6" s="16">
-        <v>216.0709183251457</v>
+        <v>218.56519869667227</v>
       </c>
       <c r="EV6" s="16">
-        <v>218.56519869667227</v>
+        <v>221.05947906819887</v>
       </c>
       <c r="EW6" s="16">
-        <v>221.05947906819887</v>
-      </c>
-      <c r="EX6" s="16">
         <v>223.55375943972544</v>
       </c>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>26.492698560150679</v>
       </c>
       <c r="D7" s="14">
         <v>26.492698560150679</v>
@@ -8522,322 +8494,319 @@
       <c r="AZ7" s="14">
         <v>26.492698560150679</v>
       </c>
-      <c r="BA7" s="14">
+      <c r="BA7" s="15">
         <v>26.492698560150679</v>
       </c>
       <c r="BB7" s="15">
-        <v>26.492698560150679</v>
+        <v>26.775287344792332</v>
       </c>
       <c r="BC7" s="15">
-        <v>26.775287344792332</v>
+        <v>27.057876129433883</v>
       </c>
       <c r="BD7" s="15">
-        <v>27.057876129433883</v>
+        <v>27.340464914075532</v>
       </c>
       <c r="BE7" s="15">
-        <v>27.340464914075532</v>
+        <v>27.623053698717083</v>
       </c>
       <c r="BF7" s="15">
-        <v>27.623053698717083</v>
+        <v>27.905642483358736</v>
       </c>
       <c r="BG7" s="15">
-        <v>27.905642483358736</v>
+        <v>28.188231268000326</v>
       </c>
       <c r="BH7" s="15">
-        <v>28.188231268000326</v>
+        <v>28.470820052641937</v>
       </c>
       <c r="BI7" s="15">
-        <v>28.470820052641937</v>
+        <v>28.75340883728359</v>
       </c>
       <c r="BJ7" s="15">
-        <v>28.75340883728359</v>
+        <v>29.035997621925141</v>
       </c>
       <c r="BK7" s="15">
-        <v>29.035997621925141</v>
+        <v>29.318586406566791</v>
       </c>
       <c r="BL7" s="15">
-        <v>29.318586406566791</v>
+        <v>29.601175191208345</v>
       </c>
       <c r="BM7" s="15">
-        <v>29.601175191208345</v>
+        <v>29.883763975849995</v>
       </c>
       <c r="BN7" s="15">
-        <v>29.883763975849995</v>
+        <v>30.166352760491545</v>
       </c>
       <c r="BO7" s="15">
-        <v>30.166352760491545</v>
+        <v>30.448941545133199</v>
       </c>
       <c r="BP7" s="15">
-        <v>30.448941545133199</v>
+        <v>30.731530329774849</v>
       </c>
       <c r="BQ7" s="15">
-        <v>30.731530329774849</v>
+        <v>31.014119114416399</v>
       </c>
       <c r="BR7" s="15">
-        <v>31.014119114416399</v>
+        <v>31.296707899058053</v>
       </c>
       <c r="BS7" s="15">
-        <v>31.296707899058053</v>
+        <v>31.579296683699603</v>
       </c>
       <c r="BT7" s="15">
-        <v>31.579296683699603</v>
+        <v>31.861885468341253</v>
       </c>
       <c r="BU7" s="15">
-        <v>31.861885468341253</v>
+        <v>32.144474252982803</v>
       </c>
       <c r="BV7" s="15">
-        <v>32.144474252982803</v>
+        <v>32.427063037624457</v>
       </c>
       <c r="BW7" s="15">
-        <v>32.427063037624457</v>
+        <v>32.709651822266004</v>
       </c>
       <c r="BX7" s="15">
-        <v>32.709651822266004</v>
+        <v>32.992240606907657</v>
       </c>
       <c r="BY7" s="15">
-        <v>32.992240606907657</v>
+        <v>33.274829391549311</v>
       </c>
       <c r="BZ7" s="15">
-        <v>33.274829391549311</v>
+        <v>33.380800185789859</v>
       </c>
       <c r="CA7" s="15">
-        <v>33.380800185789859</v>
+        <v>36.24201163028642</v>
       </c>
       <c r="CB7" s="15">
-        <v>36.24201163028642</v>
+        <v>39.103223074782257</v>
       </c>
       <c r="CC7" s="15">
-        <v>39.103223074782257</v>
+        <v>41.964434519278825</v>
       </c>
       <c r="CD7" s="15">
-        <v>41.964434519278825</v>
+        <v>44.825645963775386</v>
       </c>
       <c r="CE7" s="15">
-        <v>44.825645963775386</v>
+        <v>47.686857408271223</v>
       </c>
       <c r="CF7" s="15">
-        <v>47.686857408271223</v>
+        <v>49.196941226199527</v>
       </c>
       <c r="CG7" s="15">
-        <v>49.196941226199527</v>
+        <v>50.70702504412818</v>
       </c>
       <c r="CH7" s="15">
-        <v>50.70702504412818</v>
+        <v>52.217108862056847</v>
       </c>
       <c r="CI7" s="15">
-        <v>52.217108862056847</v>
+        <v>53.727192679985507</v>
       </c>
       <c r="CJ7" s="15">
-        <v>53.727192679985507</v>
+        <v>55.237276497914173</v>
       </c>
       <c r="CK7" s="15">
-        <v>55.237276497914173</v>
+        <v>57.303706985606212</v>
       </c>
       <c r="CL7" s="15">
-        <v>57.303706985606212</v>
+        <v>59.370137473297525</v>
       </c>
       <c r="CM7" s="15">
-        <v>59.370137473297525</v>
+        <v>61.436567960989571</v>
       </c>
       <c r="CN7" s="15">
-        <v>61.436567960989571</v>
+        <v>63.502998448681616</v>
       </c>
       <c r="CO7" s="15">
-        <v>63.502998448681616</v>
+        <v>65.56942893637293</v>
       </c>
       <c r="CP7" s="15">
-        <v>65.56942893637293</v>
+        <v>69.304899433354763</v>
       </c>
       <c r="CQ7" s="15">
-        <v>69.304899433354763</v>
+        <v>73.040369930335146</v>
       </c>
       <c r="CR7" s="15">
-        <v>73.040369930335146</v>
+        <v>76.77584042731695</v>
       </c>
       <c r="CS7" s="15">
-        <v>76.77584042731695</v>
+        <v>80.511310924298783</v>
       </c>
       <c r="CT7" s="15">
-        <v>80.511310924298783</v>
+        <v>84.246781421279167</v>
       </c>
       <c r="CU7" s="15">
-        <v>84.246781421279167</v>
+        <v>87.902773822578808</v>
       </c>
       <c r="CV7" s="15">
-        <v>87.902773822578808</v>
+        <v>91.558766223879886</v>
       </c>
       <c r="CW7" s="15">
-        <v>91.558766223879886</v>
+        <v>95.214758625180977</v>
       </c>
       <c r="CX7" s="15">
-        <v>95.214758625180977</v>
+        <v>98.870751026482054</v>
       </c>
       <c r="CY7" s="15">
-        <v>98.870751026482054</v>
+        <v>102.52674342778313</v>
       </c>
       <c r="CZ7" s="15">
-        <v>102.52674342778313</v>
+        <v>106.34169202044426</v>
       </c>
       <c r="DA7" s="15">
-        <v>106.34169202044426</v>
+        <v>110.15664061310682</v>
       </c>
       <c r="DB7" s="15">
-        <v>110.15664061310682</v>
+        <v>113.97158920576796</v>
       </c>
       <c r="DC7" s="15">
-        <v>113.97158920576796</v>
+        <v>117.78653779842907</v>
       </c>
       <c r="DD7" s="15">
-        <v>117.78653779842907</v>
+        <v>121.60148639109164</v>
       </c>
       <c r="DE7" s="15">
-        <v>121.60148639109164</v>
+        <v>124.3037416442267</v>
       </c>
       <c r="DF7" s="15">
-        <v>124.3037416442267</v>
+        <v>127.00599689736251</v>
       </c>
       <c r="DG7" s="15">
-        <v>127.00599689736251</v>
+        <v>129.7082521504976</v>
       </c>
       <c r="DH7" s="15">
-        <v>129.7082521504976</v>
+        <v>132.41050740363266</v>
       </c>
       <c r="DI7" s="15">
-        <v>132.41050740363266</v>
+        <v>135.11276265676847</v>
       </c>
       <c r="DJ7" s="15">
-        <v>135.11276265676847</v>
+        <v>139.64301411055482</v>
       </c>
       <c r="DK7" s="15">
-        <v>139.64301411055482</v>
+        <v>144.17326556433972</v>
       </c>
       <c r="DL7" s="15">
-        <v>144.17326556433972</v>
+        <v>148.70351701812606</v>
       </c>
       <c r="DM7" s="15">
-        <v>148.70351701812606</v>
+        <v>153.23376847191238</v>
       </c>
       <c r="DN7" s="15">
-        <v>153.23376847191238</v>
+        <v>157.76401992569731</v>
       </c>
       <c r="DO7" s="15">
-        <v>157.76401992569731</v>
+        <v>162.29427137948363</v>
       </c>
       <c r="DP7" s="15">
-        <v>162.29427137948363</v>
+        <v>166.82452283326856</v>
       </c>
       <c r="DQ7" s="15">
-        <v>166.82452283326856</v>
-      </c>
-      <c r="DR7" s="15">
         <v>171.35477428705488</v>
       </c>
+      <c r="DR7" s="16">
+        <v>174.96881991563544</v>
+      </c>
       <c r="DS7" s="16">
-        <v>174.96881991563544</v>
+        <v>178.58286554421599</v>
       </c>
       <c r="DT7" s="16">
-        <v>178.58286554421599</v>
+        <v>182.19691117279655</v>
       </c>
       <c r="DU7" s="16">
-        <v>182.19691117279655</v>
+        <v>185.8109568013771</v>
       </c>
       <c r="DV7" s="16">
-        <v>185.8109568013771</v>
+        <v>189.42500242995766</v>
       </c>
       <c r="DW7" s="16">
-        <v>189.42500242995766</v>
+        <v>193.03904805853821</v>
       </c>
       <c r="DX7" s="16">
-        <v>193.03904805853821</v>
+        <v>196.6530936871188</v>
       </c>
       <c r="DY7" s="16">
-        <v>196.6530936871188</v>
+        <v>200.26713931569935</v>
       </c>
       <c r="DZ7" s="16">
-        <v>200.26713931569935</v>
+        <v>203.88118494427991</v>
       </c>
       <c r="EA7" s="16">
-        <v>203.88118494427991</v>
+        <v>207.49523057286046</v>
       </c>
       <c r="EB7" s="16">
-        <v>207.49523057286046</v>
+        <v>211.10927620144102</v>
       </c>
       <c r="EC7" s="16">
-        <v>211.10927620144102</v>
+        <v>214.72332183002158</v>
       </c>
       <c r="ED7" s="16">
-        <v>214.72332183002158</v>
+        <v>218.33736745860213</v>
       </c>
       <c r="EE7" s="16">
-        <v>218.33736745860213</v>
+        <v>221.95141308718269</v>
       </c>
       <c r="EF7" s="16">
-        <v>221.95141308718269</v>
+        <v>225.56545871576324</v>
       </c>
       <c r="EG7" s="16">
-        <v>225.56545871576324</v>
+        <v>229.17950434434377</v>
       </c>
       <c r="EH7" s="16">
-        <v>229.17950434434377</v>
+        <v>232.7935499729243</v>
       </c>
       <c r="EI7" s="16">
-        <v>232.7935499729243</v>
+        <v>236.40759560150482</v>
       </c>
       <c r="EJ7" s="16">
-        <v>236.40759560150482</v>
+        <v>240.02164123008535</v>
       </c>
       <c r="EK7" s="16">
-        <v>240.02164123008535</v>
+        <v>243.63568685866588</v>
       </c>
       <c r="EL7" s="16">
-        <v>243.63568685866588</v>
+        <v>247.24973248724643</v>
       </c>
       <c r="EM7" s="16">
-        <v>247.24973248724643</v>
+        <v>250.86377811582696</v>
       </c>
       <c r="EN7" s="16">
-        <v>250.86377811582696</v>
+        <v>254.47782374440749</v>
       </c>
       <c r="EO7" s="16">
-        <v>254.47782374440749</v>
+        <v>258.09186937298801</v>
       </c>
       <c r="EP7" s="16">
-        <v>258.09186937298801</v>
+        <v>261.70591500156854</v>
       </c>
       <c r="EQ7" s="16">
-        <v>261.70591500156854</v>
+        <v>265.31996063014907</v>
       </c>
       <c r="ER7" s="16">
-        <v>265.31996063014907</v>
+        <v>268.9340062587296</v>
       </c>
       <c r="ES7" s="16">
-        <v>268.9340062587296</v>
+        <v>272.54805188731012</v>
       </c>
       <c r="ET7" s="16">
-        <v>272.54805188731012</v>
+        <v>276.16209751589065</v>
       </c>
       <c r="EU7" s="16">
-        <v>276.16209751589065</v>
+        <v>279.77614314447118</v>
       </c>
       <c r="EV7" s="16">
-        <v>279.77614314447118</v>
+        <v>283.3901887730517</v>
       </c>
       <c r="EW7" s="16">
-        <v>283.3901887730517</v>
-      </c>
-      <c r="EX7" s="16">
         <v>287.00423440163235</v>
       </c>
     </row>
-    <row r="8" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>31.320533580255574</v>
       </c>
       <c r="D8" s="14">
         <v>31.320533580255574</v>
@@ -8986,322 +8955,319 @@
       <c r="AZ8" s="14">
         <v>31.320533580255574</v>
       </c>
-      <c r="BA8" s="14">
+      <c r="BA8" s="15">
         <v>31.320533580255574</v>
       </c>
       <c r="BB8" s="15">
-        <v>31.320533580255574</v>
+        <v>31.654619271778355</v>
       </c>
       <c r="BC8" s="15">
-        <v>31.654619271778355</v>
+        <v>31.988704963301014</v>
       </c>
       <c r="BD8" s="15">
-        <v>31.988704963301014</v>
+        <v>32.322790654823791</v>
       </c>
       <c r="BE8" s="15">
-        <v>32.322790654823791</v>
+        <v>32.656876346346451</v>
       </c>
       <c r="BF8" s="15">
-        <v>32.656876346346451</v>
+        <v>32.990962037869231</v>
       </c>
       <c r="BG8" s="15">
-        <v>32.990962037869231</v>
+        <v>33.325047729391933</v>
       </c>
       <c r="BH8" s="15">
-        <v>33.325047729391933</v>
+        <v>33.659133420914671</v>
       </c>
       <c r="BI8" s="15">
-        <v>33.659133420914671</v>
+        <v>33.993219112437444</v>
       </c>
       <c r="BJ8" s="15">
-        <v>33.993219112437444</v>
+        <v>34.327304803960104</v>
       </c>
       <c r="BK8" s="15">
-        <v>34.327304803960104</v>
+        <v>34.661390495482884</v>
       </c>
       <c r="BL8" s="15">
-        <v>34.661390495482884</v>
+        <v>34.995476187005544</v>
       </c>
       <c r="BM8" s="15">
-        <v>34.995476187005544</v>
+        <v>35.329561878528324</v>
       </c>
       <c r="BN8" s="15">
-        <v>35.329561878528324</v>
+        <v>35.663647570050983</v>
       </c>
       <c r="BO8" s="15">
-        <v>35.663647570050983</v>
+        <v>35.997733261573764</v>
       </c>
       <c r="BP8" s="15">
-        <v>35.997733261573764</v>
+        <v>36.331818953096537</v>
       </c>
       <c r="BQ8" s="15">
-        <v>36.331818953096537</v>
+        <v>36.665904644619197</v>
       </c>
       <c r="BR8" s="15">
-        <v>36.665904644619197</v>
+        <v>36.999990336141977</v>
       </c>
       <c r="BS8" s="15">
-        <v>36.999990336141977</v>
+        <v>37.334076027664636</v>
       </c>
       <c r="BT8" s="15">
-        <v>37.334076027664636</v>
+        <v>37.668161719187417</v>
       </c>
       <c r="BU8" s="15">
-        <v>37.668161719187417</v>
+        <v>38.002247410710076</v>
       </c>
       <c r="BV8" s="15">
-        <v>38.002247410710076</v>
+        <v>38.33633310223285</v>
       </c>
       <c r="BW8" s="15">
-        <v>38.33633310223285</v>
+        <v>38.670418793755509</v>
       </c>
       <c r="BX8" s="15">
-        <v>38.670418793755509</v>
+        <v>39.004504485278289</v>
       </c>
       <c r="BY8" s="15">
-        <v>39.004504485278289</v>
+        <v>39.33859017680107</v>
       </c>
       <c r="BZ8" s="15">
-        <v>39.33859017680107</v>
+        <v>39.463872311122032</v>
       </c>
       <c r="CA8" s="15">
-        <v>39.463872311122032</v>
+        <v>40.716693654332246</v>
       </c>
       <c r="CB8" s="15">
-        <v>40.716693654332246</v>
+        <v>41.760711440340771</v>
       </c>
       <c r="CC8" s="15">
-        <v>41.760711440340771</v>
+        <v>42.804729226349288</v>
       </c>
       <c r="CD8" s="15">
-        <v>42.804729226349288</v>
+        <v>43.848747012357805</v>
       </c>
       <c r="CE8" s="15">
-        <v>43.848747012357805</v>
+        <v>44.892764798366322</v>
       </c>
       <c r="CF8" s="15">
-        <v>44.892764798366322</v>
+        <v>45.936782584374846</v>
       </c>
       <c r="CG8" s="15">
-        <v>45.936782584374846</v>
+        <v>46.980800370383363</v>
       </c>
       <c r="CH8" s="15">
-        <v>46.980800370383363</v>
+        <v>48.024818156391881</v>
       </c>
       <c r="CI8" s="15">
-        <v>48.024818156391881</v>
+        <v>49.068835942400405</v>
       </c>
       <c r="CJ8" s="15">
-        <v>49.068835942400405</v>
+        <v>50.112853728408922</v>
       </c>
       <c r="CK8" s="15">
-        <v>50.112853728408922</v>
+        <v>53.24490708643448</v>
       </c>
       <c r="CL8" s="15">
-        <v>53.24490708643448</v>
+        <v>56.376960444460039</v>
       </c>
       <c r="CM8" s="15">
-        <v>56.376960444460039</v>
+        <v>59.50901380248559</v>
       </c>
       <c r="CN8" s="15">
-        <v>59.50901380248559</v>
+        <v>62.641067160511149</v>
       </c>
       <c r="CO8" s="15">
-        <v>62.641067160511149</v>
+        <v>65.773120518536714</v>
       </c>
       <c r="CP8" s="15">
-        <v>65.773120518536714</v>
+        <v>68.696370319359801</v>
       </c>
       <c r="CQ8" s="15">
-        <v>68.696370319359801</v>
+        <v>71.619620120183839</v>
       </c>
       <c r="CR8" s="15">
-        <v>71.619620120183839</v>
+        <v>74.542869921007892</v>
       </c>
       <c r="CS8" s="15">
-        <v>74.542869921007892</v>
+        <v>77.46611972183193</v>
       </c>
       <c r="CT8" s="15">
-        <v>77.46611972183193</v>
+        <v>80.389369522655983</v>
       </c>
       <c r="CU8" s="15">
-        <v>80.389369522655983</v>
+        <v>84.416295268689112</v>
       </c>
       <c r="CV8" s="15">
-        <v>84.416295268689112</v>
+        <v>88.443221014722241</v>
       </c>
       <c r="CW8" s="15">
-        <v>88.443221014722241</v>
+        <v>92.470146760754417</v>
       </c>
       <c r="CX8" s="15">
-        <v>92.470146760754417</v>
+        <v>96.497072506787546</v>
       </c>
       <c r="CY8" s="15">
-        <v>96.497072506787546</v>
+        <v>100.52399825282068</v>
       </c>
       <c r="CZ8" s="15">
-        <v>100.52399825282068</v>
+        <v>104.55092399885287</v>
       </c>
       <c r="DA8" s="15">
-        <v>104.55092399885287</v>
+        <v>108.577849744886</v>
       </c>
       <c r="DB8" s="15">
-        <v>108.577849744886</v>
+        <v>115.88597424694562</v>
       </c>
       <c r="DC8" s="15">
-        <v>115.88597424694562</v>
+        <v>123.19409874900526</v>
       </c>
       <c r="DD8" s="15">
-        <v>123.19409874900526</v>
+        <v>130.50222325106489</v>
       </c>
       <c r="DE8" s="15">
-        <v>130.50222325106489</v>
+        <v>132.73940422108288</v>
       </c>
       <c r="DF8" s="15">
-        <v>132.73940422108288</v>
+        <v>134.97658519110087</v>
       </c>
       <c r="DG8" s="15">
-        <v>134.97658519110087</v>
+        <v>137.21376616111979</v>
       </c>
       <c r="DH8" s="15">
-        <v>137.21376616111979</v>
+        <v>139.45094713113778</v>
       </c>
       <c r="DI8" s="15">
-        <v>139.45094713113778</v>
+        <v>141.68812810115577</v>
       </c>
       <c r="DJ8" s="15">
-        <v>141.68812810115577</v>
+        <v>143.92530907117376</v>
       </c>
       <c r="DK8" s="15">
-        <v>143.92530907117376</v>
+        <v>146.16249004119268</v>
       </c>
       <c r="DL8" s="15">
-        <v>146.16249004119268</v>
+        <v>148.77253450621399</v>
       </c>
       <c r="DM8" s="15">
-        <v>148.77253450621399</v>
+        <v>151.38257897123529</v>
       </c>
       <c r="DN8" s="15">
-        <v>151.38257897123529</v>
+        <v>153.99262343625657</v>
       </c>
       <c r="DO8" s="15">
-        <v>153.99262343625657</v>
+        <v>156.60266790127787</v>
       </c>
       <c r="DP8" s="15">
-        <v>156.60266790127787</v>
+        <v>166.69483983269103</v>
       </c>
       <c r="DQ8" s="15">
-        <v>166.69483983269103</v>
-      </c>
-      <c r="DR8" s="15">
         <v>176.78701176410797</v>
       </c>
+      <c r="DR8" s="16">
+        <v>181.05008439030948</v>
+      </c>
       <c r="DS8" s="16">
-        <v>181.05008439030948</v>
+        <v>185.31315701651096</v>
       </c>
       <c r="DT8" s="16">
-        <v>185.31315701651096</v>
+        <v>189.57622964271246</v>
       </c>
       <c r="DU8" s="16">
-        <v>189.57622964271246</v>
+        <v>193.83930226891394</v>
       </c>
       <c r="DV8" s="16">
-        <v>193.83930226891394</v>
+        <v>198.10237489511545</v>
       </c>
       <c r="DW8" s="16">
-        <v>198.10237489511545</v>
+        <v>202.36544752131695</v>
       </c>
       <c r="DX8" s="16">
-        <v>202.36544752131695</v>
+        <v>206.62852014751843</v>
       </c>
       <c r="DY8" s="16">
-        <v>206.62852014751843</v>
+        <v>210.89159277371994</v>
       </c>
       <c r="DZ8" s="16">
-        <v>210.89159277371994</v>
+        <v>215.15466539992141</v>
       </c>
       <c r="EA8" s="16">
-        <v>215.15466539992141</v>
+        <v>219.41773802612292</v>
       </c>
       <c r="EB8" s="16">
-        <v>219.41773802612292</v>
+        <v>223.6808106523244</v>
       </c>
       <c r="EC8" s="16">
-        <v>223.6808106523244</v>
+        <v>227.9438832785259</v>
       </c>
       <c r="ED8" s="16">
-        <v>227.9438832785259</v>
+        <v>232.20695590472738</v>
       </c>
       <c r="EE8" s="16">
-        <v>232.20695590472738</v>
+        <v>236.47002853092889</v>
       </c>
       <c r="EF8" s="16">
-        <v>236.47002853092889</v>
+        <v>240.73310115713036</v>
       </c>
       <c r="EG8" s="16">
-        <v>240.73310115713036</v>
+        <v>244.99617378333187</v>
       </c>
       <c r="EH8" s="16">
-        <v>244.99617378333187</v>
+        <v>249.25924640953335</v>
       </c>
       <c r="EI8" s="16">
-        <v>249.25924640953335</v>
+        <v>253.52231903573485</v>
       </c>
       <c r="EJ8" s="16">
-        <v>253.52231903573485</v>
+        <v>257.78539166193633</v>
       </c>
       <c r="EK8" s="16">
-        <v>257.78539166193633</v>
+        <v>262.04846428813784</v>
       </c>
       <c r="EL8" s="16">
-        <v>262.04846428813784</v>
+        <v>266.31153691433934</v>
       </c>
       <c r="EM8" s="16">
-        <v>266.31153691433934</v>
+        <v>270.57460954054085</v>
       </c>
       <c r="EN8" s="16">
-        <v>270.57460954054085</v>
+        <v>274.8376821667423</v>
       </c>
       <c r="EO8" s="16">
-        <v>274.8376821667423</v>
+        <v>279.1007547929438</v>
       </c>
       <c r="EP8" s="16">
-        <v>279.1007547929438</v>
+        <v>283.36382741914531</v>
       </c>
       <c r="EQ8" s="16">
-        <v>283.36382741914531</v>
+        <v>287.62690004534682</v>
       </c>
       <c r="ER8" s="16">
-        <v>287.62690004534682</v>
+        <v>291.88997267154826</v>
       </c>
       <c r="ES8" s="16">
-        <v>291.88997267154826</v>
+        <v>296.15304529774977</v>
       </c>
       <c r="ET8" s="16">
-        <v>296.15304529774977</v>
+        <v>300.41611792395128</v>
       </c>
       <c r="EU8" s="16">
-        <v>300.41611792395128</v>
+        <v>304.67919055015278</v>
       </c>
       <c r="EV8" s="16">
-        <v>304.67919055015278</v>
+        <v>308.94226317635429</v>
       </c>
       <c r="EW8" s="16">
-        <v>308.94226317635429</v>
-      </c>
-      <c r="EX8" s="16">
         <v>313.20533580255574</v>
       </c>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>28.719798968999999</v>
       </c>
       <c r="D9" s="14">
         <v>28.719798968999999</v>
@@ -9450,322 +9416,319 @@
       <c r="AZ9" s="14">
         <v>28.719798968999999</v>
       </c>
-      <c r="BA9" s="14">
+      <c r="BA9" s="15">
         <v>28.719798968999999</v>
       </c>
       <c r="BB9" s="15">
-        <v>28.719798968999999</v>
+        <v>29.102729621920087</v>
       </c>
       <c r="BC9" s="15">
-        <v>29.102729621920087</v>
+        <v>29.485660274840065</v>
       </c>
       <c r="BD9" s="15">
-        <v>29.485660274840065</v>
+        <v>29.868590927760042</v>
       </c>
       <c r="BE9" s="15">
-        <v>29.868590927760042</v>
+        <v>30.251521580680024</v>
       </c>
       <c r="BF9" s="15">
-        <v>30.251521580680024</v>
+        <v>30.634452233600001</v>
       </c>
       <c r="BG9" s="15">
-        <v>30.634452233600001</v>
+        <v>31.017382886520089</v>
       </c>
       <c r="BH9" s="15">
-        <v>31.017382886520089</v>
+        <v>31.400313539440067</v>
       </c>
       <c r="BI9" s="15">
-        <v>31.400313539440067</v>
+        <v>31.783244192360044</v>
       </c>
       <c r="BJ9" s="15">
-        <v>31.783244192360044</v>
+        <v>32.166174845280025</v>
       </c>
       <c r="BK9" s="15">
-        <v>32.166174845280025</v>
+        <v>32.549105498199999</v>
       </c>
       <c r="BL9" s="15">
-        <v>32.549105498199999</v>
+        <v>32.932036151120087</v>
       </c>
       <c r="BM9" s="15">
-        <v>32.932036151120087</v>
+        <v>33.314966804040068</v>
       </c>
       <c r="BN9" s="15">
-        <v>33.314966804040068</v>
+        <v>33.697897456960042</v>
       </c>
       <c r="BO9" s="15">
-        <v>33.697897456960042</v>
+        <v>34.080828109880024</v>
       </c>
       <c r="BP9" s="15">
-        <v>34.080828109880024</v>
+        <v>34.463758762799998</v>
       </c>
       <c r="BQ9" s="15">
-        <v>34.463758762799998</v>
+        <v>34.846689415720085</v>
       </c>
       <c r="BR9" s="15">
-        <v>34.846689415720085</v>
+        <v>35.229620068640067</v>
       </c>
       <c r="BS9" s="15">
-        <v>35.229620068640067</v>
+        <v>35.612550721560041</v>
       </c>
       <c r="BT9" s="15">
-        <v>35.612550721560041</v>
+        <v>35.995481374480022</v>
       </c>
       <c r="BU9" s="15">
-        <v>35.995481374480022</v>
+        <v>36.378412027400003</v>
       </c>
       <c r="BV9" s="15">
-        <v>36.378412027400003</v>
+        <v>36.761342680320084</v>
       </c>
       <c r="BW9" s="15">
-        <v>36.761342680320084</v>
+        <v>37.144273333240065</v>
       </c>
       <c r="BX9" s="15">
-        <v>37.144273333240065</v>
+        <v>37.527203986160046</v>
       </c>
       <c r="BY9" s="15">
-        <v>37.527203986160046</v>
+        <v>37.91013463908002</v>
       </c>
       <c r="BZ9" s="15">
-        <v>37.91013463908002</v>
+        <v>38.293065292000001</v>
       </c>
       <c r="CA9" s="15">
-        <v>38.293065292000001</v>
+        <v>38.675995944920089</v>
       </c>
       <c r="CB9" s="15">
-        <v>38.675995944920089</v>
+        <v>39.058926597840063</v>
       </c>
       <c r="CC9" s="15">
-        <v>39.058926597840063</v>
+        <v>39.441857250760044</v>
       </c>
       <c r="CD9" s="15">
-        <v>39.441857250760044</v>
+        <v>39.824787903680019</v>
       </c>
       <c r="CE9" s="15">
-        <v>39.824787903680019</v>
+        <v>40.2077185566</v>
       </c>
       <c r="CF9" s="15">
-        <v>40.2077185566</v>
+        <v>40.590649209520087</v>
       </c>
       <c r="CG9" s="15">
-        <v>40.590649209520087</v>
+        <v>40.973579862440069</v>
       </c>
       <c r="CH9" s="15">
-        <v>40.973579862440069</v>
+        <v>41.356510515360043</v>
       </c>
       <c r="CI9" s="15">
-        <v>41.356510515360043</v>
+        <v>41.739441168280024</v>
       </c>
       <c r="CJ9" s="15">
-        <v>41.739441168280024</v>
+        <v>42.122371821199998</v>
       </c>
       <c r="CK9" s="15">
-        <v>42.122371821199998</v>
+        <v>42.505302474120086</v>
       </c>
       <c r="CL9" s="15">
-        <v>42.505302474120086</v>
+        <v>42.888233127040067</v>
       </c>
       <c r="CM9" s="15">
-        <v>42.888233127040067</v>
+        <v>43.271163779960041</v>
       </c>
       <c r="CN9" s="15">
-        <v>43.271163779960041</v>
+        <v>43.654094432880022</v>
       </c>
       <c r="CO9" s="15">
-        <v>43.654094432880022</v>
+        <v>44.228490412260008</v>
       </c>
       <c r="CP9" s="15">
-        <v>44.228490412260008</v>
+        <v>46.194201097248829</v>
       </c>
       <c r="CQ9" s="15">
-        <v>46.194201097248829</v>
+        <v>48.159911782238282</v>
       </c>
       <c r="CR9" s="15">
-        <v>48.159911782238282</v>
+        <v>50.12562246722775</v>
       </c>
       <c r="CS9" s="15">
-        <v>50.12562246722775</v>
+        <v>52.09133315221721</v>
       </c>
       <c r="CT9" s="15">
-        <v>52.09133315221721</v>
+        <v>54.05704383720667</v>
       </c>
       <c r="CU9" s="15">
-        <v>54.05704383720667</v>
+        <v>56.764910597141132</v>
       </c>
       <c r="CV9" s="15">
-        <v>56.764910597141132</v>
+        <v>59.472777357075593</v>
       </c>
       <c r="CW9" s="15">
-        <v>59.472777357075593</v>
+        <v>62.180644117009429</v>
       </c>
       <c r="CX9" s="15">
-        <v>62.180644117009429</v>
+        <v>64.888510876943897</v>
       </c>
       <c r="CY9" s="15">
-        <v>64.888510876943897</v>
+        <v>67.596377636878358</v>
       </c>
       <c r="CZ9" s="15">
-        <v>67.596377636878358</v>
+        <v>70.304244396812194</v>
       </c>
       <c r="DA9" s="15">
-        <v>70.304244396812194</v>
+        <v>73.01211115674667</v>
       </c>
       <c r="DB9" s="15">
-        <v>73.01211115674667</v>
+        <v>77.926387869220008</v>
       </c>
       <c r="DC9" s="15">
-        <v>77.926387869220008</v>
+        <v>82.840664581693346</v>
       </c>
       <c r="DD9" s="15">
-        <v>82.840664581693346</v>
+        <v>87.75494129416667</v>
       </c>
       <c r="DE9" s="15">
-        <v>87.75494129416667</v>
+        <v>89.259311716352187</v>
       </c>
       <c r="DF9" s="15">
-        <v>89.259311716352187</v>
+        <v>90.763682138537732</v>
       </c>
       <c r="DG9" s="15">
-        <v>90.763682138537732</v>
+        <v>92.268052560723902</v>
       </c>
       <c r="DH9" s="15">
-        <v>92.268052560723902</v>
+        <v>93.772422982909433</v>
       </c>
       <c r="DI9" s="15">
-        <v>93.772422982909433</v>
+        <v>95.276793405094978</v>
       </c>
       <c r="DJ9" s="15">
-        <v>95.276793405094978</v>
+        <v>96.781163827280508</v>
       </c>
       <c r="DK9" s="15">
-        <v>96.781163827280508</v>
+        <v>98.285534249466679</v>
       </c>
       <c r="DL9" s="15">
-        <v>98.285534249466679</v>
+        <v>100.04063307535002</v>
       </c>
       <c r="DM9" s="15">
-        <v>100.04063307535002</v>
+        <v>101.79573190123334</v>
       </c>
       <c r="DN9" s="15">
-        <v>101.79573190123334</v>
+        <v>103.55083072711668</v>
       </c>
       <c r="DO9" s="15">
-        <v>103.55083072711668</v>
+        <v>105.305929553</v>
       </c>
       <c r="DP9" s="15">
-        <v>105.305929553</v>
+        <v>111.0498893468</v>
       </c>
       <c r="DQ9" s="15">
-        <v>111.0498893468</v>
-      </c>
-      <c r="DR9" s="15">
         <v>114.879195876</v>
       </c>
+      <c r="DR9" s="16">
+        <v>119.51624675120313</v>
+      </c>
       <c r="DS9" s="16">
-        <v>119.51624675120313</v>
+        <v>124.15329762640626</v>
       </c>
       <c r="DT9" s="16">
-        <v>124.15329762640626</v>
+        <v>128.79034850160937</v>
       </c>
       <c r="DU9" s="16">
-        <v>128.79034850160937</v>
+        <v>133.4273993768125</v>
       </c>
       <c r="DV9" s="16">
-        <v>133.4273993768125</v>
+        <v>138.06445025201563</v>
       </c>
       <c r="DW9" s="16">
-        <v>138.06445025201563</v>
+        <v>142.70150112721876</v>
       </c>
       <c r="DX9" s="16">
-        <v>142.70150112721876</v>
+        <v>147.33855200242186</v>
       </c>
       <c r="DY9" s="16">
-        <v>147.33855200242186</v>
+        <v>151.97560287762499</v>
       </c>
       <c r="DZ9" s="16">
-        <v>151.97560287762499</v>
+        <v>156.61265375282812</v>
       </c>
       <c r="EA9" s="16">
-        <v>156.61265375282812</v>
+        <v>161.24970462803125</v>
       </c>
       <c r="EB9" s="16">
-        <v>161.24970462803125</v>
+        <v>165.88675550323438</v>
       </c>
       <c r="EC9" s="16">
-        <v>165.88675550323438</v>
+        <v>170.52380637843751</v>
       </c>
       <c r="ED9" s="16">
-        <v>170.52380637843751</v>
+        <v>175.16085725364061</v>
       </c>
       <c r="EE9" s="16">
-        <v>175.16085725364061</v>
+        <v>179.79790812884374</v>
       </c>
       <c r="EF9" s="16">
-        <v>179.79790812884374</v>
+        <v>184.43495900404687</v>
       </c>
       <c r="EG9" s="16">
-        <v>184.43495900404687</v>
+        <v>189.07200987925</v>
       </c>
       <c r="EH9" s="16">
-        <v>189.07200987925</v>
+        <v>193.70906075445313</v>
       </c>
       <c r="EI9" s="16">
-        <v>193.70906075445313</v>
+        <v>198.34611162965626</v>
       </c>
       <c r="EJ9" s="16">
-        <v>198.34611162965626</v>
+        <v>202.98316250485937</v>
       </c>
       <c r="EK9" s="16">
-        <v>202.98316250485937</v>
+        <v>207.62021338006249</v>
       </c>
       <c r="EL9" s="16">
-        <v>207.62021338006249</v>
+        <v>212.25726425526562</v>
       </c>
       <c r="EM9" s="16">
-        <v>212.25726425526562</v>
+        <v>216.89431513046875</v>
       </c>
       <c r="EN9" s="16">
-        <v>216.89431513046875</v>
+        <v>221.53136600567188</v>
       </c>
       <c r="EO9" s="16">
-        <v>221.53136600567188</v>
+        <v>226.16841688087501</v>
       </c>
       <c r="EP9" s="16">
-        <v>226.16841688087501</v>
+        <v>230.80546775607812</v>
       </c>
       <c r="EQ9" s="16">
-        <v>230.80546775607812</v>
+        <v>235.44251863128125</v>
       </c>
       <c r="ER9" s="16">
-        <v>235.44251863128125</v>
+        <v>240.07956950648438</v>
       </c>
       <c r="ES9" s="16">
-        <v>240.07956950648438</v>
+        <v>244.71662038168751</v>
       </c>
       <c r="ET9" s="16">
-        <v>244.71662038168751</v>
+        <v>249.35367125689064</v>
       </c>
       <c r="EU9" s="16">
-        <v>249.35367125689064</v>
+        <v>253.99072213209377</v>
       </c>
       <c r="EV9" s="16">
-        <v>253.99072213209377</v>
+        <v>258.62777300729687</v>
       </c>
       <c r="EW9" s="16">
-        <v>258.62777300729687</v>
-      </c>
-      <c r="EX9" s="16">
         <v>263.26482388250002</v>
       </c>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C10" s="14">
+        <v>32.935198040429469</v>
       </c>
       <c r="D10" s="14">
         <v>32.935198040429469</v>
@@ -9914,322 +9877,319 @@
       <c r="AZ10" s="14">
         <v>32.935198040429469</v>
       </c>
-      <c r="BA10" s="14">
+      <c r="BA10" s="15">
         <v>32.935198040429469</v>
       </c>
       <c r="BB10" s="15">
-        <v>32.935198040429469</v>
+        <v>33.286506819527439</v>
       </c>
       <c r="BC10" s="15">
-        <v>33.286506819527439</v>
+        <v>33.637815598625281</v>
       </c>
       <c r="BD10" s="15">
-        <v>33.637815598625281</v>
+        <v>33.98912437772325</v>
       </c>
       <c r="BE10" s="15">
-        <v>33.98912437772325</v>
+        <v>34.340433156821092</v>
       </c>
       <c r="BF10" s="15">
-        <v>34.340433156821092</v>
+        <v>34.691741935919062</v>
       </c>
       <c r="BG10" s="15">
-        <v>34.691741935919062</v>
+        <v>35.043050715016953</v>
       </c>
       <c r="BH10" s="15">
-        <v>35.043050715016953</v>
+        <v>35.394359494114873</v>
       </c>
       <c r="BI10" s="15">
-        <v>35.394359494114873</v>
+        <v>35.745668273212843</v>
       </c>
       <c r="BJ10" s="15">
-        <v>35.745668273212843</v>
+        <v>36.096977052310692</v>
       </c>
       <c r="BK10" s="15">
-        <v>36.096977052310692</v>
+        <v>36.448285831408661</v>
       </c>
       <c r="BL10" s="15">
-        <v>36.448285831408661</v>
+        <v>36.799594610506503</v>
       </c>
       <c r="BM10" s="15">
-        <v>36.799594610506503</v>
+        <v>37.150903389604473</v>
       </c>
       <c r="BN10" s="15">
-        <v>37.150903389604473</v>
+        <v>37.502212168702314</v>
       </c>
       <c r="BO10" s="15">
-        <v>37.502212168702314</v>
+        <v>37.853520947800284</v>
       </c>
       <c r="BP10" s="15">
-        <v>37.853520947800284</v>
+        <v>38.204829726898254</v>
       </c>
       <c r="BQ10" s="15">
-        <v>38.204829726898254</v>
+        <v>38.556138505996103</v>
       </c>
       <c r="BR10" s="15">
-        <v>38.556138505996103</v>
+        <v>38.907447285094072</v>
       </c>
       <c r="BS10" s="15">
-        <v>38.907447285094072</v>
+        <v>39.258756064191914</v>
       </c>
       <c r="BT10" s="15">
-        <v>39.258756064191914</v>
+        <v>39.610064843289884</v>
       </c>
       <c r="BU10" s="15">
-        <v>39.610064843289884</v>
+        <v>39.961373622387725</v>
       </c>
       <c r="BV10" s="15">
-        <v>39.961373622387725</v>
+        <v>40.312682401485695</v>
       </c>
       <c r="BW10" s="15">
-        <v>40.312682401485695</v>
+        <v>40.663991180583544</v>
       </c>
       <c r="BX10" s="15">
-        <v>40.663991180583544</v>
+        <v>41.015299959681514</v>
       </c>
       <c r="BY10" s="15">
-        <v>41.015299959681514</v>
+        <v>41.366608738779483</v>
       </c>
       <c r="BZ10" s="15">
-        <v>41.366608738779483</v>
+        <v>41.498349530941134</v>
       </c>
       <c r="CA10" s="15">
-        <v>41.498349530941134</v>
+        <v>44.133165374176286</v>
       </c>
       <c r="CB10" s="15">
-        <v>44.133165374176286</v>
+        <v>46.548413230474246</v>
       </c>
       <c r="CC10" s="15">
-        <v>46.548413230474246</v>
+        <v>48.963661086772206</v>
       </c>
       <c r="CD10" s="15">
-        <v>48.963661086772206</v>
+        <v>51.378908943070165</v>
       </c>
       <c r="CE10" s="15">
-        <v>51.378908943070165</v>
+        <v>53.794156799368132</v>
       </c>
       <c r="CF10" s="15">
-        <v>53.794156799368132</v>
+        <v>56.209404655667086</v>
       </c>
       <c r="CG10" s="15">
-        <v>56.209404655667086</v>
+        <v>58.624652511965053</v>
       </c>
       <c r="CH10" s="15">
-        <v>58.624652511965053</v>
+        <v>61.039900368263012</v>
       </c>
       <c r="CI10" s="15">
-        <v>61.039900368263012</v>
+        <v>63.455148224560972</v>
       </c>
       <c r="CJ10" s="15">
-        <v>63.455148224560972</v>
+        <v>65.870396080858939</v>
       </c>
       <c r="CK10" s="15">
-        <v>65.870396080858939</v>
+        <v>70.261755819582859</v>
       </c>
       <c r="CL10" s="15">
-        <v>70.261755819582859</v>
+        <v>74.653115558306794</v>
       </c>
       <c r="CM10" s="15">
-        <v>74.653115558306794</v>
+        <v>79.044475297030715</v>
       </c>
       <c r="CN10" s="15">
-        <v>79.044475297030715</v>
+        <v>83.43583503575465</v>
       </c>
       <c r="CO10" s="15">
-        <v>83.43583503575465</v>
+        <v>87.827194774478571</v>
       </c>
       <c r="CP10" s="15">
-        <v>87.827194774478571</v>
+        <v>91.120714578521529</v>
       </c>
       <c r="CQ10" s="15">
-        <v>91.120714578521529</v>
+        <v>94.414234382564473</v>
       </c>
       <c r="CR10" s="15">
-        <v>94.414234382564473</v>
+        <v>97.707754186607417</v>
       </c>
       <c r="CS10" s="15">
-        <v>97.707754186607417</v>
+        <v>101.00127399065036</v>
       </c>
       <c r="CT10" s="15">
-        <v>101.00127399065036</v>
+        <v>104.29479379469331</v>
       </c>
       <c r="CU10" s="15">
-        <v>104.29479379469331</v>
+        <v>105.70630228214071</v>
       </c>
       <c r="CV10" s="15">
-        <v>105.70630228214071</v>
+        <v>107.11781076958762</v>
       </c>
       <c r="CW10" s="15">
-        <v>107.11781076958762</v>
+        <v>108.52931925703453</v>
       </c>
       <c r="CX10" s="15">
-        <v>108.52931925703453</v>
+        <v>109.94082774448144</v>
       </c>
       <c r="CY10" s="15">
-        <v>109.94082774448144</v>
+        <v>111.35233623192833</v>
       </c>
       <c r="CZ10" s="15">
-        <v>111.35233623192833</v>
+        <v>112.76384471937524</v>
       </c>
       <c r="DA10" s="15">
-        <v>112.76384471937524</v>
+        <v>114.17535320682215</v>
       </c>
       <c r="DB10" s="15">
-        <v>114.17535320682215</v>
+        <v>116.9199530435246</v>
       </c>
       <c r="DC10" s="15">
-        <v>116.9199530435246</v>
+        <v>119.66455288022706</v>
       </c>
       <c r="DD10" s="15">
-        <v>119.66455288022706</v>
+        <v>122.40915271692951</v>
       </c>
       <c r="DE10" s="15">
-        <v>122.40915271692951</v>
+        <v>125.15375255363197</v>
       </c>
       <c r="DF10" s="15">
-        <v>125.15375255363197</v>
+        <v>127.89835239033442</v>
       </c>
       <c r="DG10" s="15">
-        <v>127.89835239033442</v>
+        <v>130.64295222703689</v>
       </c>
       <c r="DH10" s="15">
-        <v>130.64295222703689</v>
+        <v>133.38755206373935</v>
       </c>
       <c r="DI10" s="15">
-        <v>133.38755206373935</v>
+        <v>136.13215190044178</v>
       </c>
       <c r="DJ10" s="15">
-        <v>136.13215190044178</v>
+        <v>138.87675173714425</v>
       </c>
       <c r="DK10" s="15">
-        <v>138.87675173714425</v>
+        <v>141.62135157384671</v>
       </c>
       <c r="DL10" s="15">
-        <v>141.62135157384671</v>
+        <v>144.36595141054917</v>
       </c>
       <c r="DM10" s="15">
-        <v>144.36595141054917</v>
+        <v>147.11055124725161</v>
       </c>
       <c r="DN10" s="15">
-        <v>147.11055124725161</v>
+        <v>149.85515108395407</v>
       </c>
       <c r="DO10" s="15">
-        <v>149.85515108395407</v>
+        <v>152.59975092065653</v>
       </c>
       <c r="DP10" s="15">
-        <v>152.59975092065653</v>
+        <v>155.344350757359</v>
       </c>
       <c r="DQ10" s="15">
-        <v>155.344350757359</v>
-      </c>
-      <c r="DR10" s="15">
         <v>158.08895059406143</v>
       </c>
+      <c r="DR10" s="16">
+        <v>162.58323282666171</v>
+      </c>
       <c r="DS10" s="16">
-        <v>162.58323282666171</v>
+        <v>167.07751505926197</v>
       </c>
       <c r="DT10" s="16">
-        <v>167.07751505926197</v>
+        <v>171.57179729186225</v>
       </c>
       <c r="DU10" s="16">
-        <v>171.57179729186225</v>
+        <v>176.06607952446251</v>
       </c>
       <c r="DV10" s="16">
-        <v>176.06607952446251</v>
+        <v>180.56036175706279</v>
       </c>
       <c r="DW10" s="16">
-        <v>180.56036175706279</v>
+        <v>185.05464398966308</v>
       </c>
       <c r="DX10" s="16">
-        <v>185.05464398966308</v>
+        <v>189.54892622226333</v>
       </c>
       <c r="DY10" s="16">
-        <v>189.54892622226333</v>
+        <v>194.04320845486362</v>
       </c>
       <c r="DZ10" s="16">
-        <v>194.04320845486362</v>
+        <v>198.53749068746387</v>
       </c>
       <c r="EA10" s="16">
-        <v>198.53749068746387</v>
+        <v>203.03177292006416</v>
       </c>
       <c r="EB10" s="16">
-        <v>203.03177292006416</v>
+        <v>207.52605515266441</v>
       </c>
       <c r="EC10" s="16">
-        <v>207.52605515266441</v>
+        <v>212.0203373852647</v>
       </c>
       <c r="ED10" s="16">
-        <v>212.0203373852647</v>
+        <v>216.51461961786495</v>
       </c>
       <c r="EE10" s="16">
-        <v>216.51461961786495</v>
+        <v>221.00890185046524</v>
       </c>
       <c r="EF10" s="16">
-        <v>221.00890185046524</v>
+        <v>225.50318408306549</v>
       </c>
       <c r="EG10" s="16">
-        <v>225.50318408306549</v>
+        <v>229.99746631566578</v>
       </c>
       <c r="EH10" s="16">
-        <v>229.99746631566578</v>
+        <v>234.49174854826606</v>
       </c>
       <c r="EI10" s="16">
-        <v>234.49174854826606</v>
+        <v>238.98603078086632</v>
       </c>
       <c r="EJ10" s="16">
-        <v>238.98603078086632</v>
+        <v>243.4803130134666</v>
       </c>
       <c r="EK10" s="16">
-        <v>243.4803130134666</v>
+        <v>247.97459524606685</v>
       </c>
       <c r="EL10" s="16">
-        <v>247.97459524606685</v>
+        <v>252.46887747866714</v>
       </c>
       <c r="EM10" s="16">
-        <v>252.46887747866714</v>
+        <v>256.96315971126739</v>
       </c>
       <c r="EN10" s="16">
-        <v>256.96315971126739</v>
+        <v>261.45744194386765</v>
       </c>
       <c r="EO10" s="16">
-        <v>261.45744194386765</v>
+        <v>265.95172417646796</v>
       </c>
       <c r="EP10" s="16">
-        <v>265.95172417646796</v>
+        <v>270.44600640906822</v>
       </c>
       <c r="EQ10" s="16">
-        <v>270.44600640906822</v>
+        <v>274.94028864166847</v>
       </c>
       <c r="ER10" s="16">
-        <v>274.94028864166847</v>
+        <v>279.43457087426873</v>
       </c>
       <c r="ES10" s="16">
-        <v>279.43457087426873</v>
+        <v>283.92885310686904</v>
       </c>
       <c r="ET10" s="16">
-        <v>283.92885310686904</v>
+        <v>288.4231353394693</v>
       </c>
       <c r="EU10" s="16">
-        <v>288.4231353394693</v>
+        <v>292.91741757206955</v>
       </c>
       <c r="EV10" s="16">
-        <v>292.91741757206955</v>
+        <v>297.41169980466987</v>
       </c>
       <c r="EW10" s="16">
-        <v>297.41169980466987</v>
-      </c>
-      <c r="EX10" s="16">
         <v>301.90598203727012</v>
       </c>
     </row>
-    <row r="11" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C11" s="14">
+        <v>29.807167925296728</v>
       </c>
       <c r="D11" s="14">
         <v>29.807167925296728</v>
@@ -10378,322 +10338,319 @@
       <c r="AZ11" s="14">
         <v>29.807167925296728</v>
       </c>
-      <c r="BA11" s="14">
+      <c r="BA11" s="15">
         <v>29.807167925296728</v>
       </c>
       <c r="BB11" s="15">
-        <v>29.807167925296728</v>
+        <v>30.164853940400359</v>
       </c>
       <c r="BC11" s="15">
-        <v>30.164853940400359</v>
+        <v>30.522539955503877</v>
       </c>
       <c r="BD11" s="15">
-        <v>30.522539955503877</v>
+        <v>30.880225970607452</v>
       </c>
       <c r="BE11" s="15">
-        <v>30.880225970607452</v>
+        <v>31.237911985710969</v>
       </c>
       <c r="BF11" s="15">
-        <v>31.237911985710969</v>
+        <v>31.59559800081454</v>
       </c>
       <c r="BG11" s="15">
-        <v>31.59559800081454</v>
+        <v>31.953284015918136</v>
       </c>
       <c r="BH11" s="15">
-        <v>31.953284015918136</v>
+        <v>32.310970031021689</v>
       </c>
       <c r="BI11" s="15">
-        <v>32.310970031021689</v>
+        <v>32.668656046125264</v>
       </c>
       <c r="BJ11" s="15">
-        <v>32.668656046125264</v>
+        <v>33.026342061228782</v>
       </c>
       <c r="BK11" s="15">
-        <v>33.026342061228782</v>
+        <v>33.384028076332356</v>
       </c>
       <c r="BL11" s="15">
-        <v>33.384028076332356</v>
+        <v>33.741714091435931</v>
       </c>
       <c r="BM11" s="15">
-        <v>33.741714091435931</v>
+        <v>34.099400106539505</v>
       </c>
       <c r="BN11" s="15">
-        <v>34.099400106539505</v>
+        <v>34.457086121643023</v>
       </c>
       <c r="BO11" s="15">
-        <v>34.457086121643023</v>
+        <v>34.814772136746598</v>
       </c>
       <c r="BP11" s="15">
-        <v>34.814772136746598</v>
+        <v>35.172458151850172</v>
       </c>
       <c r="BQ11" s="15">
-        <v>35.172458151850172</v>
+        <v>35.530144166953747</v>
       </c>
       <c r="BR11" s="15">
-        <v>35.530144166953747</v>
+        <v>35.887830182057321</v>
       </c>
       <c r="BS11" s="15">
-        <v>35.887830182057321</v>
+        <v>36.245516197160839</v>
       </c>
       <c r="BT11" s="15">
-        <v>36.245516197160839</v>
+        <v>36.603202212264414</v>
       </c>
       <c r="BU11" s="15">
-        <v>36.603202212264414</v>
+        <v>36.960888227367931</v>
       </c>
       <c r="BV11" s="15">
-        <v>36.960888227367931</v>
+        <v>37.318574242471563</v>
       </c>
       <c r="BW11" s="15">
-        <v>37.318574242471563</v>
+        <v>37.67626025757508</v>
       </c>
       <c r="BX11" s="15">
-        <v>37.67626025757508</v>
+        <v>38.033946272678655</v>
       </c>
       <c r="BY11" s="15">
-        <v>38.033946272678655</v>
+        <v>38.39163228778223</v>
       </c>
       <c r="BZ11" s="15">
-        <v>38.39163228778223</v>
+        <v>38.649961076468095</v>
       </c>
       <c r="CA11" s="15">
-        <v>38.649961076468095</v>
+        <v>39.444818887809383</v>
       </c>
       <c r="CB11" s="15">
-        <v>39.444818887809383</v>
+        <v>40.140319472732962</v>
       </c>
       <c r="CC11" s="15">
-        <v>40.140319472732962</v>
+        <v>40.835820057656541</v>
       </c>
       <c r="CD11" s="15">
-        <v>40.835820057656541</v>
+        <v>41.53132064258012</v>
       </c>
       <c r="CE11" s="15">
-        <v>41.53132064258012</v>
+        <v>42.226821227503699</v>
       </c>
       <c r="CF11" s="15">
-        <v>42.226821227503699</v>
+        <v>42.922321812427334</v>
       </c>
       <c r="CG11" s="15">
-        <v>42.922321812427334</v>
+        <v>43.617822397350913</v>
       </c>
       <c r="CH11" s="15">
-        <v>43.617822397350913</v>
+        <v>44.313322982274492</v>
       </c>
       <c r="CI11" s="15">
-        <v>44.313322982274492</v>
+        <v>45.008823567198071</v>
       </c>
       <c r="CJ11" s="15">
-        <v>45.008823567198071</v>
+        <v>45.70432415212165</v>
       </c>
       <c r="CK11" s="15">
-        <v>45.70432415212165</v>
+        <v>47.393397001221842</v>
       </c>
       <c r="CL11" s="15">
-        <v>47.393397001221842</v>
+        <v>49.082469850321978</v>
       </c>
       <c r="CM11" s="15">
-        <v>49.082469850321978</v>
+        <v>50.771542699422113</v>
       </c>
       <c r="CN11" s="15">
-        <v>50.771542699422113</v>
+        <v>52.460615548522249</v>
       </c>
       <c r="CO11" s="15">
-        <v>52.460615548522249</v>
+        <v>54.24904562404005</v>
       </c>
       <c r="CP11" s="15">
-        <v>54.24904562404005</v>
+        <v>56.660114318441195</v>
       </c>
       <c r="CQ11" s="15">
-        <v>56.660114318441195</v>
+        <v>59.071183012843136</v>
       </c>
       <c r="CR11" s="15">
-        <v>59.071183012843136</v>
+        <v>61.482251707245069</v>
       </c>
       <c r="CS11" s="15">
-        <v>61.482251707245069</v>
+        <v>63.89332040164701</v>
       </c>
       <c r="CT11" s="15">
-        <v>63.89332040164701</v>
+        <v>66.304389096048936</v>
       </c>
       <c r="CU11" s="15">
-        <v>66.304389096048936</v>
+        <v>69.625759236296517</v>
       </c>
       <c r="CV11" s="15">
-        <v>69.625759236296517</v>
+        <v>72.947129376544083</v>
       </c>
       <c r="CW11" s="15">
-        <v>72.947129376544083</v>
+        <v>76.268499516790868</v>
       </c>
       <c r="CX11" s="15">
-        <v>76.268499516790868</v>
+        <v>79.589869657038449</v>
       </c>
       <c r="CY11" s="15">
-        <v>79.589869657038449</v>
+        <v>82.911239797286029</v>
       </c>
       <c r="CZ11" s="15">
-        <v>82.911239797286029</v>
+        <v>86.232609937532814</v>
       </c>
       <c r="DA11" s="15">
-        <v>86.232609937532814</v>
+        <v>89.55398007778038</v>
       </c>
       <c r="DB11" s="15">
-        <v>89.55398007778038</v>
+        <v>95.581651813784845</v>
       </c>
       <c r="DC11" s="15">
-        <v>95.581651813784845</v>
+        <v>101.60932354978929</v>
       </c>
       <c r="DD11" s="15">
-        <v>101.60932354978929</v>
+        <v>107.63699528579374</v>
       </c>
       <c r="DE11" s="15">
-        <v>107.63699528579374</v>
+        <v>109.48220091926426</v>
       </c>
       <c r="DF11" s="15">
-        <v>109.48220091926426</v>
+        <v>111.32740655273479</v>
       </c>
       <c r="DG11" s="15">
-        <v>111.32740655273479</v>
+        <v>113.17261218620609</v>
       </c>
       <c r="DH11" s="15">
-        <v>113.17261218620609</v>
+        <v>115.01781781967662</v>
       </c>
       <c r="DI11" s="15">
-        <v>115.01781781967662</v>
+        <v>116.86302345314715</v>
       </c>
       <c r="DJ11" s="15">
-        <v>116.86302345314715</v>
+        <v>118.70822908661768</v>
       </c>
       <c r="DK11" s="15">
-        <v>118.70822908661768</v>
+        <v>120.553434720089</v>
       </c>
       <c r="DL11" s="15">
-        <v>120.553434720089</v>
+        <v>122.70617462580486</v>
       </c>
       <c r="DM11" s="15">
-        <v>122.70617462580486</v>
+        <v>124.85891453152074</v>
       </c>
       <c r="DN11" s="15">
-        <v>124.85891453152074</v>
+        <v>127.01165443723661</v>
       </c>
       <c r="DO11" s="15">
-        <v>127.01165443723661</v>
+        <v>129.16439434295248</v>
       </c>
       <c r="DP11" s="15">
-        <v>129.16439434295248</v>
+        <v>136.94737707900097</v>
       </c>
       <c r="DQ11" s="15">
-        <v>136.94737707900097</v>
-      </c>
-      <c r="DR11" s="15">
         <v>143.73678755087474</v>
       </c>
+      <c r="DR11" s="16">
+        <v>147.78352458517719</v>
+      </c>
       <c r="DS11" s="16">
-        <v>147.78352458517719</v>
+        <v>151.83026161947964</v>
       </c>
       <c r="DT11" s="16">
-        <v>151.83026161947964</v>
+        <v>155.8769986537821</v>
       </c>
       <c r="DU11" s="16">
-        <v>155.8769986537821</v>
+        <v>159.92373568808455</v>
       </c>
       <c r="DV11" s="16">
-        <v>159.92373568808455</v>
+        <v>163.970472722387</v>
       </c>
       <c r="DW11" s="16">
-        <v>163.970472722387</v>
+        <v>168.01720975668945</v>
       </c>
       <c r="DX11" s="16">
-        <v>168.01720975668945</v>
+        <v>172.06394679099191</v>
       </c>
       <c r="DY11" s="16">
-        <v>172.06394679099191</v>
+        <v>176.11068382529439</v>
       </c>
       <c r="DZ11" s="16">
-        <v>176.11068382529439</v>
+        <v>180.15742085959684</v>
       </c>
       <c r="EA11" s="16">
-        <v>180.15742085959684</v>
+        <v>184.20415789389929</v>
       </c>
       <c r="EB11" s="16">
-        <v>184.20415789389929</v>
+        <v>188.25089492820175</v>
       </c>
       <c r="EC11" s="16">
-        <v>188.25089492820175</v>
+        <v>192.2976319625042</v>
       </c>
       <c r="ED11" s="16">
-        <v>192.2976319625042</v>
+        <v>196.34436899680665</v>
       </c>
       <c r="EE11" s="16">
-        <v>196.34436899680665</v>
+        <v>200.3911060311091</v>
       </c>
       <c r="EF11" s="16">
-        <v>200.3911060311091</v>
+        <v>204.43784306541158</v>
       </c>
       <c r="EG11" s="16">
-        <v>204.43784306541158</v>
+        <v>208.48458009971404</v>
       </c>
       <c r="EH11" s="16">
-        <v>208.48458009971404</v>
+        <v>212.53131713401649</v>
       </c>
       <c r="EI11" s="16">
-        <v>212.53131713401649</v>
+        <v>216.57805416831894</v>
       </c>
       <c r="EJ11" s="16">
-        <v>216.57805416831894</v>
+        <v>220.6247912026214</v>
       </c>
       <c r="EK11" s="16">
-        <v>220.6247912026214</v>
+        <v>224.67152823692385</v>
       </c>
       <c r="EL11" s="16">
-        <v>224.67152823692385</v>
+        <v>228.7182652712263</v>
       </c>
       <c r="EM11" s="16">
-        <v>228.7182652712263</v>
+        <v>232.76500230552875</v>
       </c>
       <c r="EN11" s="16">
-        <v>232.76500230552875</v>
+        <v>236.81173933983123</v>
       </c>
       <c r="EO11" s="16">
-        <v>236.81173933983123</v>
+        <v>240.85847637413369</v>
       </c>
       <c r="EP11" s="16">
-        <v>240.85847637413369</v>
+        <v>244.90521340843614</v>
       </c>
       <c r="EQ11" s="16">
-        <v>244.90521340843614</v>
+        <v>248.95195044273859</v>
       </c>
       <c r="ER11" s="16">
-        <v>248.95195044273859</v>
+        <v>252.99868747704105</v>
       </c>
       <c r="ES11" s="16">
-        <v>252.99868747704105</v>
+        <v>257.04542451134353</v>
       </c>
       <c r="ET11" s="16">
-        <v>257.04542451134353</v>
+        <v>261.09216154564598</v>
       </c>
       <c r="EU11" s="16">
-        <v>261.09216154564598</v>
+        <v>265.13889857994843</v>
       </c>
       <c r="EV11" s="16">
-        <v>265.13889857994843</v>
+        <v>269.18563561425088</v>
       </c>
       <c r="EW11" s="16">
-        <v>269.18563561425088</v>
-      </c>
-      <c r="EX11" s="16">
         <v>273.23237264855334</v>
       </c>
     </row>
-    <row r="12" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>26.492698560150679</v>
       </c>
       <c r="D12" s="14">
         <v>26.492698560150679</v>
@@ -10842,322 +10799,319 @@
       <c r="AZ12" s="14">
         <v>26.492698560150679</v>
       </c>
-      <c r="BA12" s="14">
+      <c r="BA12" s="15">
         <v>26.492698560150679</v>
       </c>
       <c r="BB12" s="15">
-        <v>26.492698560150679</v>
+        <v>26.775287344792332</v>
       </c>
       <c r="BC12" s="15">
-        <v>26.775287344792332</v>
+        <v>27.057876129433883</v>
       </c>
       <c r="BD12" s="15">
-        <v>27.057876129433883</v>
+        <v>27.340464914075532</v>
       </c>
       <c r="BE12" s="15">
-        <v>27.340464914075532</v>
+        <v>27.623053698717083</v>
       </c>
       <c r="BF12" s="15">
-        <v>27.623053698717083</v>
+        <v>27.905642483358736</v>
       </c>
       <c r="BG12" s="15">
-        <v>27.905642483358736</v>
+        <v>28.188231268000326</v>
       </c>
       <c r="BH12" s="15">
-        <v>28.188231268000326</v>
+        <v>28.470820052641937</v>
       </c>
       <c r="BI12" s="15">
-        <v>28.470820052641937</v>
+        <v>28.75340883728359</v>
       </c>
       <c r="BJ12" s="15">
-        <v>28.75340883728359</v>
+        <v>29.035997621925141</v>
       </c>
       <c r="BK12" s="15">
-        <v>29.035997621925141</v>
+        <v>29.318586406566791</v>
       </c>
       <c r="BL12" s="15">
-        <v>29.318586406566791</v>
+        <v>29.601175191208345</v>
       </c>
       <c r="BM12" s="15">
-        <v>29.601175191208345</v>
+        <v>29.883763975849995</v>
       </c>
       <c r="BN12" s="15">
-        <v>29.883763975849995</v>
+        <v>30.166352760491545</v>
       </c>
       <c r="BO12" s="15">
-        <v>30.166352760491545</v>
+        <v>30.448941545133199</v>
       </c>
       <c r="BP12" s="15">
-        <v>30.448941545133199</v>
+        <v>30.731530329774849</v>
       </c>
       <c r="BQ12" s="15">
-        <v>30.731530329774849</v>
+        <v>31.014119114416399</v>
       </c>
       <c r="BR12" s="15">
-        <v>31.014119114416399</v>
+        <v>31.296707899058053</v>
       </c>
       <c r="BS12" s="15">
-        <v>31.296707899058053</v>
+        <v>31.579296683699603</v>
       </c>
       <c r="BT12" s="15">
-        <v>31.579296683699603</v>
+        <v>31.861885468341253</v>
       </c>
       <c r="BU12" s="15">
-        <v>31.861885468341253</v>
+        <v>32.144474252982803</v>
       </c>
       <c r="BV12" s="15">
-        <v>32.144474252982803</v>
+        <v>32.427063037624457</v>
       </c>
       <c r="BW12" s="15">
-        <v>32.427063037624457</v>
+        <v>32.709651822266004</v>
       </c>
       <c r="BX12" s="15">
-        <v>32.709651822266004</v>
+        <v>32.992240606907657</v>
       </c>
       <c r="BY12" s="15">
-        <v>32.992240606907657</v>
+        <v>33.274829391549311</v>
       </c>
       <c r="BZ12" s="15">
-        <v>33.274829391549311</v>
+        <v>33.380800185789859</v>
       </c>
       <c r="CA12" s="15">
-        <v>33.380800185789859</v>
+        <v>36.24201163028642</v>
       </c>
       <c r="CB12" s="15">
-        <v>36.24201163028642</v>
+        <v>39.103223074782257</v>
       </c>
       <c r="CC12" s="15">
-        <v>39.103223074782257</v>
+        <v>41.964434519278825</v>
       </c>
       <c r="CD12" s="15">
-        <v>41.964434519278825</v>
+        <v>44.825645963775386</v>
       </c>
       <c r="CE12" s="15">
-        <v>44.825645963775386</v>
+        <v>47.686857408271223</v>
       </c>
       <c r="CF12" s="15">
-        <v>47.686857408271223</v>
+        <v>49.196941226199527</v>
       </c>
       <c r="CG12" s="15">
-        <v>49.196941226199527</v>
+        <v>50.70702504412818</v>
       </c>
       <c r="CH12" s="15">
-        <v>50.70702504412818</v>
+        <v>52.217108862056847</v>
       </c>
       <c r="CI12" s="15">
-        <v>52.217108862056847</v>
+        <v>53.727192679985507</v>
       </c>
       <c r="CJ12" s="15">
-        <v>53.727192679985507</v>
+        <v>55.237276497914173</v>
       </c>
       <c r="CK12" s="15">
-        <v>55.237276497914173</v>
+        <v>57.303706985606212</v>
       </c>
       <c r="CL12" s="15">
-        <v>57.303706985606212</v>
+        <v>59.370137473297525</v>
       </c>
       <c r="CM12" s="15">
-        <v>59.370137473297525</v>
+        <v>61.436567960989571</v>
       </c>
       <c r="CN12" s="15">
-        <v>61.436567960989571</v>
+        <v>63.502998448681616</v>
       </c>
       <c r="CO12" s="15">
-        <v>63.502998448681616</v>
+        <v>65.56942893637293</v>
       </c>
       <c r="CP12" s="15">
-        <v>65.56942893637293</v>
+        <v>69.304899433354763</v>
       </c>
       <c r="CQ12" s="15">
-        <v>69.304899433354763</v>
+        <v>73.040369930335146</v>
       </c>
       <c r="CR12" s="15">
-        <v>73.040369930335146</v>
+        <v>76.77584042731695</v>
       </c>
       <c r="CS12" s="15">
-        <v>76.77584042731695</v>
+        <v>80.511310924298783</v>
       </c>
       <c r="CT12" s="15">
-        <v>80.511310924298783</v>
+        <v>84.246781421279167</v>
       </c>
       <c r="CU12" s="15">
-        <v>84.246781421279167</v>
+        <v>87.902773822578808</v>
       </c>
       <c r="CV12" s="15">
-        <v>87.902773822578808</v>
+        <v>91.558766223879886</v>
       </c>
       <c r="CW12" s="15">
-        <v>91.558766223879886</v>
+        <v>95.214758625180977</v>
       </c>
       <c r="CX12" s="15">
-        <v>95.214758625180977</v>
+        <v>98.870751026482054</v>
       </c>
       <c r="CY12" s="15">
-        <v>98.870751026482054</v>
+        <v>102.52674342778313</v>
       </c>
       <c r="CZ12" s="15">
-        <v>102.52674342778313</v>
+        <v>106.34169202044426</v>
       </c>
       <c r="DA12" s="15">
-        <v>106.34169202044426</v>
+        <v>110.15664061310682</v>
       </c>
       <c r="DB12" s="15">
-        <v>110.15664061310682</v>
+        <v>113.97158920576796</v>
       </c>
       <c r="DC12" s="15">
-        <v>113.97158920576796</v>
+        <v>117.78653779842907</v>
       </c>
       <c r="DD12" s="15">
-        <v>117.78653779842907</v>
+        <v>121.60148639109164</v>
       </c>
       <c r="DE12" s="15">
-        <v>121.60148639109164</v>
+        <v>124.3037416442267</v>
       </c>
       <c r="DF12" s="15">
-        <v>124.3037416442267</v>
+        <v>127.00599689736251</v>
       </c>
       <c r="DG12" s="15">
-        <v>127.00599689736251</v>
+        <v>129.7082521504976</v>
       </c>
       <c r="DH12" s="15">
-        <v>129.7082521504976</v>
+        <v>132.41050740363266</v>
       </c>
       <c r="DI12" s="15">
-        <v>132.41050740363266</v>
+        <v>135.11276265676847</v>
       </c>
       <c r="DJ12" s="15">
-        <v>135.11276265676847</v>
+        <v>139.64301411055482</v>
       </c>
       <c r="DK12" s="15">
-        <v>139.64301411055482</v>
+        <v>144.17326556433972</v>
       </c>
       <c r="DL12" s="15">
-        <v>144.17326556433972</v>
+        <v>148.70351701812606</v>
       </c>
       <c r="DM12" s="15">
-        <v>148.70351701812606</v>
+        <v>153.23376847191238</v>
       </c>
       <c r="DN12" s="15">
-        <v>153.23376847191238</v>
+        <v>157.76401992569731</v>
       </c>
       <c r="DO12" s="15">
-        <v>157.76401992569731</v>
+        <v>162.29427137948363</v>
       </c>
       <c r="DP12" s="15">
-        <v>162.29427137948363</v>
+        <v>166.82452283326856</v>
       </c>
       <c r="DQ12" s="15">
-        <v>166.82452283326856</v>
-      </c>
-      <c r="DR12" s="15">
         <v>171.35477428705488</v>
       </c>
+      <c r="DR12" s="16">
+        <v>177.03856199064722</v>
+      </c>
       <c r="DS12" s="16">
-        <v>177.03856199064722</v>
+        <v>182.72234969423954</v>
       </c>
       <c r="DT12" s="16">
-        <v>182.72234969423954</v>
+        <v>188.40613739783188</v>
       </c>
       <c r="DU12" s="16">
-        <v>188.40613739783188</v>
+        <v>194.0899251014242</v>
       </c>
       <c r="DV12" s="16">
-        <v>194.0899251014242</v>
+        <v>199.77371280501654</v>
       </c>
       <c r="DW12" s="16">
-        <v>199.77371280501654</v>
+        <v>205.45750050860886</v>
       </c>
       <c r="DX12" s="16">
-        <v>205.45750050860886</v>
+        <v>211.14128821220118</v>
       </c>
       <c r="DY12" s="16">
-        <v>211.14128821220118</v>
+        <v>216.82507591579352</v>
       </c>
       <c r="DZ12" s="16">
-        <v>216.82507591579352</v>
+        <v>222.50886361938583</v>
       </c>
       <c r="EA12" s="16">
-        <v>222.50886361938583</v>
+        <v>228.19265132297815</v>
       </c>
       <c r="EB12" s="16">
-        <v>228.19265132297815</v>
+        <v>233.87643902657044</v>
       </c>
       <c r="EC12" s="16">
-        <v>233.87643902657044</v>
+        <v>239.56022673016275</v>
       </c>
       <c r="ED12" s="16">
-        <v>239.56022673016275</v>
+        <v>245.24401443375504</v>
       </c>
       <c r="EE12" s="16">
-        <v>245.24401443375504</v>
+        <v>250.92780213734736</v>
       </c>
       <c r="EF12" s="16">
-        <v>250.92780213734736</v>
+        <v>256.61158984093964</v>
       </c>
       <c r="EG12" s="16">
-        <v>256.61158984093964</v>
+        <v>262.29537754453196</v>
       </c>
       <c r="EH12" s="16">
-        <v>262.29537754453196</v>
+        <v>267.97916524812427</v>
       </c>
       <c r="EI12" s="16">
-        <v>267.97916524812427</v>
+        <v>273.66295295171659</v>
       </c>
       <c r="EJ12" s="16">
-        <v>273.66295295171659</v>
+        <v>279.34674065530885</v>
       </c>
       <c r="EK12" s="16">
-        <v>279.34674065530885</v>
+        <v>285.03052835890117</v>
       </c>
       <c r="EL12" s="16">
-        <v>285.03052835890117</v>
+        <v>290.71431606249348</v>
       </c>
       <c r="EM12" s="16">
-        <v>290.71431606249348</v>
+        <v>296.3981037660858</v>
       </c>
       <c r="EN12" s="16">
-        <v>296.3981037660858</v>
+        <v>302.08189146967811</v>
       </c>
       <c r="EO12" s="16">
-        <v>302.08189146967811</v>
+        <v>307.76567917327037</v>
       </c>
       <c r="EP12" s="16">
-        <v>307.76567917327037</v>
+        <v>313.44946687686269</v>
       </c>
       <c r="EQ12" s="16">
-        <v>313.44946687686269</v>
+        <v>319.133254580455</v>
       </c>
       <c r="ER12" s="16">
-        <v>319.133254580455</v>
+        <v>324.81704228404732</v>
       </c>
       <c r="ES12" s="16">
-        <v>324.81704228404732</v>
+        <v>330.50082998763958</v>
       </c>
       <c r="ET12" s="16">
-        <v>330.50082998763958</v>
+        <v>336.18461769123189</v>
       </c>
       <c r="EU12" s="16">
-        <v>336.18461769123189</v>
+        <v>341.86840539482421</v>
       </c>
       <c r="EV12" s="16">
-        <v>341.86840539482421</v>
+        <v>347.55219309841652</v>
       </c>
       <c r="EW12" s="16">
-        <v>347.55219309841652</v>
-      </c>
-      <c r="EX12" s="16">
         <v>353.23598080200907</v>
       </c>
     </row>
-    <row r="13" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>31.320533580255574</v>
       </c>
       <c r="D13" s="14">
         <v>31.320533580255574</v>
@@ -11306,322 +11260,319 @@
       <c r="AZ13" s="14">
         <v>31.320533580255574</v>
       </c>
-      <c r="BA13" s="14">
+      <c r="BA13" s="15">
         <v>31.320533580255574</v>
       </c>
       <c r="BB13" s="15">
-        <v>31.320533580255574</v>
+        <v>31.654619271778355</v>
       </c>
       <c r="BC13" s="15">
-        <v>31.654619271778355</v>
+        <v>31.988704963301014</v>
       </c>
       <c r="BD13" s="15">
-        <v>31.988704963301014</v>
+        <v>32.322790654823791</v>
       </c>
       <c r="BE13" s="15">
-        <v>32.322790654823791</v>
+        <v>32.656876346346451</v>
       </c>
       <c r="BF13" s="15">
-        <v>32.656876346346451</v>
+        <v>32.990962037869231</v>
       </c>
       <c r="BG13" s="15">
-        <v>32.990962037869231</v>
+        <v>33.325047729391933</v>
       </c>
       <c r="BH13" s="15">
-        <v>33.325047729391933</v>
+        <v>33.659133420914671</v>
       </c>
       <c r="BI13" s="15">
-        <v>33.659133420914671</v>
+        <v>33.993219112437444</v>
       </c>
       <c r="BJ13" s="15">
-        <v>33.993219112437444</v>
+        <v>34.327304803960104</v>
       </c>
       <c r="BK13" s="15">
-        <v>34.327304803960104</v>
+        <v>34.661390495482884</v>
       </c>
       <c r="BL13" s="15">
-        <v>34.661390495482884</v>
+        <v>34.995476187005544</v>
       </c>
       <c r="BM13" s="15">
-        <v>34.995476187005544</v>
+        <v>35.329561878528324</v>
       </c>
       <c r="BN13" s="15">
-        <v>35.329561878528324</v>
+        <v>35.663647570050983</v>
       </c>
       <c r="BO13" s="15">
-        <v>35.663647570050983</v>
+        <v>35.997733261573764</v>
       </c>
       <c r="BP13" s="15">
-        <v>35.997733261573764</v>
+        <v>36.331818953096537</v>
       </c>
       <c r="BQ13" s="15">
-        <v>36.331818953096537</v>
+        <v>36.665904644619197</v>
       </c>
       <c r="BR13" s="15">
-        <v>36.665904644619197</v>
+        <v>36.999990336141977</v>
       </c>
       <c r="BS13" s="15">
-        <v>36.999990336141977</v>
+        <v>37.334076027664636</v>
       </c>
       <c r="BT13" s="15">
-        <v>37.334076027664636</v>
+        <v>37.668161719187417</v>
       </c>
       <c r="BU13" s="15">
-        <v>37.668161719187417</v>
+        <v>38.002247410710076</v>
       </c>
       <c r="BV13" s="15">
-        <v>38.002247410710076</v>
+        <v>38.33633310223285</v>
       </c>
       <c r="BW13" s="15">
-        <v>38.33633310223285</v>
+        <v>38.670418793755509</v>
       </c>
       <c r="BX13" s="15">
-        <v>38.670418793755509</v>
+        <v>39.004504485278289</v>
       </c>
       <c r="BY13" s="15">
-        <v>39.004504485278289</v>
+        <v>39.33859017680107</v>
       </c>
       <c r="BZ13" s="15">
-        <v>39.33859017680107</v>
+        <v>39.463872311122032</v>
       </c>
       <c r="CA13" s="15">
-        <v>39.463872311122032</v>
+        <v>40.716693654332246</v>
       </c>
       <c r="CB13" s="15">
-        <v>40.716693654332246</v>
+        <v>41.760711440340771</v>
       </c>
       <c r="CC13" s="15">
-        <v>41.760711440340771</v>
+        <v>42.804729226349288</v>
       </c>
       <c r="CD13" s="15">
-        <v>42.804729226349288</v>
+        <v>43.848747012357805</v>
       </c>
       <c r="CE13" s="15">
-        <v>43.848747012357805</v>
+        <v>44.892764798366322</v>
       </c>
       <c r="CF13" s="15">
-        <v>44.892764798366322</v>
+        <v>45.936782584374846</v>
       </c>
       <c r="CG13" s="15">
-        <v>45.936782584374846</v>
+        <v>46.980800370383363</v>
       </c>
       <c r="CH13" s="15">
-        <v>46.980800370383363</v>
+        <v>48.024818156391881</v>
       </c>
       <c r="CI13" s="15">
-        <v>48.024818156391881</v>
+        <v>49.068835942400405</v>
       </c>
       <c r="CJ13" s="15">
-        <v>49.068835942400405</v>
+        <v>50.112853728408922</v>
       </c>
       <c r="CK13" s="15">
-        <v>50.112853728408922</v>
+        <v>53.24490708643448</v>
       </c>
       <c r="CL13" s="15">
-        <v>53.24490708643448</v>
+        <v>56.376960444460039</v>
       </c>
       <c r="CM13" s="15">
-        <v>56.376960444460039</v>
+        <v>59.50901380248559</v>
       </c>
       <c r="CN13" s="15">
-        <v>59.50901380248559</v>
+        <v>62.641067160511149</v>
       </c>
       <c r="CO13" s="15">
-        <v>62.641067160511149</v>
+        <v>65.773120518536714</v>
       </c>
       <c r="CP13" s="15">
-        <v>65.773120518536714</v>
+        <v>68.696370319359801</v>
       </c>
       <c r="CQ13" s="15">
-        <v>68.696370319359801</v>
+        <v>71.619620120183839</v>
       </c>
       <c r="CR13" s="15">
-        <v>71.619620120183839</v>
+        <v>74.542869921007892</v>
       </c>
       <c r="CS13" s="15">
-        <v>74.542869921007892</v>
+        <v>77.46611972183193</v>
       </c>
       <c r="CT13" s="15">
-        <v>77.46611972183193</v>
+        <v>80.389369522655983</v>
       </c>
       <c r="CU13" s="15">
-        <v>80.389369522655983</v>
+        <v>84.416295268689112</v>
       </c>
       <c r="CV13" s="15">
-        <v>84.416295268689112</v>
+        <v>88.443221014722241</v>
       </c>
       <c r="CW13" s="15">
-        <v>88.443221014722241</v>
+        <v>92.470146760754417</v>
       </c>
       <c r="CX13" s="15">
-        <v>92.470146760754417</v>
+        <v>96.497072506787546</v>
       </c>
       <c r="CY13" s="15">
-        <v>96.497072506787546</v>
+        <v>100.52399825282068</v>
       </c>
       <c r="CZ13" s="15">
-        <v>100.52399825282068</v>
+        <v>104.55092399885287</v>
       </c>
       <c r="DA13" s="15">
-        <v>104.55092399885287</v>
+        <v>108.577849744886</v>
       </c>
       <c r="DB13" s="15">
-        <v>108.577849744886</v>
+        <v>115.88597424694562</v>
       </c>
       <c r="DC13" s="15">
-        <v>115.88597424694562</v>
+        <v>123.19409874900526</v>
       </c>
       <c r="DD13" s="15">
-        <v>123.19409874900526</v>
+        <v>130.50222325106489</v>
       </c>
       <c r="DE13" s="15">
-        <v>130.50222325106489</v>
+        <v>132.73940422108288</v>
       </c>
       <c r="DF13" s="15">
-        <v>132.73940422108288</v>
+        <v>134.97658519110087</v>
       </c>
       <c r="DG13" s="15">
-        <v>134.97658519110087</v>
+        <v>137.21376616111979</v>
       </c>
       <c r="DH13" s="15">
-        <v>137.21376616111979</v>
+        <v>139.45094713113778</v>
       </c>
       <c r="DI13" s="15">
-        <v>139.45094713113778</v>
+        <v>141.68812810115577</v>
       </c>
       <c r="DJ13" s="15">
-        <v>141.68812810115577</v>
+        <v>143.92530907117376</v>
       </c>
       <c r="DK13" s="15">
-        <v>143.92530907117376</v>
+        <v>146.16249004119268</v>
       </c>
       <c r="DL13" s="15">
-        <v>146.16249004119268</v>
+        <v>148.77253450621399</v>
       </c>
       <c r="DM13" s="15">
-        <v>148.77253450621399</v>
+        <v>151.38257897123529</v>
       </c>
       <c r="DN13" s="15">
-        <v>151.38257897123529</v>
+        <v>153.99262343625657</v>
       </c>
       <c r="DO13" s="15">
-        <v>153.99262343625657</v>
+        <v>156.60266790127787</v>
       </c>
       <c r="DP13" s="15">
-        <v>156.60266790127787</v>
+        <v>166.69483983269103</v>
       </c>
       <c r="DQ13" s="15">
-        <v>166.69483983269103</v>
-      </c>
-      <c r="DR13" s="15">
         <v>176.78701176410797</v>
       </c>
+      <c r="DR13" s="16">
+        <v>184.31263997158609</v>
+      </c>
       <c r="DS13" s="16">
-        <v>184.31263997158609</v>
+        <v>191.83826817906422</v>
       </c>
       <c r="DT13" s="16">
-        <v>191.83826817906422</v>
+        <v>199.36389638654234</v>
       </c>
       <c r="DU13" s="16">
-        <v>199.36389638654234</v>
+        <v>206.88952459402043</v>
       </c>
       <c r="DV13" s="16">
-        <v>206.88952459402043</v>
+        <v>214.41515280149855</v>
       </c>
       <c r="DW13" s="16">
-        <v>214.41515280149855</v>
+        <v>221.94078100897667</v>
       </c>
       <c r="DX13" s="16">
-        <v>221.94078100897667</v>
+        <v>229.46640921645479</v>
       </c>
       <c r="DY13" s="16">
-        <v>229.46640921645479</v>
+        <v>236.99203742393291</v>
       </c>
       <c r="DZ13" s="16">
-        <v>236.99203742393291</v>
+        <v>244.51766563141101</v>
       </c>
       <c r="EA13" s="16">
-        <v>244.51766563141101</v>
+        <v>252.04329383888913</v>
       </c>
       <c r="EB13" s="16">
-        <v>252.04329383888913</v>
+        <v>259.56892204636728</v>
       </c>
       <c r="EC13" s="16">
-        <v>259.56892204636728</v>
+        <v>267.09455025384534</v>
       </c>
       <c r="ED13" s="16">
-        <v>267.09455025384534</v>
+        <v>274.62017846132346</v>
       </c>
       <c r="EE13" s="16">
-        <v>274.62017846132346</v>
+        <v>282.14580666880158</v>
       </c>
       <c r="EF13" s="16">
-        <v>282.14580666880158</v>
+        <v>289.6714348762797</v>
       </c>
       <c r="EG13" s="16">
-        <v>289.6714348762797</v>
+        <v>297.19706308375783</v>
       </c>
       <c r="EH13" s="16">
-        <v>297.19706308375783</v>
+        <v>304.72269129123595</v>
       </c>
       <c r="EI13" s="16">
-        <v>304.72269129123595</v>
+        <v>312.24831949871407</v>
       </c>
       <c r="EJ13" s="16">
-        <v>312.24831949871407</v>
+        <v>319.77394770619219</v>
       </c>
       <c r="EK13" s="16">
-        <v>319.77394770619219</v>
+        <v>327.29957591367031</v>
       </c>
       <c r="EL13" s="16">
-        <v>327.29957591367031</v>
+        <v>334.82520412114843</v>
       </c>
       <c r="EM13" s="16">
-        <v>334.82520412114843</v>
+        <v>342.3508323286265</v>
       </c>
       <c r="EN13" s="16">
-        <v>342.3508323286265</v>
+        <v>349.87646053610462</v>
       </c>
       <c r="EO13" s="16">
-        <v>349.87646053610462</v>
+        <v>357.40208874358274</v>
       </c>
       <c r="EP13" s="16">
-        <v>357.40208874358274</v>
+        <v>364.92771695106086</v>
       </c>
       <c r="EQ13" s="16">
-        <v>364.92771695106086</v>
+        <v>372.45334515853898</v>
       </c>
       <c r="ER13" s="16">
-        <v>372.45334515853898</v>
+        <v>379.9789733660171</v>
       </c>
       <c r="ES13" s="16">
-        <v>379.9789733660171</v>
+        <v>387.50460157349522</v>
       </c>
       <c r="ET13" s="16">
-        <v>387.50460157349522</v>
+        <v>395.03022978097334</v>
       </c>
       <c r="EU13" s="16">
-        <v>395.03022978097334</v>
+        <v>402.55585798845146</v>
       </c>
       <c r="EV13" s="16">
-        <v>402.55585798845146</v>
+        <v>410.08148619592953</v>
       </c>
       <c r="EW13" s="16">
-        <v>410.08148619592953</v>
-      </c>
-      <c r="EX13" s="16">
         <v>417.60711440340765</v>
       </c>
     </row>
-    <row r="14" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>28.719798968999999</v>
       </c>
       <c r="D14" s="14">
         <v>28.719798968999999</v>
@@ -11770,322 +11721,319 @@
       <c r="AZ14" s="14">
         <v>28.719798968999999</v>
       </c>
-      <c r="BA14" s="14">
+      <c r="BA14" s="15">
         <v>28.719798968999999</v>
       </c>
       <c r="BB14" s="15">
-        <v>28.719798968999999</v>
+        <v>29.102729621920087</v>
       </c>
       <c r="BC14" s="15">
-        <v>29.102729621920087</v>
+        <v>29.485660274840065</v>
       </c>
       <c r="BD14" s="15">
-        <v>29.485660274840065</v>
+        <v>29.868590927760042</v>
       </c>
       <c r="BE14" s="15">
-        <v>29.868590927760042</v>
+        <v>30.251521580680024</v>
       </c>
       <c r="BF14" s="15">
-        <v>30.251521580680024</v>
+        <v>30.634452233600001</v>
       </c>
       <c r="BG14" s="15">
-        <v>30.634452233600001</v>
+        <v>31.017382886520089</v>
       </c>
       <c r="BH14" s="15">
-        <v>31.017382886520089</v>
+        <v>31.400313539440067</v>
       </c>
       <c r="BI14" s="15">
-        <v>31.400313539440067</v>
+        <v>31.783244192360044</v>
       </c>
       <c r="BJ14" s="15">
-        <v>31.783244192360044</v>
+        <v>32.166174845280025</v>
       </c>
       <c r="BK14" s="15">
-        <v>32.166174845280025</v>
+        <v>32.549105498199999</v>
       </c>
       <c r="BL14" s="15">
-        <v>32.549105498199999</v>
+        <v>32.932036151120087</v>
       </c>
       <c r="BM14" s="15">
-        <v>32.932036151120087</v>
+        <v>33.314966804040068</v>
       </c>
       <c r="BN14" s="15">
-        <v>33.314966804040068</v>
+        <v>33.697897456960042</v>
       </c>
       <c r="BO14" s="15">
-        <v>33.697897456960042</v>
+        <v>34.080828109880024</v>
       </c>
       <c r="BP14" s="15">
-        <v>34.080828109880024</v>
+        <v>34.463758762799998</v>
       </c>
       <c r="BQ14" s="15">
-        <v>34.463758762799998</v>
+        <v>34.846689415720085</v>
       </c>
       <c r="BR14" s="15">
-        <v>34.846689415720085</v>
+        <v>35.229620068640067</v>
       </c>
       <c r="BS14" s="15">
-        <v>35.229620068640067</v>
+        <v>35.612550721560041</v>
       </c>
       <c r="BT14" s="15">
-        <v>35.612550721560041</v>
+        <v>35.995481374480022</v>
       </c>
       <c r="BU14" s="15">
-        <v>35.995481374480022</v>
+        <v>36.378412027400003</v>
       </c>
       <c r="BV14" s="15">
-        <v>36.378412027400003</v>
+        <v>36.761342680320084</v>
       </c>
       <c r="BW14" s="15">
-        <v>36.761342680320084</v>
+        <v>37.144273333240065</v>
       </c>
       <c r="BX14" s="15">
-        <v>37.144273333240065</v>
+        <v>37.527203986160046</v>
       </c>
       <c r="BY14" s="15">
-        <v>37.527203986160046</v>
+        <v>37.91013463908002</v>
       </c>
       <c r="BZ14" s="15">
-        <v>37.91013463908002</v>
+        <v>38.293065292000001</v>
       </c>
       <c r="CA14" s="15">
-        <v>38.293065292000001</v>
+        <v>38.675995944920089</v>
       </c>
       <c r="CB14" s="15">
-        <v>38.675995944920089</v>
+        <v>39.058926597840063</v>
       </c>
       <c r="CC14" s="15">
-        <v>39.058926597840063</v>
+        <v>39.441857250760044</v>
       </c>
       <c r="CD14" s="15">
-        <v>39.441857250760044</v>
+        <v>39.824787903680019</v>
       </c>
       <c r="CE14" s="15">
-        <v>39.824787903680019</v>
+        <v>40.2077185566</v>
       </c>
       <c r="CF14" s="15">
-        <v>40.2077185566</v>
+        <v>40.590649209520087</v>
       </c>
       <c r="CG14" s="15">
-        <v>40.590649209520087</v>
+        <v>40.973579862440069</v>
       </c>
       <c r="CH14" s="15">
-        <v>40.973579862440069</v>
+        <v>41.356510515360043</v>
       </c>
       <c r="CI14" s="15">
-        <v>41.356510515360043</v>
+        <v>41.739441168280024</v>
       </c>
       <c r="CJ14" s="15">
-        <v>41.739441168280024</v>
+        <v>42.122371821199998</v>
       </c>
       <c r="CK14" s="15">
-        <v>42.122371821199998</v>
+        <v>42.505302474120086</v>
       </c>
       <c r="CL14" s="15">
-        <v>42.505302474120086</v>
+        <v>42.888233127040067</v>
       </c>
       <c r="CM14" s="15">
-        <v>42.888233127040067</v>
+        <v>43.271163779960041</v>
       </c>
       <c r="CN14" s="15">
-        <v>43.271163779960041</v>
+        <v>43.654094432880022</v>
       </c>
       <c r="CO14" s="15">
-        <v>43.654094432880022</v>
+        <v>44.228490412260008</v>
       </c>
       <c r="CP14" s="15">
-        <v>44.228490412260008</v>
+        <v>46.194201097248829</v>
       </c>
       <c r="CQ14" s="15">
-        <v>46.194201097248829</v>
+        <v>48.159911782238282</v>
       </c>
       <c r="CR14" s="15">
-        <v>48.159911782238282</v>
+        <v>50.12562246722775</v>
       </c>
       <c r="CS14" s="15">
-        <v>50.12562246722775</v>
+        <v>52.09133315221721</v>
       </c>
       <c r="CT14" s="15">
-        <v>52.09133315221721</v>
+        <v>54.05704383720667</v>
       </c>
       <c r="CU14" s="15">
-        <v>54.05704383720667</v>
+        <v>56.764910597141132</v>
       </c>
       <c r="CV14" s="15">
-        <v>56.764910597141132</v>
+        <v>59.472777357075593</v>
       </c>
       <c r="CW14" s="15">
-        <v>59.472777357075593</v>
+        <v>62.180644117009429</v>
       </c>
       <c r="CX14" s="15">
-        <v>62.180644117009429</v>
+        <v>64.888510876943897</v>
       </c>
       <c r="CY14" s="15">
-        <v>64.888510876943897</v>
+        <v>67.596377636878358</v>
       </c>
       <c r="CZ14" s="15">
-        <v>67.596377636878358</v>
+        <v>70.304244396812194</v>
       </c>
       <c r="DA14" s="15">
-        <v>70.304244396812194</v>
+        <v>73.01211115674667</v>
       </c>
       <c r="DB14" s="15">
-        <v>73.01211115674667</v>
+        <v>77.926387869220008</v>
       </c>
       <c r="DC14" s="15">
-        <v>77.926387869220008</v>
+        <v>82.840664581693346</v>
       </c>
       <c r="DD14" s="15">
-        <v>82.840664581693346</v>
+        <v>87.75494129416667</v>
       </c>
       <c r="DE14" s="15">
-        <v>87.75494129416667</v>
+        <v>89.259311716352187</v>
       </c>
       <c r="DF14" s="15">
-        <v>89.259311716352187</v>
+        <v>90.763682138537732</v>
       </c>
       <c r="DG14" s="15">
-        <v>90.763682138537732</v>
+        <v>92.268052560723902</v>
       </c>
       <c r="DH14" s="15">
-        <v>92.268052560723902</v>
+        <v>93.772422982909433</v>
       </c>
       <c r="DI14" s="15">
-        <v>93.772422982909433</v>
+        <v>95.276793405094978</v>
       </c>
       <c r="DJ14" s="15">
-        <v>95.276793405094978</v>
+        <v>96.781163827280508</v>
       </c>
       <c r="DK14" s="15">
-        <v>96.781163827280508</v>
+        <v>98.285534249466679</v>
       </c>
       <c r="DL14" s="15">
-        <v>98.285534249466679</v>
+        <v>100.04063307535002</v>
       </c>
       <c r="DM14" s="15">
-        <v>100.04063307535002</v>
+        <v>101.79573190123334</v>
       </c>
       <c r="DN14" s="15">
-        <v>101.79573190123334</v>
+        <v>103.55083072711668</v>
       </c>
       <c r="DO14" s="15">
-        <v>103.55083072711668</v>
+        <v>105.305929553</v>
       </c>
       <c r="DP14" s="15">
-        <v>105.305929553</v>
+        <v>111.0498893468</v>
       </c>
       <c r="DQ14" s="15">
-        <v>111.0498893468</v>
-      </c>
-      <c r="DR14" s="15">
         <v>114.879195876</v>
       </c>
+      <c r="DR14" s="16">
+        <v>121.01206961417188</v>
+      </c>
       <c r="DS14" s="16">
-        <v>121.01206961417188</v>
+        <v>127.14494335234374</v>
       </c>
       <c r="DT14" s="16">
-        <v>127.14494335234374</v>
+        <v>133.27781709051561</v>
       </c>
       <c r="DU14" s="16">
-        <v>133.27781709051561</v>
+        <v>139.41069082868751</v>
       </c>
       <c r="DV14" s="16">
-        <v>139.41069082868751</v>
+        <v>145.54356456685937</v>
       </c>
       <c r="DW14" s="16">
-        <v>145.54356456685937</v>
+        <v>151.67643830503124</v>
       </c>
       <c r="DX14" s="16">
-        <v>151.67643830503124</v>
+        <v>157.80931204320314</v>
       </c>
       <c r="DY14" s="16">
-        <v>157.80931204320314</v>
+        <v>163.942185781375</v>
       </c>
       <c r="DZ14" s="16">
-        <v>163.942185781375</v>
+        <v>170.07505951954687</v>
       </c>
       <c r="EA14" s="16">
-        <v>170.07505951954687</v>
+        <v>176.20793325771876</v>
       </c>
       <c r="EB14" s="16">
-        <v>176.20793325771876</v>
+        <v>182.34080699589063</v>
       </c>
       <c r="EC14" s="16">
-        <v>182.34080699589063</v>
+        <v>188.4736807340625</v>
       </c>
       <c r="ED14" s="16">
-        <v>188.4736807340625</v>
+        <v>194.60655447223436</v>
       </c>
       <c r="EE14" s="16">
-        <v>194.60655447223436</v>
+        <v>200.73942821040626</v>
       </c>
       <c r="EF14" s="16">
-        <v>200.73942821040626</v>
+        <v>206.87230194857813</v>
       </c>
       <c r="EG14" s="16">
-        <v>206.87230194857813</v>
+        <v>213.00517568674999</v>
       </c>
       <c r="EH14" s="16">
-        <v>213.00517568674999</v>
+        <v>219.13804942492189</v>
       </c>
       <c r="EI14" s="16">
-        <v>219.13804942492189</v>
+        <v>225.27092316309376</v>
       </c>
       <c r="EJ14" s="16">
-        <v>225.27092316309376</v>
+        <v>231.40379690126562</v>
       </c>
       <c r="EK14" s="16">
-        <v>231.40379690126562</v>
+        <v>237.53667063943749</v>
       </c>
       <c r="EL14" s="16">
-        <v>237.53667063943749</v>
+        <v>243.66954437760938</v>
       </c>
       <c r="EM14" s="16">
-        <v>243.66954437760938</v>
+        <v>249.80241811578125</v>
       </c>
       <c r="EN14" s="16">
-        <v>249.80241811578125</v>
+        <v>255.93529185395312</v>
       </c>
       <c r="EO14" s="16">
-        <v>255.93529185395312</v>
+        <v>262.06816559212501</v>
       </c>
       <c r="EP14" s="16">
-        <v>262.06816559212501</v>
+        <v>268.20103933029685</v>
       </c>
       <c r="EQ14" s="16">
-        <v>268.20103933029685</v>
+        <v>274.33391306846875</v>
       </c>
       <c r="ER14" s="16">
-        <v>274.33391306846875</v>
+        <v>280.46678680664064</v>
       </c>
       <c r="ES14" s="16">
-        <v>280.46678680664064</v>
+        <v>286.59966054481248</v>
       </c>
       <c r="ET14" s="16">
-        <v>286.59966054481248</v>
+        <v>292.73253428298437</v>
       </c>
       <c r="EU14" s="16">
-        <v>292.73253428298437</v>
+        <v>298.86540802115627</v>
       </c>
       <c r="EV14" s="16">
-        <v>298.86540802115627</v>
+        <v>304.99828175932811</v>
       </c>
       <c r="EW14" s="16">
-        <v>304.99828175932811</v>
-      </c>
-      <c r="EX14" s="16">
         <v>311.1311554975</v>
       </c>
     </row>
-    <row r="15" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>32.935198040429469</v>
       </c>
       <c r="D15" s="14">
         <v>32.935198040429469</v>
@@ -12234,322 +12182,319 @@
       <c r="AZ15" s="14">
         <v>32.935198040429469</v>
       </c>
-      <c r="BA15" s="14">
+      <c r="BA15" s="15">
         <v>32.935198040429469</v>
       </c>
       <c r="BB15" s="15">
-        <v>32.935198040429469</v>
+        <v>33.286506819527439</v>
       </c>
       <c r="BC15" s="15">
-        <v>33.286506819527439</v>
+        <v>33.637815598625281</v>
       </c>
       <c r="BD15" s="15">
-        <v>33.637815598625281</v>
+        <v>33.98912437772325</v>
       </c>
       <c r="BE15" s="15">
-        <v>33.98912437772325</v>
+        <v>34.340433156821092</v>
       </c>
       <c r="BF15" s="15">
-        <v>34.340433156821092</v>
+        <v>34.691741935919062</v>
       </c>
       <c r="BG15" s="15">
-        <v>34.691741935919062</v>
+        <v>35.043050715016953</v>
       </c>
       <c r="BH15" s="15">
-        <v>35.043050715016953</v>
+        <v>35.394359494114873</v>
       </c>
       <c r="BI15" s="15">
-        <v>35.394359494114873</v>
+        <v>35.745668273212843</v>
       </c>
       <c r="BJ15" s="15">
-        <v>35.745668273212843</v>
+        <v>36.096977052310692</v>
       </c>
       <c r="BK15" s="15">
-        <v>36.096977052310692</v>
+        <v>36.448285831408661</v>
       </c>
       <c r="BL15" s="15">
-        <v>36.448285831408661</v>
+        <v>36.799594610506503</v>
       </c>
       <c r="BM15" s="15">
-        <v>36.799594610506503</v>
+        <v>37.150903389604473</v>
       </c>
       <c r="BN15" s="15">
-        <v>37.150903389604473</v>
+        <v>37.502212168702314</v>
       </c>
       <c r="BO15" s="15">
-        <v>37.502212168702314</v>
+        <v>37.853520947800284</v>
       </c>
       <c r="BP15" s="15">
-        <v>37.853520947800284</v>
+        <v>38.204829726898254</v>
       </c>
       <c r="BQ15" s="15">
-        <v>38.204829726898254</v>
+        <v>38.556138505996103</v>
       </c>
       <c r="BR15" s="15">
-        <v>38.556138505996103</v>
+        <v>38.907447285094072</v>
       </c>
       <c r="BS15" s="15">
-        <v>38.907447285094072</v>
+        <v>39.258756064191914</v>
       </c>
       <c r="BT15" s="15">
-        <v>39.258756064191914</v>
+        <v>39.610064843289884</v>
       </c>
       <c r="BU15" s="15">
-        <v>39.610064843289884</v>
+        <v>39.961373622387725</v>
       </c>
       <c r="BV15" s="15">
-        <v>39.961373622387725</v>
+        <v>40.312682401485695</v>
       </c>
       <c r="BW15" s="15">
-        <v>40.312682401485695</v>
+        <v>40.663991180583544</v>
       </c>
       <c r="BX15" s="15">
-        <v>40.663991180583544</v>
+        <v>41.015299959681514</v>
       </c>
       <c r="BY15" s="15">
-        <v>41.015299959681514</v>
+        <v>41.366608738779483</v>
       </c>
       <c r="BZ15" s="15">
-        <v>41.366608738779483</v>
+        <v>41.498349530941134</v>
       </c>
       <c r="CA15" s="15">
-        <v>41.498349530941134</v>
+        <v>44.133165374176286</v>
       </c>
       <c r="CB15" s="15">
-        <v>44.133165374176286</v>
+        <v>46.548413230474246</v>
       </c>
       <c r="CC15" s="15">
-        <v>46.548413230474246</v>
+        <v>48.963661086772206</v>
       </c>
       <c r="CD15" s="15">
-        <v>48.963661086772206</v>
+        <v>51.378908943070165</v>
       </c>
       <c r="CE15" s="15">
-        <v>51.378908943070165</v>
+        <v>53.794156799368132</v>
       </c>
       <c r="CF15" s="15">
-        <v>53.794156799368132</v>
+        <v>56.209404655667086</v>
       </c>
       <c r="CG15" s="15">
-        <v>56.209404655667086</v>
+        <v>58.624652511965053</v>
       </c>
       <c r="CH15" s="15">
-        <v>58.624652511965053</v>
+        <v>61.039900368263012</v>
       </c>
       <c r="CI15" s="15">
-        <v>61.039900368263012</v>
+        <v>63.455148224560972</v>
       </c>
       <c r="CJ15" s="15">
-        <v>63.455148224560972</v>
+        <v>65.870396080858939</v>
       </c>
       <c r="CK15" s="15">
-        <v>65.870396080858939</v>
+        <v>70.261755819582859</v>
       </c>
       <c r="CL15" s="15">
-        <v>70.261755819582859</v>
+        <v>74.653115558306794</v>
       </c>
       <c r="CM15" s="15">
-        <v>74.653115558306794</v>
+        <v>79.044475297030715</v>
       </c>
       <c r="CN15" s="15">
-        <v>79.044475297030715</v>
+        <v>83.43583503575465</v>
       </c>
       <c r="CO15" s="15">
-        <v>83.43583503575465</v>
+        <v>87.827194774478571</v>
       </c>
       <c r="CP15" s="15">
-        <v>87.827194774478571</v>
+        <v>91.120714578521529</v>
       </c>
       <c r="CQ15" s="15">
-        <v>91.120714578521529</v>
+        <v>94.414234382564473</v>
       </c>
       <c r="CR15" s="15">
-        <v>94.414234382564473</v>
+        <v>97.707754186607417</v>
       </c>
       <c r="CS15" s="15">
-        <v>97.707754186607417</v>
+        <v>101.00127399065036</v>
       </c>
       <c r="CT15" s="15">
-        <v>101.00127399065036</v>
+        <v>104.29479379469331</v>
       </c>
       <c r="CU15" s="15">
-        <v>104.29479379469331</v>
+        <v>105.70630228214071</v>
       </c>
       <c r="CV15" s="15">
-        <v>105.70630228214071</v>
+        <v>107.11781076958762</v>
       </c>
       <c r="CW15" s="15">
-        <v>107.11781076958762</v>
+        <v>108.52931925703453</v>
       </c>
       <c r="CX15" s="15">
-        <v>108.52931925703453</v>
+        <v>109.94082774448144</v>
       </c>
       <c r="CY15" s="15">
-        <v>109.94082774448144</v>
+        <v>111.35233623192833</v>
       </c>
       <c r="CZ15" s="15">
-        <v>111.35233623192833</v>
+        <v>112.76384471937524</v>
       </c>
       <c r="DA15" s="15">
-        <v>112.76384471937524</v>
+        <v>114.17535320682215</v>
       </c>
       <c r="DB15" s="15">
-        <v>114.17535320682215</v>
+        <v>116.9199530435246</v>
       </c>
       <c r="DC15" s="15">
-        <v>116.9199530435246</v>
+        <v>119.66455288022706</v>
       </c>
       <c r="DD15" s="15">
-        <v>119.66455288022706</v>
+        <v>122.40915271692951</v>
       </c>
       <c r="DE15" s="15">
-        <v>122.40915271692951</v>
+        <v>125.15375255363197</v>
       </c>
       <c r="DF15" s="15">
-        <v>125.15375255363197</v>
+        <v>127.89835239033442</v>
       </c>
       <c r="DG15" s="15">
-        <v>127.89835239033442</v>
+        <v>130.64295222703689</v>
       </c>
       <c r="DH15" s="15">
-        <v>130.64295222703689</v>
+        <v>133.38755206373935</v>
       </c>
       <c r="DI15" s="15">
-        <v>133.38755206373935</v>
+        <v>136.13215190044178</v>
       </c>
       <c r="DJ15" s="15">
-        <v>136.13215190044178</v>
+        <v>138.87675173714425</v>
       </c>
       <c r="DK15" s="15">
-        <v>138.87675173714425</v>
+        <v>141.62135157384671</v>
       </c>
       <c r="DL15" s="15">
-        <v>141.62135157384671</v>
+        <v>144.36595141054917</v>
       </c>
       <c r="DM15" s="15">
-        <v>144.36595141054917</v>
+        <v>147.11055124725161</v>
       </c>
       <c r="DN15" s="15">
-        <v>147.11055124725161</v>
+        <v>149.85515108395407</v>
       </c>
       <c r="DO15" s="15">
-        <v>149.85515108395407</v>
+        <v>152.59975092065653</v>
       </c>
       <c r="DP15" s="15">
-        <v>152.59975092065653</v>
+        <v>155.344350757359</v>
       </c>
       <c r="DQ15" s="15">
-        <v>155.344350757359</v>
-      </c>
-      <c r="DR15" s="15">
         <v>158.08895059406143</v>
       </c>
+      <c r="DR15" s="16">
+        <v>164.29860772460074</v>
+      </c>
       <c r="DS15" s="16">
-        <v>164.29860772460074</v>
+        <v>170.50826485514006</v>
       </c>
       <c r="DT15" s="16">
-        <v>170.50826485514006</v>
+        <v>176.71792198567937</v>
       </c>
       <c r="DU15" s="16">
-        <v>176.71792198567937</v>
+        <v>182.92757911621865</v>
       </c>
       <c r="DV15" s="16">
-        <v>182.92757911621865</v>
+        <v>189.13723624675796</v>
       </c>
       <c r="DW15" s="16">
-        <v>189.13723624675796</v>
+        <v>195.34689337729728</v>
       </c>
       <c r="DX15" s="16">
-        <v>195.34689337729728</v>
+        <v>201.55655050783659</v>
       </c>
       <c r="DY15" s="16">
-        <v>201.55655050783659</v>
+        <v>207.76620763837587</v>
       </c>
       <c r="DZ15" s="16">
-        <v>207.76620763837587</v>
+        <v>213.97586476891519</v>
       </c>
       <c r="EA15" s="16">
-        <v>213.97586476891519</v>
+        <v>220.1855218994545</v>
       </c>
       <c r="EB15" s="16">
-        <v>220.1855218994545</v>
+        <v>226.39517902999381</v>
       </c>
       <c r="EC15" s="16">
-        <v>226.39517902999381</v>
+        <v>232.6048361605331</v>
       </c>
       <c r="ED15" s="16">
-        <v>232.6048361605331</v>
+        <v>238.81449329107241</v>
       </c>
       <c r="EE15" s="16">
-        <v>238.81449329107241</v>
+        <v>245.02415042161172</v>
       </c>
       <c r="EF15" s="16">
-        <v>245.02415042161172</v>
+        <v>251.23380755215103</v>
       </c>
       <c r="EG15" s="16">
-        <v>251.23380755215103</v>
+        <v>257.44346468269032</v>
       </c>
       <c r="EH15" s="16">
-        <v>257.44346468269032</v>
+        <v>263.65312181322963</v>
       </c>
       <c r="EI15" s="16">
-        <v>263.65312181322963</v>
+        <v>269.86277894376894</v>
       </c>
       <c r="EJ15" s="16">
-        <v>269.86277894376894</v>
+        <v>276.07243607430826</v>
       </c>
       <c r="EK15" s="16">
-        <v>276.07243607430826</v>
+        <v>282.28209320484757</v>
       </c>
       <c r="EL15" s="16">
-        <v>282.28209320484757</v>
+        <v>288.49175033538688</v>
       </c>
       <c r="EM15" s="16">
-        <v>288.49175033538688</v>
+        <v>294.70140746592614</v>
       </c>
       <c r="EN15" s="16">
-        <v>294.70140746592614</v>
+        <v>300.91106459646545</v>
       </c>
       <c r="EO15" s="16">
-        <v>300.91106459646545</v>
+        <v>307.12072172700476</v>
       </c>
       <c r="EP15" s="16">
-        <v>307.12072172700476</v>
+        <v>313.33037885754408</v>
       </c>
       <c r="EQ15" s="16">
-        <v>313.33037885754408</v>
+        <v>319.54003598808339</v>
       </c>
       <c r="ER15" s="16">
-        <v>319.54003598808339</v>
+        <v>325.7496931186227</v>
       </c>
       <c r="ES15" s="16">
-        <v>325.7496931186227</v>
+        <v>331.95935024916201</v>
       </c>
       <c r="ET15" s="16">
-        <v>331.95935024916201</v>
+        <v>338.16900737970133</v>
       </c>
       <c r="EU15" s="16">
-        <v>338.16900737970133</v>
+        <v>344.37866451024058</v>
       </c>
       <c r="EV15" s="16">
-        <v>344.37866451024058</v>
+        <v>350.5883216407799</v>
       </c>
       <c r="EW15" s="16">
-        <v>350.5883216407799</v>
-      </c>
-      <c r="EX15" s="16">
         <v>356.79797877131921</v>
       </c>
     </row>
-    <row r="16" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:153" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C16" s="14">
+        <v>29.807167925296728</v>
       </c>
       <c r="D16" s="14">
         <v>29.807167925296728</v>
@@ -12698,310 +12643,307 @@
       <c r="AZ16" s="14">
         <v>29.807167925296728</v>
       </c>
-      <c r="BA16" s="14">
+      <c r="BA16" s="15">
         <v>29.807167925296728</v>
       </c>
       <c r="BB16" s="15">
-        <v>29.807167925296728</v>
+        <v>30.164853940400359</v>
       </c>
       <c r="BC16" s="15">
-        <v>30.164853940400359</v>
+        <v>30.522539955503877</v>
       </c>
       <c r="BD16" s="15">
-        <v>30.522539955503877</v>
+        <v>30.880225970607452</v>
       </c>
       <c r="BE16" s="15">
-        <v>30.880225970607452</v>
+        <v>31.237911985710969</v>
       </c>
       <c r="BF16" s="15">
-        <v>31.237911985710969</v>
+        <v>31.59559800081454</v>
       </c>
       <c r="BG16" s="15">
-        <v>31.59559800081454</v>
+        <v>31.953284015918136</v>
       </c>
       <c r="BH16" s="15">
-        <v>31.953284015918136</v>
+        <v>32.310970031021689</v>
       </c>
       <c r="BI16" s="15">
-        <v>32.310970031021689</v>
+        <v>32.668656046125264</v>
       </c>
       <c r="BJ16" s="15">
-        <v>32.668656046125264</v>
+        <v>33.026342061228782</v>
       </c>
       <c r="BK16" s="15">
-        <v>33.026342061228782</v>
+        <v>33.384028076332356</v>
       </c>
       <c r="BL16" s="15">
-        <v>33.384028076332356</v>
+        <v>33.741714091435931</v>
       </c>
       <c r="BM16" s="15">
-        <v>33.741714091435931</v>
+        <v>34.099400106539505</v>
       </c>
       <c r="BN16" s="15">
-        <v>34.099400106539505</v>
+        <v>34.457086121643023</v>
       </c>
       <c r="BO16" s="15">
-        <v>34.457086121643023</v>
+        <v>34.814772136746598</v>
       </c>
       <c r="BP16" s="15">
-        <v>34.814772136746598</v>
+        <v>35.172458151850172</v>
       </c>
       <c r="BQ16" s="15">
-        <v>35.172458151850172</v>
+        <v>35.530144166953747</v>
       </c>
       <c r="BR16" s="15">
-        <v>35.530144166953747</v>
+        <v>35.887830182057321</v>
       </c>
       <c r="BS16" s="15">
-        <v>35.887830182057321</v>
+        <v>36.245516197160839</v>
       </c>
       <c r="BT16" s="15">
-        <v>36.245516197160839</v>
+        <v>36.603202212264414</v>
       </c>
       <c r="BU16" s="15">
-        <v>36.603202212264414</v>
+        <v>36.960888227367931</v>
       </c>
       <c r="BV16" s="15">
-        <v>36.960888227367931</v>
+        <v>37.318574242471563</v>
       </c>
       <c r="BW16" s="15">
-        <v>37.318574242471563</v>
+        <v>37.67626025757508</v>
       </c>
       <c r="BX16" s="15">
-        <v>37.67626025757508</v>
+        <v>38.033946272678655</v>
       </c>
       <c r="BY16" s="15">
-        <v>38.033946272678655</v>
+        <v>38.39163228778223</v>
       </c>
       <c r="BZ16" s="15">
-        <v>38.39163228778223</v>
+        <v>38.649961076468095</v>
       </c>
       <c r="CA16" s="15">
-        <v>38.649961076468095</v>
+        <v>39.444818887809383</v>
       </c>
       <c r="CB16" s="15">
-        <v>39.444818887809383</v>
+        <v>40.140319472732962</v>
       </c>
       <c r="CC16" s="15">
-        <v>40.140319472732962</v>
+        <v>40.835820057656541</v>
       </c>
       <c r="CD16" s="15">
-        <v>40.835820057656541</v>
+        <v>41.53132064258012</v>
       </c>
       <c r="CE16" s="15">
-        <v>41.53132064258012</v>
+        <v>42.226821227503699</v>
       </c>
       <c r="CF16" s="15">
-        <v>42.226821227503699</v>
+        <v>42.922321812427334</v>
       </c>
       <c r="CG16" s="15">
-        <v>42.922321812427334</v>
+        <v>43.617822397350913</v>
       </c>
       <c r="CH16" s="15">
-        <v>43.617822397350913</v>
+        <v>44.313322982274492</v>
       </c>
       <c r="CI16" s="15">
-        <v>44.313322982274492</v>
+        <v>45.008823567198071</v>
       </c>
       <c r="CJ16" s="15">
-        <v>45.008823567198071</v>
+        <v>45.70432415212165</v>
       </c>
       <c r="CK16" s="15">
-        <v>45.70432415212165</v>
+        <v>47.393397001221842</v>
       </c>
       <c r="CL16" s="15">
-        <v>47.393397001221842</v>
+        <v>49.082469850321978</v>
       </c>
       <c r="CM16" s="15">
-        <v>49.082469850321978</v>
+        <v>50.771542699422113</v>
       </c>
       <c r="CN16" s="15">
-        <v>50.771542699422113</v>
+        <v>52.460615548522249</v>
       </c>
       <c r="CO16" s="15">
-        <v>52.460615548522249</v>
+        <v>54.24904562404005</v>
       </c>
       <c r="CP16" s="15">
-        <v>54.24904562404005</v>
+        <v>56.660114318441195</v>
       </c>
       <c r="CQ16" s="15">
-        <v>56.660114318441195</v>
+        <v>59.071183012843136</v>
       </c>
       <c r="CR16" s="15">
-        <v>59.071183012843136</v>
+        <v>61.482251707245069</v>
       </c>
       <c r="CS16" s="15">
-        <v>61.482251707245069</v>
+        <v>63.89332040164701</v>
       </c>
       <c r="CT16" s="15">
-        <v>63.89332040164701</v>
+        <v>66.304389096048936</v>
       </c>
       <c r="CU16" s="15">
-        <v>66.304389096048936</v>
+        <v>69.625759236296517</v>
       </c>
       <c r="CV16" s="15">
-        <v>69.625759236296517</v>
+        <v>72.947129376544083</v>
       </c>
       <c r="CW16" s="15">
-        <v>72.947129376544083</v>
+        <v>76.268499516790868</v>
       </c>
       <c r="CX16" s="15">
-        <v>76.268499516790868</v>
+        <v>79.589869657038449</v>
       </c>
       <c r="CY16" s="15">
-        <v>79.589869657038449</v>
+        <v>82.911239797286029</v>
       </c>
       <c r="CZ16" s="15">
-        <v>82.911239797286029</v>
+        <v>86.232609937532814</v>
       </c>
       <c r="DA16" s="15">
-        <v>86.232609937532814</v>
+        <v>89.55398007778038</v>
       </c>
       <c r="DB16" s="15">
-        <v>89.55398007778038</v>
+        <v>95.581651813784845</v>
       </c>
       <c r="DC16" s="15">
-        <v>95.581651813784845</v>
+        <v>101.60932354978929</v>
       </c>
       <c r="DD16" s="15">
-        <v>101.60932354978929</v>
+        <v>107.63699528579374</v>
       </c>
       <c r="DE16" s="15">
-        <v>107.63699528579374</v>
+        <v>109.48220091926426</v>
       </c>
       <c r="DF16" s="15">
-        <v>109.48220091926426</v>
+        <v>111.32740655273479</v>
       </c>
       <c r="DG16" s="15">
-        <v>111.32740655273479</v>
+        <v>113.17261218620609</v>
       </c>
       <c r="DH16" s="15">
-        <v>113.17261218620609</v>
+        <v>115.01781781967662</v>
       </c>
       <c r="DI16" s="15">
-        <v>115.01781781967662</v>
+        <v>116.86302345314715</v>
       </c>
       <c r="DJ16" s="15">
-        <v>116.86302345314715</v>
+        <v>118.70822908661768</v>
       </c>
       <c r="DK16" s="15">
-        <v>118.70822908661768</v>
+        <v>120.553434720089</v>
       </c>
       <c r="DL16" s="15">
-        <v>120.553434720089</v>
+        <v>122.70617462580486</v>
       </c>
       <c r="DM16" s="15">
-        <v>122.70617462580486</v>
+        <v>124.85891453152074</v>
       </c>
       <c r="DN16" s="15">
-        <v>124.85891453152074</v>
+        <v>127.01165443723661</v>
       </c>
       <c r="DO16" s="15">
-        <v>127.01165443723661</v>
+        <v>129.16439434295248</v>
       </c>
       <c r="DP16" s="15">
-        <v>129.16439434295248</v>
+        <v>136.94737707900097</v>
       </c>
       <c r="DQ16" s="15">
-        <v>136.94737707900097</v>
-      </c>
-      <c r="DR16" s="15">
         <v>143.73678755087474</v>
       </c>
+      <c r="DR16" s="16">
+        <v>149.33598124795304</v>
+      </c>
       <c r="DS16" s="16">
-        <v>149.33598124795304</v>
+        <v>154.93517494503138</v>
       </c>
       <c r="DT16" s="16">
-        <v>154.93517494503138</v>
+        <v>160.53436864210971</v>
       </c>
       <c r="DU16" s="16">
-        <v>160.53436864210971</v>
+        <v>166.13356233918805</v>
       </c>
       <c r="DV16" s="16">
-        <v>166.13356233918805</v>
+        <v>171.73275603626635</v>
       </c>
       <c r="DW16" s="16">
-        <v>171.73275603626635</v>
+        <v>177.33194973334469</v>
       </c>
       <c r="DX16" s="16">
-        <v>177.33194973334469</v>
+        <v>182.93114343042302</v>
       </c>
       <c r="DY16" s="16">
-        <v>182.93114343042302</v>
+        <v>188.53033712750135</v>
       </c>
       <c r="DZ16" s="16">
-        <v>188.53033712750135</v>
+        <v>194.12953082457966</v>
       </c>
       <c r="EA16" s="16">
-        <v>194.12953082457966</v>
+        <v>199.72872452165799</v>
       </c>
       <c r="EB16" s="16">
-        <v>199.72872452165799</v>
+        <v>205.32791821873633</v>
       </c>
       <c r="EC16" s="16">
-        <v>205.32791821873633</v>
+        <v>210.92711191581466</v>
       </c>
       <c r="ED16" s="16">
-        <v>210.92711191581466</v>
+        <v>216.526305612893</v>
       </c>
       <c r="EE16" s="16">
-        <v>216.526305612893</v>
+        <v>222.1254993099713</v>
       </c>
       <c r="EF16" s="16">
-        <v>222.1254993099713</v>
+        <v>227.72469300704964</v>
       </c>
       <c r="EG16" s="16">
-        <v>227.72469300704964</v>
+        <v>233.32388670412797</v>
       </c>
       <c r="EH16" s="16">
-        <v>233.32388670412797</v>
+        <v>238.92308040120631</v>
       </c>
       <c r="EI16" s="16">
-        <v>238.92308040120631</v>
+        <v>244.52227409828461</v>
       </c>
       <c r="EJ16" s="16">
-        <v>244.52227409828461</v>
+        <v>250.12146779536295</v>
       </c>
       <c r="EK16" s="16">
-        <v>250.12146779536295</v>
+        <v>255.72066149244128</v>
       </c>
       <c r="EL16" s="16">
-        <v>255.72066149244128</v>
+        <v>261.31985518951961</v>
       </c>
       <c r="EM16" s="16">
-        <v>261.31985518951961</v>
+        <v>266.91904888659792</v>
       </c>
       <c r="EN16" s="16">
-        <v>266.91904888659792</v>
+        <v>272.51824258367628</v>
       </c>
       <c r="EO16" s="16">
-        <v>272.51824258367628</v>
+        <v>278.11743628075459</v>
       </c>
       <c r="EP16" s="16">
-        <v>278.11743628075459</v>
+        <v>283.71662997783289</v>
       </c>
       <c r="EQ16" s="16">
-        <v>283.71662997783289</v>
+        <v>289.31582367491126</v>
       </c>
       <c r="ER16" s="16">
-        <v>289.31582367491126</v>
+        <v>294.91501737198956</v>
       </c>
       <c r="ES16" s="16">
-        <v>294.91501737198956</v>
+        <v>300.51421106906793</v>
       </c>
       <c r="ET16" s="16">
-        <v>300.51421106906793</v>
+        <v>306.11340476614623</v>
       </c>
       <c r="EU16" s="16">
-        <v>306.11340476614623</v>
+        <v>311.71259846322454</v>
       </c>
       <c r="EV16" s="16">
-        <v>311.71259846322454</v>
+        <v>317.3117921603029</v>
       </c>
       <c r="EW16" s="16">
-        <v>317.3117921603029</v>
-      </c>
-      <c r="EX16" s="16">
         <v>322.91098585738121</v>
       </c>
     </row>
@@ -17365,10 +17307,10 @@
     </row>
     <row r="20" spans="97:133" x14ac:dyDescent="0.25">
       <c r="CT20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CW20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CY20" s="1">
         <v>2000</v>
@@ -17442,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="CX21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY21" s="17">
         <v>0.1</v>
@@ -17516,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="CX22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CY22" s="17">
         <v>0.27</v>
@@ -17591,7 +17533,7 @@
         <v>0</v>
       </c>
       <c r="CX23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CY23" s="17">
         <v>0.43</v>
@@ -17666,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="CX24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CY24" s="17">
         <v>0.2</v>
@@ -17741,7 +17683,7 @@
         <v>1</v>
       </c>
       <c r="CX25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY25" s="17">
         <v>0.34</v>
@@ -17816,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="CX26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CY26" s="17">
         <v>0.32</v>
@@ -17890,7 +17832,7 @@
         <v>1</v>
       </c>
       <c r="CX27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CY27" s="17">
         <v>0.25</v>
@@ -17964,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="CX28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CY28" s="17">
         <v>0.09</v>
@@ -18038,7 +17980,7 @@
         <v>2</v>
       </c>
       <c r="CX29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY29" s="17">
         <v>0.34</v>
@@ -18112,7 +18054,7 @@
         <v>2</v>
       </c>
       <c r="CX30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CY30" s="17">
         <v>0.26</v>
@@ -18186,7 +18128,7 @@
         <v>2</v>
       </c>
       <c r="CX31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CY31" s="17">
         <v>0.23173913043478259</v>
@@ -18260,7 +18202,7 @@
         <v>2</v>
       </c>
       <c r="CX32" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CY32" s="17">
         <v>0.18</v>
@@ -18334,7 +18276,7 @@
         <v>3</v>
       </c>
       <c r="CX33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY33" s="17">
         <v>0.55000000000000004</v>
@@ -18408,7 +18350,7 @@
         <v>3</v>
       </c>
       <c r="CX34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CY34" s="17">
         <v>0.15</v>
@@ -18482,7 +18424,7 @@
         <v>3</v>
       </c>
       <c r="CX35" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CY35" s="17">
         <v>0.22</v>
@@ -18556,7 +18498,7 @@
         <v>3</v>
       </c>
       <c r="CX36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CY36" s="17">
         <v>0.08</v>
@@ -18630,7 +18572,7 @@
         <v>4</v>
       </c>
       <c r="CX37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY37" s="17">
         <v>0.26</v>
@@ -18704,7 +18646,7 @@
         <v>4</v>
       </c>
       <c r="CX38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="CY38" s="17">
         <v>0.24</v>
@@ -18778,7 +18720,7 @@
         <v>4</v>
       </c>
       <c r="CX39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CY39" s="17">
         <v>0.36</v>
@@ -18852,7 +18794,7 @@
         <v>4</v>
       </c>
       <c r="CX40" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CY40" s="17">
         <v>0.14000000000000001</v>
@@ -18988,7 +18930,7 @@
         <v>0</v>
       </c>
       <c r="CX43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY43">
         <f>CY21*$CT21+CY22*$CT22+CY23*$CT23+CY24*$CT24</f>
@@ -19080,7 +19022,7 @@
         <v>1</v>
       </c>
       <c r="CX44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY44">
         <f t="shared" ref="CY44:DS44" si="24">CY25*$CT25+CY26*$CT26+CY27*$CT27+CY28*$CT28</f>
@@ -19172,7 +19114,7 @@
         <v>2</v>
       </c>
       <c r="CX45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY45">
         <f t="shared" ref="CY45:DS45" si="25">CY29*$CT29+CY30*$CT30+CY31*$CT31+CY32*$CT32</f>
@@ -19264,7 +19206,7 @@
         <v>3</v>
       </c>
       <c r="CX46" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY46">
         <f t="shared" ref="CY46:DS46" si="26">CY33*$CT33+CY34*$CT34+CY35*$CT35+CY36*$CT36</f>
@@ -19356,7 +19298,7 @@
         <v>4</v>
       </c>
       <c r="CX47" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CY47">
         <f t="shared" ref="CY47:DS47" si="27">CY37*$CT37+CY38*$CT38+CY39*$CT39+CY40*$CT40</f>
